--- a/data/hs_01_11.xlsx
+++ b/data/hs_01_11.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
   <si>
     <t>日期</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>涨跌幅</t>
+  </si>
+  <si>
+    <t>3.42B</t>
   </si>
   <si>
     <t>1.79B</t>
@@ -1653,13 +1656,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.9230769230769"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1686,4739 +1692,4762 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B2" s="2">
-        <v>26158.36</v>
+        <v>25952.4</v>
       </c>
       <c r="C2" s="2">
-        <v>26020.5</v>
+        <v>26147.98</v>
       </c>
       <c r="D2" s="2">
-        <v>26217.12</v>
+        <v>26291.65</v>
       </c>
       <c r="E2" s="2">
-        <v>25920.27</v>
+        <v>25911.29</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0097</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B3" s="2">
-        <v>25906.65</v>
+        <v>26158.36</v>
       </c>
       <c r="C3" s="2">
-        <v>26263.01</v>
+        <v>26020.5</v>
       </c>
       <c r="D3" s="2">
-        <v>26283.96</v>
+        <v>26217.12</v>
       </c>
       <c r="E3" s="2">
-        <v>25906.65</v>
+        <v>25920.27</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.0143</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B4" s="2">
-        <v>26282.69</v>
+        <v>25906.65</v>
       </c>
       <c r="C4" s="2">
-        <v>26545.92</v>
+        <v>26263.01</v>
       </c>
       <c r="D4" s="2">
-        <v>26588.89</v>
+        <v>26283.96</v>
       </c>
       <c r="E4" s="2">
-        <v>26138.79</v>
+        <v>25906.65</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0024</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B5" s="2">
-        <v>26346.14</v>
+        <v>26282.69</v>
       </c>
       <c r="C5" s="2">
-        <v>26508.75</v>
+        <v>26545.92</v>
       </c>
       <c r="D5" s="2">
-        <v>26519.24</v>
+        <v>26588.89</v>
       </c>
       <c r="E5" s="2">
-        <v>26245.33</v>
+        <v>26138.79</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.0033</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B6" s="2">
-        <v>26433.7</v>
+        <v>26346.14</v>
       </c>
       <c r="C6" s="2">
-        <v>26495.97</v>
+        <v>26508.75</v>
       </c>
       <c r="D6" s="2">
-        <v>26495.97</v>
+        <v>26519.24</v>
       </c>
       <c r="E6" s="2">
-        <v>26319.22</v>
+        <v>26245.33</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0105</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B7" s="2">
-        <v>26160.15</v>
+        <v>26433.7</v>
       </c>
       <c r="C7" s="2">
-        <v>26177.11</v>
+        <v>26495.97</v>
       </c>
       <c r="D7" s="2">
-        <v>26239.96</v>
+        <v>26495.97</v>
       </c>
       <c r="E7" s="2">
-        <v>26063.99</v>
+        <v>26319.22</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0074</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B8" s="2">
-        <v>25967.98</v>
+        <v>26160.15</v>
       </c>
       <c r="C8" s="2">
-        <v>25718.53</v>
+        <v>26177.11</v>
       </c>
       <c r="D8" s="2">
-        <v>26080.84</v>
+        <v>26239.96</v>
       </c>
       <c r="E8" s="2">
-        <v>25591.66</v>
+        <v>26063.99</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0072</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B9" s="2">
-        <v>25781.77</v>
+        <v>25967.98</v>
       </c>
       <c r="C9" s="2">
-        <v>25897.62</v>
+        <v>25718.53</v>
       </c>
       <c r="D9" s="2">
-        <v>25947.88</v>
+        <v>26080.84</v>
       </c>
       <c r="E9" s="2">
-        <v>25653.75</v>
+        <v>25591.66</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.0094</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B10" s="2">
-        <v>26027.55</v>
+        <v>25781.77</v>
       </c>
       <c r="C10" s="2">
-        <v>26160.24</v>
+        <v>25897.62</v>
       </c>
       <c r="D10" s="2">
-        <v>26367.35</v>
+        <v>25947.88</v>
       </c>
       <c r="E10" s="2">
-        <v>26017.72</v>
+        <v>25653.75</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0065</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B11" s="2">
-        <v>25858.83</v>
+        <v>26027.55</v>
       </c>
       <c r="C11" s="2">
-        <v>25884.46</v>
+        <v>26160.24</v>
       </c>
       <c r="D11" s="2">
-        <v>25912.77</v>
+        <v>26367.35</v>
       </c>
       <c r="E11" s="2">
-        <v>25710.61</v>
+        <v>26017.72</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0242</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B12" s="2">
-        <v>25247.1</v>
+        <v>25858.83</v>
       </c>
       <c r="C12" s="2">
-        <v>25851.94</v>
+        <v>25884.46</v>
       </c>
       <c r="D12" s="2">
-        <v>25859.82</v>
+        <v>25912.77</v>
       </c>
       <c r="E12" s="2">
-        <v>25145.34</v>
+        <v>25710.61</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.0248</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B13" s="2">
-        <v>25888.51</v>
+        <v>25247.1</v>
       </c>
       <c r="C13" s="2">
-        <v>25890.01</v>
+        <v>25851.94</v>
       </c>
       <c r="D13" s="2">
-        <v>26062.8</v>
+        <v>25859.82</v>
       </c>
       <c r="E13" s="2">
-        <v>25687.32</v>
+        <v>25145.34</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.0009</v>
+        <v>-0.0248</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B14" s="2">
-        <v>25910.6</v>
+        <v>25888.51</v>
       </c>
       <c r="C14" s="2">
-        <v>25714.89</v>
+        <v>25890.01</v>
       </c>
       <c r="D14" s="2">
-        <v>25982.21</v>
+        <v>26062.8</v>
       </c>
       <c r="E14" s="2">
-        <v>25593.45</v>
+        <v>25687.32</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0184</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B15" s="2">
-        <v>25441.35</v>
+        <v>25910.6</v>
       </c>
       <c r="C15" s="2">
-        <v>25969.21</v>
+        <v>25714.89</v>
       </c>
       <c r="D15" s="2">
-        <v>26102.68</v>
+        <v>25982.21</v>
       </c>
       <c r="E15" s="2">
-        <v>25331.64</v>
+        <v>25593.45</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.0173</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B16" s="2">
-        <v>25889.48</v>
+        <v>25441.35</v>
       </c>
       <c r="C16" s="2">
-        <v>25634</v>
+        <v>25969.21</v>
       </c>
       <c r="D16" s="2">
-        <v>25895.62</v>
+        <v>26102.68</v>
       </c>
       <c r="E16" s="2">
-        <v>25336.09</v>
+        <v>25331.64</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.0152</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B17" s="2">
-        <v>26290.32</v>
+        <v>25889.48</v>
       </c>
       <c r="C17" s="2">
-        <v>26523.89</v>
+        <v>25634</v>
       </c>
       <c r="D17" s="2">
-        <v>26558.87</v>
+        <v>25895.62</v>
       </c>
       <c r="E17" s="2">
-        <v>26247.04</v>
+        <v>25336.09</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="3">
-        <v>-0.0173</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="B18" s="2">
-        <v>26752.59</v>
+        <v>26290.32</v>
       </c>
       <c r="C18" s="2">
-        <v>26862.03</v>
+        <v>26523.89</v>
       </c>
       <c r="D18" s="2">
-        <v>26978.41</v>
+        <v>26558.87</v>
       </c>
       <c r="E18" s="2">
-        <v>26480.58</v>
+        <v>26247.04</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.0029</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B19" s="2">
-        <v>26829.46</v>
+        <v>26752.59</v>
       </c>
       <c r="C19" s="2">
-        <v>26900.64</v>
+        <v>26862.03</v>
       </c>
       <c r="D19" s="2">
-        <v>26906.2</v>
+        <v>26978.41</v>
       </c>
       <c r="E19" s="2">
-        <v>26517.45</v>
+        <v>26480.58</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.0048</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="B20" s="2">
-        <v>26957.77</v>
+        <v>26829.46</v>
       </c>
       <c r="C20" s="2">
-        <v>27003.92</v>
+        <v>26900.64</v>
       </c>
       <c r="D20" s="2">
-        <v>27145.17</v>
+        <v>26906.2</v>
       </c>
       <c r="E20" s="2">
-        <v>26873.34</v>
+        <v>26517.45</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="3">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="B21" s="2">
-        <v>27140.92</v>
+        <v>26957.77</v>
       </c>
       <c r="C21" s="2">
-        <v>27221.46</v>
+        <v>27003.92</v>
       </c>
       <c r="D21" s="2">
-        <v>27262</v>
+        <v>27145.17</v>
       </c>
       <c r="E21" s="2">
-        <v>26972.71</v>
+        <v>26873.34</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.0054</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="B22" s="2">
-        <v>27287.12</v>
+        <v>27140.92</v>
       </c>
       <c r="C22" s="2">
-        <v>26918.3</v>
+        <v>27221.46</v>
       </c>
       <c r="D22" s="2">
-        <v>27381.84</v>
+        <v>27262</v>
       </c>
       <c r="E22" s="2">
-        <v>26918.3</v>
+        <v>26972.71</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0161</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B23" s="2">
-        <v>26855.56</v>
+        <v>27287.12</v>
       </c>
       <c r="C23" s="2">
-        <v>26674.16</v>
+        <v>26918.3</v>
       </c>
       <c r="D23" s="2">
-        <v>26888.4</v>
+        <v>27381.84</v>
       </c>
       <c r="E23" s="2">
-        <v>26558.28</v>
+        <v>26918.3</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0087</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B24" s="2">
-        <v>26622.88</v>
+        <v>26855.56</v>
       </c>
       <c r="C24" s="2">
-        <v>26321.57</v>
+        <v>26674.16</v>
       </c>
       <c r="D24" s="2">
-        <v>26687.72</v>
+        <v>26888.4</v>
       </c>
       <c r="E24" s="2">
-        <v>26321.57</v>
+        <v>26558.28</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0189</v>
+        <v>0.0087</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B25" s="2">
-        <v>26128.2</v>
+        <v>26622.88</v>
       </c>
       <c r="C25" s="2">
-        <v>26272.3</v>
+        <v>26321.57</v>
       </c>
       <c r="D25" s="2">
-        <v>26406.05</v>
+        <v>26687.72</v>
       </c>
       <c r="E25" s="2">
-        <v>26072.93</v>
+        <v>26321.57</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G25" s="3">
-        <v>-0.0135</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B26" s="2">
-        <v>26484.68</v>
+        <v>26128.2</v>
       </c>
       <c r="C26" s="2">
-        <v>26536.13</v>
+        <v>26272.3</v>
       </c>
       <c r="D26" s="2">
-        <v>26640.53</v>
+        <v>26406.05</v>
       </c>
       <c r="E26" s="2">
-        <v>26403.52</v>
+        <v>26072.93</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="3">
-        <v>-0.0013</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B27" s="2">
-        <v>26518.65</v>
+        <v>26484.68</v>
       </c>
       <c r="C27" s="2">
-        <v>26073.69</v>
+        <v>26536.13</v>
       </c>
       <c r="D27" s="2">
-        <v>26562.88</v>
+        <v>26640.53</v>
       </c>
       <c r="E27" s="2">
-        <v>26057.26</v>
+        <v>26403.52</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0137</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B28" s="2">
-        <v>26159.12</v>
+        <v>26518.65</v>
       </c>
       <c r="C28" s="2">
-        <v>26435.58</v>
+        <v>26073.69</v>
       </c>
       <c r="D28" s="2">
-        <v>26454.09</v>
+        <v>26562.88</v>
       </c>
       <c r="E28" s="2">
-        <v>26003.67</v>
+        <v>26057.26</v>
       </c>
       <c r="F28" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="3">
-        <v>-0.007</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B29" s="2">
-        <v>26344.14</v>
+        <v>26159.12</v>
       </c>
       <c r="C29" s="2">
-        <v>26459.52</v>
+        <v>26435.58</v>
       </c>
       <c r="D29" s="2">
-        <v>26479.14</v>
+        <v>26454.09</v>
       </c>
       <c r="E29" s="2">
-        <v>26204.01</v>
+        <v>26003.67</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
       </c>
       <c r="G29" s="3">
-        <v>-0.0076</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B30" s="2">
-        <v>26545.1</v>
+        <v>26344.14</v>
       </c>
       <c r="C30" s="2">
-        <v>26583.03</v>
+        <v>26459.52</v>
       </c>
       <c r="D30" s="2">
-        <v>26637.64</v>
+        <v>26479.14</v>
       </c>
       <c r="E30" s="2">
-        <v>26414.11</v>
+        <v>26204.01</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B31" s="2">
-        <v>26544.85</v>
+        <v>26545.1</v>
       </c>
       <c r="C31" s="2">
-        <v>26863.69</v>
+        <v>26583.03</v>
       </c>
       <c r="D31" s="2">
-        <v>27058.03</v>
+        <v>26637.64</v>
       </c>
       <c r="E31" s="2">
-        <v>26322.08</v>
+        <v>26414.11</v>
       </c>
       <c r="F31" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.0135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B32" s="2">
-        <v>26908.39</v>
+        <v>26544.85</v>
       </c>
       <c r="C32" s="2">
-        <v>26554.19</v>
+        <v>26863.69</v>
       </c>
       <c r="D32" s="2">
-        <v>26936.5</v>
+        <v>27058.03</v>
       </c>
       <c r="E32" s="2">
-        <v>26540.57</v>
+        <v>26322.08</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0178</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B33" s="2">
-        <v>26438.51</v>
+        <v>26908.39</v>
       </c>
       <c r="C33" s="2">
-        <v>26536.63</v>
+        <v>26554.19</v>
       </c>
       <c r="D33" s="2">
-        <v>26601.59</v>
+        <v>26936.5</v>
       </c>
       <c r="E33" s="2">
-        <v>26332.21</v>
+        <v>26540.57</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="3">
-        <v>-0.0003</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B34" s="2">
-        <v>26446.56</v>
+        <v>26438.51</v>
       </c>
       <c r="C34" s="2">
-        <v>26308.91</v>
+        <v>26536.63</v>
       </c>
       <c r="D34" s="2">
-        <v>26532.75</v>
+        <v>26601.59</v>
       </c>
       <c r="E34" s="2">
-        <v>26280.23</v>
+        <v>26332.21</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G34" s="3">
-        <v>0.0022</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B35" s="2">
-        <v>26388.16</v>
+        <v>26446.56</v>
       </c>
       <c r="C35" s="2">
-        <v>26539.44</v>
+        <v>26308.91</v>
       </c>
       <c r="D35" s="2">
-        <v>26585.95</v>
+        <v>26532.75</v>
       </c>
       <c r="E35" s="2">
-        <v>26329.66</v>
+        <v>26280.23</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G35" s="3">
-        <v>0.0116</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B36" s="2">
-        <v>26086.32</v>
+        <v>26388.16</v>
       </c>
       <c r="C36" s="2">
-        <v>25987.49</v>
+        <v>26539.44</v>
       </c>
       <c r="D36" s="2">
-        <v>26241.46</v>
+        <v>26585.95</v>
       </c>
       <c r="E36" s="2">
-        <v>25878.97</v>
+        <v>26329.66</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
       </c>
       <c r="G36" s="3">
-        <v>-0.0043</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B37" s="2">
-        <v>26200.26</v>
+        <v>26086.32</v>
       </c>
       <c r="C37" s="2">
-        <v>26042.41</v>
+        <v>25987.49</v>
       </c>
       <c r="D37" s="2">
-        <v>26296.6</v>
+        <v>26241.46</v>
       </c>
       <c r="E37" s="2">
-        <v>26017.5</v>
+        <v>25878.97</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0101</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B38" s="2">
-        <v>25938.13</v>
+        <v>26200.26</v>
       </c>
       <c r="C38" s="2">
-        <v>25711.07</v>
+        <v>26042.41</v>
       </c>
       <c r="D38" s="2">
-        <v>26027.94</v>
+        <v>26296.6</v>
       </c>
       <c r="E38" s="2">
-        <v>25675.28</v>
+        <v>26017.5</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="3">
-        <v>0.0119</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B39" s="2">
-        <v>25633.91</v>
+        <v>25938.13</v>
       </c>
       <c r="C39" s="2">
-        <v>25440.01</v>
+        <v>25711.07</v>
       </c>
       <c r="D39" s="2">
-        <v>25664.01</v>
+        <v>26027.94</v>
       </c>
       <c r="E39" s="2">
-        <v>25387.81</v>
+        <v>25675.28</v>
       </c>
       <c r="F39" t="s">
         <v>39</v>
       </c>
       <c r="G39" s="3">
-        <v>0.0085</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B40" s="2">
-        <v>25417.98</v>
+        <v>25633.91</v>
       </c>
       <c r="C40" s="2">
-        <v>25136.24</v>
+        <v>25440.01</v>
       </c>
       <c r="D40" s="2">
-        <v>25471.8</v>
+        <v>25664.01</v>
       </c>
       <c r="E40" s="2">
-        <v>25090.65</v>
+        <v>25387.81</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
       </c>
       <c r="G40" s="3">
-        <v>0.0143</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B41" s="2">
-        <v>25058.51</v>
+        <v>25417.98</v>
       </c>
       <c r="C41" s="2">
-        <v>25489.13</v>
+        <v>25136.24</v>
       </c>
       <c r="D41" s="2">
-        <v>25494.45</v>
+        <v>25471.8</v>
       </c>
       <c r="E41" s="2">
-        <v>25013.26</v>
+        <v>25090.65</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G41" s="3">
-        <v>-0.0112</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B42" s="2">
-        <v>25343.43</v>
+        <v>25058.51</v>
       </c>
       <c r="C42" s="2">
-        <v>25660.65</v>
+        <v>25489.13</v>
       </c>
       <c r="D42" s="2">
-        <v>25789.99</v>
+        <v>25494.45</v>
       </c>
       <c r="E42" s="2">
-        <v>25276.87</v>
+        <v>25013.26</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42" s="3">
-        <v>-0.006</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B43" s="2">
-        <v>25496.55</v>
+        <v>25343.43</v>
       </c>
       <c r="C43" s="2">
-        <v>25587.97</v>
+        <v>25660.65</v>
       </c>
       <c r="D43" s="2">
-        <v>25724.73</v>
+        <v>25789.99</v>
       </c>
       <c r="E43" s="2">
-        <v>25416.61</v>
+        <v>25276.87</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="3">
-        <v>-0.0047</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B44" s="2">
-        <v>25617.42</v>
+        <v>25496.55</v>
       </c>
       <c r="C44" s="2">
-        <v>25508.21</v>
+        <v>25587.97</v>
       </c>
       <c r="D44" s="2">
-        <v>25638.34</v>
+        <v>25724.73</v>
       </c>
       <c r="E44" s="2">
-        <v>25471.35</v>
+        <v>25416.61</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G44" s="3">
-        <v>0.0215</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B45" s="2">
-        <v>25077.62</v>
+        <v>25617.42</v>
       </c>
       <c r="C45" s="2">
-        <v>25095.45</v>
+        <v>25508.21</v>
       </c>
       <c r="D45" s="2">
-        <v>25277.51</v>
+        <v>25638.34</v>
       </c>
       <c r="E45" s="2">
-        <v>25066.85</v>
+        <v>25471.35</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G45" s="3">
-        <v>0.0032</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B46" s="2">
-        <v>24998.82</v>
+        <v>25077.62</v>
       </c>
       <c r="C46" s="2">
-        <v>25030.54</v>
+        <v>25095.45</v>
       </c>
       <c r="D46" s="2">
-        <v>25093.65</v>
+        <v>25277.51</v>
       </c>
       <c r="E46" s="2">
-        <v>24808.78</v>
+        <v>25066.85</v>
       </c>
       <c r="F46" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="3">
-        <v>-0.0081</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B47" s="2">
-        <v>25201.76</v>
+        <v>24998.82</v>
       </c>
       <c r="C47" s="2">
-        <v>25626.17</v>
+        <v>25030.54</v>
       </c>
       <c r="D47" s="2">
-        <v>25653.92</v>
+        <v>25093.65</v>
       </c>
       <c r="E47" s="2">
-        <v>25140.17</v>
+        <v>24808.78</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
       </c>
       <c r="G47" s="3">
-        <v>-0.0127</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B48" s="2">
-        <v>25524.92</v>
+        <v>25201.76</v>
       </c>
       <c r="C48" s="2">
-        <v>25714.91</v>
+        <v>25626.17</v>
       </c>
       <c r="D48" s="2">
-        <v>25819.7</v>
+        <v>25653.92</v>
       </c>
       <c r="E48" s="2">
-        <v>25524.92</v>
+        <v>25140.17</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
       </c>
       <c r="G48" s="3">
-        <v>-0.0118</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B49" s="2">
-        <v>25829.91</v>
+        <v>25524.92</v>
       </c>
       <c r="C49" s="2">
-        <v>25606.88</v>
+        <v>25714.91</v>
       </c>
       <c r="D49" s="2">
-        <v>25918.86</v>
+        <v>25819.7</v>
       </c>
       <c r="E49" s="2">
-        <v>25590.62</v>
+        <v>25524.92</v>
       </c>
       <c r="F49" t="s">
         <v>47</v>
       </c>
       <c r="G49" s="3">
-        <v>0.0194</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B50" s="2">
-        <v>25339.14</v>
+        <v>25829.91</v>
       </c>
       <c r="C50" s="2">
-        <v>25205.04</v>
+        <v>25606.88</v>
       </c>
       <c r="D50" s="2">
-        <v>25349.08</v>
+        <v>25918.86</v>
       </c>
       <c r="E50" s="2">
-        <v>25140.08</v>
+        <v>25590.62</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
       </c>
       <c r="G50" s="3">
-        <v>0.0093</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B51" s="2">
-        <v>25104.61</v>
+        <v>25339.14</v>
       </c>
       <c r="C51" s="2">
-        <v>25216.42</v>
+        <v>25205.04</v>
       </c>
       <c r="D51" s="2">
-        <v>25216.42</v>
+        <v>25349.08</v>
       </c>
       <c r="E51" s="2">
-        <v>25000.85</v>
+        <v>25140.08</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G51" s="3">
-        <v>-0.0024</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B52" s="2">
-        <v>25165.94</v>
+        <v>25104.61</v>
       </c>
       <c r="C52" s="2">
-        <v>24968.57</v>
+        <v>25216.42</v>
       </c>
       <c r="D52" s="2">
-        <v>25210.9</v>
+        <v>25216.42</v>
       </c>
       <c r="E52" s="2">
-        <v>24887.93</v>
+        <v>25000.85</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G52" s="3">
-        <v>0.0017</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B53" s="2">
-        <v>25122.9</v>
+        <v>25165.94</v>
       </c>
       <c r="C53" s="2">
-        <v>25241.29</v>
+        <v>24968.57</v>
       </c>
       <c r="D53" s="2">
-        <v>25260.58</v>
+        <v>25210.9</v>
       </c>
       <c r="E53" s="2">
-        <v>25083.2</v>
+        <v>24887.93</v>
       </c>
       <c r="F53" t="s">
         <v>50</v>
       </c>
       <c r="G53" s="3">
-        <v>-0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B54" s="2">
-        <v>25176.85</v>
+        <v>25122.9</v>
       </c>
       <c r="C54" s="2">
-        <v>25293.34</v>
+        <v>25241.29</v>
       </c>
       <c r="D54" s="2">
-        <v>25466.1</v>
+        <v>25260.58</v>
       </c>
       <c r="E54" s="2">
-        <v>25176.85</v>
+        <v>25083.2</v>
       </c>
       <c r="F54" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="3">
-        <v>-0.0037</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="B55" s="2">
-        <v>25270.07</v>
+        <v>25176.85</v>
       </c>
       <c r="C55" s="2">
-        <v>25322.1</v>
+        <v>25293.34</v>
       </c>
       <c r="D55" s="2">
-        <v>25356.54</v>
+        <v>25466.1</v>
       </c>
       <c r="E55" s="2">
-        <v>25167.81</v>
+        <v>25176.85</v>
       </c>
       <c r="F55" t="s">
         <v>52</v>
       </c>
       <c r="G55" s="3">
-        <v>-0.0098</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="B56" s="2">
-        <v>25519.32</v>
+        <v>25270.07</v>
       </c>
       <c r="C56" s="2">
-        <v>25766.62</v>
+        <v>25322.1</v>
       </c>
       <c r="D56" s="2">
-        <v>25766.62</v>
+        <v>25356.54</v>
       </c>
       <c r="E56" s="2">
-        <v>25449.8</v>
+        <v>25167.81</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G56" s="3">
-        <v>-0.0037</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B57" s="2">
-        <v>25613.67</v>
+        <v>25519.32</v>
       </c>
       <c r="C57" s="2">
-        <v>25176.52</v>
+        <v>25766.62</v>
       </c>
       <c r="D57" s="2">
-        <v>25613.67</v>
+        <v>25766.62</v>
       </c>
       <c r="E57" s="2">
-        <v>25176.52</v>
+        <v>25449.8</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G57" s="3">
-        <v>0.0258</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B58" s="2">
-        <v>24969.68</v>
+        <v>25613.67</v>
       </c>
       <c r="C58" s="2">
-        <v>24824.07</v>
+        <v>25176.52</v>
       </c>
       <c r="D58" s="2">
-        <v>25016.29</v>
+        <v>25613.67</v>
       </c>
       <c r="E58" s="2">
-        <v>24801.13</v>
+        <v>25176.52</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
       </c>
       <c r="G58" s="3">
-        <v>0.0025</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B59" s="2">
-        <v>24906.81</v>
+        <v>24969.68</v>
       </c>
       <c r="C59" s="2">
-        <v>24946.55</v>
+        <v>24824.07</v>
       </c>
       <c r="D59" s="2">
-        <v>24969.3</v>
+        <v>25016.29</v>
       </c>
       <c r="E59" s="2">
-        <v>24775.73</v>
+        <v>24801.13</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
       </c>
       <c r="G59" s="3">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B60" s="2">
-        <v>24858.82</v>
+        <v>24906.81</v>
       </c>
       <c r="C60" s="2">
-        <v>24968.31</v>
+        <v>24946.55</v>
       </c>
       <c r="D60" s="2">
-        <v>24999.11</v>
+        <v>24969.3</v>
       </c>
       <c r="E60" s="2">
-        <v>24812.12</v>
+        <v>24775.73</v>
       </c>
       <c r="F60" t="s">
         <v>56</v>
       </c>
       <c r="G60" s="3">
-        <v>-0.0089</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B61" s="2">
-        <v>25081.63</v>
+        <v>24858.82</v>
       </c>
       <c r="C61" s="2">
-        <v>24982.5</v>
+        <v>24968.31</v>
       </c>
       <c r="D61" s="2">
-        <v>25115.16</v>
+        <v>24999.11</v>
       </c>
       <c r="E61" s="2">
-        <v>24820.6</v>
+        <v>24812.12</v>
       </c>
       <c r="F61" t="s">
         <v>57</v>
       </c>
       <c r="G61" s="3">
-        <v>0.0069</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B62" s="2">
-        <v>24910.63</v>
+        <v>25081.63</v>
       </c>
       <c r="C62" s="2">
-        <v>24864.15</v>
+        <v>24982.5</v>
       </c>
       <c r="D62" s="2">
-        <v>25002.97</v>
+        <v>25115.16</v>
       </c>
       <c r="E62" s="2">
-        <v>24806.46</v>
+        <v>24820.6</v>
       </c>
       <c r="F62" t="s">
         <v>58</v>
       </c>
       <c r="G62" s="3">
-        <v>0.0003</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B63" s="2">
-        <v>24902.53</v>
+        <v>24910.63</v>
       </c>
       <c r="C63" s="2">
-        <v>24746.81</v>
+        <v>24864.15</v>
       </c>
       <c r="D63" s="2">
-        <v>24925.9</v>
+        <v>25002.97</v>
       </c>
       <c r="E63" s="2">
-        <v>24686.85</v>
+        <v>24806.46</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G63" s="3">
-        <v>0.0068</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B64" s="2">
-        <v>24733.45</v>
+        <v>24902.53</v>
       </c>
       <c r="C64" s="2">
-        <v>24431.88</v>
+        <v>24746.81</v>
       </c>
       <c r="D64" s="2">
-        <v>24748.76</v>
+        <v>24925.9</v>
       </c>
       <c r="E64" s="2">
-        <v>24372.51</v>
+        <v>24686.85</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G64" s="3">
-        <v>0.0092</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B65" s="2">
-        <v>24507.81</v>
+        <v>24733.45</v>
       </c>
       <c r="C65" s="2">
-        <v>24744.34</v>
+        <v>24431.88</v>
       </c>
       <c r="D65" s="2">
-        <v>24856.54</v>
+        <v>24748.76</v>
       </c>
       <c r="E65" s="2">
-        <v>24507.63</v>
+        <v>24372.51</v>
       </c>
       <c r="F65" t="s">
         <v>60</v>
       </c>
       <c r="G65" s="3">
-        <v>-0.0107</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B66" s="2">
-        <v>24773.33</v>
+        <v>24507.81</v>
       </c>
       <c r="C66" s="2">
-        <v>24982.87</v>
+        <v>24744.34</v>
       </c>
       <c r="D66" s="2">
-        <v>25000.06</v>
+        <v>24856.54</v>
       </c>
       <c r="E66" s="2">
-        <v>24744.92</v>
+        <v>24507.63</v>
       </c>
       <c r="F66" t="s">
         <v>61</v>
       </c>
       <c r="G66" s="3">
-        <v>-0.016</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B67" s="2">
-        <v>25176.93</v>
+        <v>24773.33</v>
       </c>
       <c r="C67" s="2">
-        <v>25335.21</v>
+        <v>24982.87</v>
       </c>
       <c r="D67" s="2">
-        <v>25499.57</v>
+        <v>25000.06</v>
       </c>
       <c r="E67" s="2">
-        <v>25082.2</v>
+        <v>24744.92</v>
       </c>
       <c r="F67" t="s">
         <v>62</v>
       </c>
       <c r="G67" s="3">
-        <v>-0.0136</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B68" s="2">
-        <v>25524.45</v>
+        <v>25176.93</v>
       </c>
       <c r="C68" s="2">
-        <v>25454.83</v>
+        <v>25335.21</v>
       </c>
       <c r="D68" s="2">
-        <v>25530.42</v>
+        <v>25499.57</v>
       </c>
       <c r="E68" s="2">
-        <v>25252.32</v>
+        <v>25082.2</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G68" s="3">
-        <v>-0.0015</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B69" s="2">
-        <v>25562.13</v>
+        <v>25524.45</v>
       </c>
       <c r="C69" s="2">
-        <v>25458.87</v>
+        <v>25454.83</v>
       </c>
       <c r="D69" s="2">
-        <v>25667.4</v>
+        <v>25530.42</v>
       </c>
       <c r="E69" s="2">
-        <v>25399.36</v>
+        <v>25252.32</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G69" s="3">
-        <v>0.0068</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B70" s="2">
-        <v>25388.35</v>
+        <v>25562.13</v>
       </c>
       <c r="C70" s="2">
-        <v>25531.59</v>
+        <v>25458.87</v>
       </c>
       <c r="D70" s="2">
-        <v>25585.73</v>
+        <v>25667.4</v>
       </c>
       <c r="E70" s="2">
-        <v>25355.31</v>
+        <v>25399.36</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="G70" s="3">
-        <v>-0.0109</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B71" s="2">
-        <v>25667.18</v>
+        <v>25388.35</v>
       </c>
       <c r="C71" s="2">
-        <v>25528.22</v>
+        <v>25531.59</v>
       </c>
       <c r="D71" s="2">
-        <v>25735.89</v>
+        <v>25585.73</v>
       </c>
       <c r="E71" s="2">
-        <v>25502.49</v>
+        <v>25355.31</v>
       </c>
       <c r="F71" t="s">
         <v>64</v>
       </c>
       <c r="G71" s="3">
-        <v>0.0051</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B72" s="2">
-        <v>25538.07</v>
+        <v>25667.18</v>
       </c>
       <c r="C72" s="2">
-        <v>25348.3</v>
+        <v>25528.22</v>
       </c>
       <c r="D72" s="2">
-        <v>25538.07</v>
+        <v>25735.89</v>
       </c>
       <c r="E72" s="2">
-        <v>25228.01</v>
+        <v>25502.49</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G72" s="3">
-        <v>0.0162</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B73" s="2">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="C73" s="2">
-        <v>25024.93</v>
+        <v>25348.3</v>
       </c>
       <c r="D73" s="2">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="E73" s="2">
-        <v>24900.59</v>
+        <v>25228.01</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G73" s="3">
-        <v>0.0054</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B74" s="2">
-        <v>24994.14</v>
+        <v>25130.03</v>
       </c>
       <c r="C74" s="2">
-        <v>24991.14</v>
+        <v>25024.93</v>
       </c>
       <c r="D74" s="2">
-        <v>25010.9</v>
+        <v>25130.03</v>
       </c>
       <c r="E74" s="2">
-        <v>24844.8</v>
+        <v>24900.59</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G74" s="3">
-        <v>0.0068</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B75" s="2">
-        <v>24825.66</v>
+        <v>24994.14</v>
       </c>
       <c r="C75" s="2">
-        <v>24757.83</v>
+        <v>24991.14</v>
       </c>
       <c r="D75" s="2">
-        <v>24825.66</v>
+        <v>25010.9</v>
       </c>
       <c r="E75" s="2">
-        <v>24630.79</v>
+        <v>24844.8</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G75" s="3">
-        <v>0.0133</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B76" s="2">
-        <v>24498.95</v>
+        <v>24825.66</v>
       </c>
       <c r="C76" s="2">
-        <v>24547.08</v>
+        <v>24757.83</v>
       </c>
       <c r="D76" s="2">
-        <v>24672.51</v>
+        <v>24825.66</v>
       </c>
       <c r="E76" s="2">
-        <v>24447.93</v>
+        <v>24630.79</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G76" s="3">
-        <v>-0.0008</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B77" s="2">
-        <v>24517.76</v>
+        <v>24498.95</v>
       </c>
       <c r="C77" s="2">
-        <v>24704.05</v>
+        <v>24547.08</v>
       </c>
       <c r="D77" s="2">
-        <v>24867.81</v>
+        <v>24672.51</v>
       </c>
       <c r="E77" s="2">
-        <v>24517.75</v>
+        <v>24447.93</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="G77" s="3">
-        <v>-0.0029</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B78" s="2">
-        <v>24590.12</v>
+        <v>24517.76</v>
       </c>
       <c r="C78" s="2">
-        <v>24281.94</v>
+        <v>24704.05</v>
       </c>
       <c r="D78" s="2">
-        <v>24590.12</v>
+        <v>24867.81</v>
       </c>
       <c r="E78" s="2">
-        <v>24141.88</v>
+        <v>24517.75</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G78" s="3">
-        <v>0.016</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B79" s="2">
-        <v>24203.32</v>
+        <v>24590.12</v>
       </c>
       <c r="C79" s="2">
-        <v>24100.57</v>
+        <v>24281.94</v>
       </c>
       <c r="D79" s="2">
-        <v>24267.84</v>
+        <v>24590.12</v>
       </c>
       <c r="E79" s="2">
-        <v>24097.32</v>
+        <v>24141.88</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G79" s="3">
-        <v>0.0026</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B80" s="2">
-        <v>24139.57</v>
+        <v>24203.32</v>
       </c>
       <c r="C80" s="2">
-        <v>24033.12</v>
+        <v>24100.57</v>
       </c>
       <c r="D80" s="2">
-        <v>24506.3</v>
+        <v>24267.84</v>
       </c>
       <c r="E80" s="2">
-        <v>24033.12</v>
+        <v>24097.32</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G80" s="3">
-        <v>0.0046</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B81" s="2">
-        <v>24028.37</v>
+        <v>24139.57</v>
       </c>
       <c r="C81" s="2">
-        <v>23865.64</v>
+        <v>24033.12</v>
       </c>
       <c r="D81" s="2">
-        <v>24087.59</v>
+        <v>24506.3</v>
       </c>
       <c r="E81" s="2">
-        <v>23820.58</v>
+        <v>24033.12</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G81" s="3">
-        <v>0.0057</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B82" s="2">
-        <v>23892.32</v>
+        <v>24028.37</v>
       </c>
       <c r="C82" s="2">
-        <v>24061.08</v>
+        <v>23865.64</v>
       </c>
       <c r="D82" s="2">
-        <v>24061.08</v>
+        <v>24087.59</v>
       </c>
       <c r="E82" s="2">
-        <v>23827.15</v>
+        <v>23820.58</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G82" s="3">
-        <v>-0.0106</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B83" s="2">
-        <v>24148.07</v>
+        <v>23892.32</v>
       </c>
       <c r="C83" s="2">
-        <v>23927.53</v>
+        <v>24061.08</v>
       </c>
       <c r="D83" s="2">
-        <v>24159.01</v>
+        <v>24061.08</v>
       </c>
       <c r="E83" s="2">
-        <v>23899.6</v>
+        <v>23827.15</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G83" s="3">
-        <v>0.0109</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B84" s="2">
-        <v>23887.83</v>
+        <v>24148.07</v>
       </c>
       <c r="C84" s="2">
-        <v>23828.85</v>
+        <v>23927.53</v>
       </c>
       <c r="D84" s="2">
-        <v>23910.95</v>
+        <v>24159.01</v>
       </c>
       <c r="E84" s="2">
-        <v>23713.78</v>
+        <v>23899.6</v>
       </c>
       <c r="F84" t="s">
         <v>69</v>
       </c>
       <c r="G84" s="3">
-        <v>-0.0012</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B85" s="2">
-        <v>23916.06</v>
+        <v>23887.83</v>
       </c>
       <c r="C85" s="2">
-        <v>23900.69</v>
+        <v>23828.85</v>
       </c>
       <c r="D85" s="2">
-        <v>24068.51</v>
+        <v>23910.95</v>
       </c>
       <c r="E85" s="2">
-        <v>23690.94</v>
+        <v>23713.78</v>
       </c>
       <c r="F85" t="s">
         <v>70</v>
       </c>
       <c r="G85" s="3">
-        <v>-0.0064</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B86" s="2">
-        <v>24069.94</v>
+        <v>23916.06</v>
       </c>
       <c r="C86" s="2">
-        <v>24234.28</v>
+        <v>23900.69</v>
       </c>
       <c r="D86" s="2">
-        <v>24269.14</v>
+        <v>24068.51</v>
       </c>
       <c r="E86" s="2">
-        <v>23920</v>
+        <v>23690.94</v>
       </c>
       <c r="F86" t="s">
         <v>71</v>
       </c>
       <c r="G86" s="3">
-        <v>-0.0063</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B87" s="2">
-        <v>24221.41</v>
+        <v>24069.94</v>
       </c>
       <c r="C87" s="2">
-        <v>24304.31</v>
+        <v>24234.28</v>
       </c>
       <c r="D87" s="2">
-        <v>24372.7</v>
+        <v>24269.14</v>
       </c>
       <c r="E87" s="2">
-        <v>24122.57</v>
+        <v>23920</v>
       </c>
       <c r="F87" t="s">
         <v>72</v>
       </c>
       <c r="G87" s="3">
-        <v>0.0062</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B88" s="2">
-        <v>24072.28</v>
+        <v>24221.41</v>
       </c>
       <c r="C88" s="2">
-        <v>24274.91</v>
+        <v>24304.31</v>
       </c>
       <c r="D88" s="2">
-        <v>24274.91</v>
+        <v>24372.7</v>
       </c>
       <c r="E88" s="2">
-        <v>24064.26</v>
+        <v>24122.57</v>
       </c>
       <c r="F88" t="s">
         <v>73</v>
       </c>
       <c r="G88" s="3">
-        <v>-0.0087</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B89" s="2">
-        <v>24284.15</v>
+        <v>24072.28</v>
       </c>
       <c r="C89" s="2">
-        <v>24451.19</v>
+        <v>24274.91</v>
       </c>
       <c r="D89" s="2">
-        <v>24471.53</v>
+        <v>24274.91</v>
       </c>
       <c r="E89" s="2">
-        <v>24194.85</v>
+        <v>24064.26</v>
       </c>
       <c r="F89" t="s">
         <v>74</v>
       </c>
       <c r="G89" s="3">
-        <v>-0.0017</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B90" s="2">
-        <v>24325.4</v>
+        <v>24284.15</v>
       </c>
       <c r="C90" s="2">
-        <v>24345.29</v>
+        <v>24451.19</v>
       </c>
       <c r="D90" s="2">
-        <v>24411.48</v>
+        <v>24471.53</v>
       </c>
       <c r="E90" s="2">
-        <v>24235.54</v>
+        <v>24194.85</v>
       </c>
       <c r="F90" t="s">
         <v>75</v>
       </c>
       <c r="G90" s="3">
-        <v>-0.0061</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B91" s="2">
-        <v>24474.67</v>
+        <v>24325.4</v>
       </c>
       <c r="C91" s="2">
-        <v>24327.82</v>
+        <v>24345.29</v>
       </c>
       <c r="D91" s="2">
-        <v>24533.39</v>
+        <v>24411.48</v>
       </c>
       <c r="E91" s="2">
-        <v>24287.86</v>
+        <v>24235.54</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G91" s="3">
-        <v>0.0123</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B92" s="2">
-        <v>24177.07</v>
+        <v>24474.67</v>
       </c>
       <c r="C92" s="2">
-        <v>23832.73</v>
+        <v>24327.82</v>
       </c>
       <c r="D92" s="2">
-        <v>24229.21</v>
+        <v>24533.39</v>
       </c>
       <c r="E92" s="2">
-        <v>23832.73</v>
+        <v>24287.86</v>
       </c>
       <c r="F92" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G92" s="3">
-        <v>0.0206</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B93" s="2">
-        <v>23689.13</v>
+        <v>24177.07</v>
       </c>
       <c r="C93" s="2">
-        <v>23335.51</v>
+        <v>23832.73</v>
       </c>
       <c r="D93" s="2">
-        <v>23689.13</v>
+        <v>24229.21</v>
       </c>
       <c r="E93" s="2">
-        <v>23272.75</v>
+        <v>23832.73</v>
       </c>
       <c r="F93" t="s">
         <v>77</v>
       </c>
       <c r="G93" s="3">
-        <v>0.0067</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B94" s="2">
-        <v>23530.48</v>
+        <v>23689.13</v>
       </c>
       <c r="C94" s="2">
-        <v>23291.4</v>
+        <v>23335.51</v>
       </c>
       <c r="D94" s="2">
-        <v>23538.63</v>
+        <v>23689.13</v>
       </c>
       <c r="E94" s="2">
-        <v>23291.4</v>
+        <v>23272.75</v>
       </c>
       <c r="F94" t="s">
         <v>78</v>
       </c>
       <c r="G94" s="3">
-        <v>0.0126</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B95" s="2">
-        <v>23237.74</v>
+        <v>23530.48</v>
       </c>
       <c r="C95" s="2">
-        <v>23620.02</v>
+        <v>23291.4</v>
       </c>
       <c r="D95" s="2">
-        <v>23653.55</v>
+        <v>23538.63</v>
       </c>
       <c r="E95" s="2">
-        <v>23185.58</v>
+        <v>23291.4</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G95" s="3">
-        <v>-0.0199</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B96" s="2">
-        <v>23710.69</v>
+        <v>23237.74</v>
       </c>
       <c r="C96" s="2">
-        <v>23859.55</v>
+        <v>23620.02</v>
       </c>
       <c r="D96" s="2">
-        <v>23880.24</v>
+        <v>23653.55</v>
       </c>
       <c r="E96" s="2">
-        <v>23631.48</v>
+        <v>23185.58</v>
       </c>
       <c r="F96" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G96" s="3">
-        <v>-0.0112</v>
+        <v>-0.0199</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B97" s="2">
-        <v>23980.3</v>
+        <v>23710.69</v>
       </c>
       <c r="C97" s="2">
-        <v>24107.34</v>
+        <v>23859.55</v>
       </c>
       <c r="D97" s="2">
-        <v>24131.44</v>
+        <v>23880.24</v>
       </c>
       <c r="E97" s="2">
-        <v>23880.67</v>
+        <v>23631.48</v>
       </c>
       <c r="F97" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G97" s="3">
-        <v>-0.0034</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B98" s="2">
-        <v>24060.99</v>
+        <v>23980.3</v>
       </c>
       <c r="C98" s="2">
-        <v>23791.79</v>
+        <v>24107.34</v>
       </c>
       <c r="D98" s="2">
-        <v>24125.05</v>
+        <v>24131.44</v>
       </c>
       <c r="E98" s="2">
-        <v>23718.72</v>
+        <v>23880.67</v>
       </c>
       <c r="F98" t="s">
         <v>80</v>
       </c>
       <c r="G98" s="3">
-        <v>0.007</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B99" s="2">
-        <v>23892.56</v>
+        <v>24060.99</v>
       </c>
       <c r="C99" s="2">
-        <v>23959.81</v>
+        <v>23791.79</v>
       </c>
       <c r="D99" s="2">
-        <v>24100.32</v>
+        <v>24125.05</v>
       </c>
       <c r="E99" s="2">
-        <v>23774.92</v>
+        <v>23718.72</v>
       </c>
       <c r="F99" t="s">
         <v>81</v>
       </c>
       <c r="G99" s="3">
-        <v>-0.0059</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B100" s="2">
-        <v>24035.38</v>
+        <v>23892.56</v>
       </c>
       <c r="C100" s="2">
-        <v>24223.12</v>
+        <v>23959.81</v>
       </c>
       <c r="D100" s="2">
-        <v>24288.76</v>
+        <v>24100.32</v>
       </c>
       <c r="E100" s="2">
-        <v>24002.42</v>
+        <v>23774.92</v>
       </c>
       <c r="F100" t="s">
         <v>82</v>
       </c>
       <c r="G100" s="3">
-        <v>-0.0136</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B101" s="2">
-        <v>24366.94</v>
+        <v>24035.38</v>
       </c>
       <c r="C101" s="2">
-        <v>24191.32</v>
+        <v>24223.12</v>
       </c>
       <c r="D101" s="2">
-        <v>24439.35</v>
+        <v>24288.76</v>
       </c>
       <c r="E101" s="2">
-        <v>24179.35</v>
+        <v>24002.42</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G101" s="3">
-        <v>0.0084</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B102" s="2">
-        <v>24162.87</v>
+        <v>24366.94</v>
       </c>
       <c r="C102" s="2">
-        <v>24231.31</v>
+        <v>24191.32</v>
       </c>
       <c r="D102" s="2">
-        <v>24296.47</v>
+        <v>24439.35</v>
       </c>
       <c r="E102" s="2">
-        <v>24003.38</v>
+        <v>24179.35</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G102" s="3">
-        <v>-0.0008</v>
+        <v>0.0084</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B103" s="2">
-        <v>24181.43</v>
+        <v>24162.87</v>
       </c>
       <c r="C103" s="2">
-        <v>23977.54</v>
+        <v>24231.31</v>
       </c>
       <c r="D103" s="2">
-        <v>24181.43</v>
+        <v>24296.47</v>
       </c>
       <c r="E103" s="2">
-        <v>23957.96</v>
+        <v>24003.38</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G103" s="3">
-        <v>0.0163</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B104" s="2">
-        <v>23792.54</v>
+        <v>24181.43</v>
       </c>
       <c r="C104" s="2">
-        <v>23941.57</v>
+        <v>23977.54</v>
       </c>
       <c r="D104" s="2">
-        <v>23951.14</v>
+        <v>24181.43</v>
       </c>
       <c r="E104" s="2">
-        <v>23773.36</v>
+        <v>23957.96</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G104" s="3">
-        <v>-0.0048</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="B105" s="2">
-        <v>23906.97</v>
+        <v>23792.54</v>
       </c>
       <c r="C105" s="2">
-        <v>23828.69</v>
+        <v>23941.57</v>
       </c>
       <c r="D105" s="2">
-        <v>23911.14</v>
+        <v>23951.14</v>
       </c>
       <c r="E105" s="2">
-        <v>23732.31</v>
+        <v>23773.36</v>
       </c>
       <c r="F105" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G105" s="3">
-        <v>0.0107</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B106" s="2">
-        <v>23654.03</v>
+        <v>23906.97</v>
       </c>
       <c r="C106" s="2">
-        <v>23499.78</v>
+        <v>23828.69</v>
       </c>
       <c r="D106" s="2">
-        <v>23716.93</v>
+        <v>23911.14</v>
       </c>
       <c r="E106" s="2">
-        <v>23481.46</v>
+        <v>23732.31</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G106" s="3">
-        <v>0.006</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B107" s="2">
-        <v>23512.49</v>
+        <v>23654.03</v>
       </c>
       <c r="C107" s="2">
-        <v>23281.1</v>
+        <v>23499.78</v>
       </c>
       <c r="D107" s="2">
-        <v>23535.37</v>
+        <v>23716.93</v>
       </c>
       <c r="E107" s="2">
-        <v>23281.1</v>
+        <v>23481.46</v>
       </c>
       <c r="F107" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="G107" s="3">
-        <v>0.0153</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="B108" s="2">
-        <v>23157.97</v>
+        <v>23512.49</v>
       </c>
       <c r="C108" s="2">
-        <v>23043.1</v>
+        <v>23281.1</v>
       </c>
       <c r="D108" s="2">
-        <v>23163.35</v>
+        <v>23535.37</v>
       </c>
       <c r="E108" s="2">
-        <v>22668.35</v>
+        <v>23281.1</v>
       </c>
       <c r="F108" t="s">
         <v>85</v>
       </c>
       <c r="G108" s="3">
-        <v>-0.0057</v>
+        <v>0.0153</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B109" s="2">
-        <v>23289.77</v>
+        <v>23157.97</v>
       </c>
       <c r="C109" s="2">
-        <v>23339.64</v>
+        <v>23043.1</v>
       </c>
       <c r="D109" s="2">
-        <v>23375.34</v>
+        <v>23163.35</v>
       </c>
       <c r="E109" s="2">
-        <v>23163.22</v>
+        <v>22668.35</v>
       </c>
       <c r="F109" t="s">
         <v>86</v>
       </c>
       <c r="G109" s="3">
-        <v>-0.012</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B110" s="2">
-        <v>23573.38</v>
+        <v>23289.77</v>
       </c>
       <c r="C110" s="2">
-        <v>23240.71</v>
+        <v>23339.64</v>
       </c>
       <c r="D110" s="2">
-        <v>23603.82</v>
+        <v>23375.34</v>
       </c>
       <c r="E110" s="2">
-        <v>23207.37</v>
+        <v>23163.22</v>
       </c>
       <c r="F110" t="s">
         <v>87</v>
       </c>
       <c r="G110" s="3">
-        <v>0.0135</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B111" s="2">
-        <v>23258.31</v>
+        <v>23573.38</v>
       </c>
       <c r="C111" s="2">
-        <v>23385.18</v>
+        <v>23240.71</v>
       </c>
       <c r="D111" s="2">
-        <v>23476.22</v>
+        <v>23603.82</v>
       </c>
       <c r="E111" s="2">
-        <v>23180.17</v>
+        <v>23207.37</v>
       </c>
       <c r="F111" t="s">
         <v>88</v>
       </c>
       <c r="G111" s="3">
-        <v>-0.0053</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B112" s="2">
-        <v>23381.99</v>
+        <v>23258.31</v>
       </c>
       <c r="C112" s="2">
-        <v>23216.87</v>
+        <v>23385.18</v>
       </c>
       <c r="D112" s="2">
-        <v>23419.55</v>
+        <v>23476.22</v>
       </c>
       <c r="E112" s="2">
-        <v>23167.56</v>
+        <v>23180.17</v>
       </c>
       <c r="F112" t="s">
         <v>89</v>
       </c>
       <c r="G112" s="3">
-        <v>0.0043</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="B113" s="2">
-        <v>23282.33</v>
+        <v>23381.99</v>
       </c>
       <c r="C113" s="2">
-        <v>23505.9</v>
+        <v>23216.87</v>
       </c>
       <c r="D113" s="2">
-        <v>23571.02</v>
+        <v>23419.55</v>
       </c>
       <c r="E113" s="2">
-        <v>23234.27</v>
+        <v>23167.56</v>
       </c>
       <c r="F113" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="G113" s="3">
-        <v>-0.0135</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B114" s="2">
-        <v>23601.26</v>
+        <v>23282.33</v>
       </c>
       <c r="C114" s="2">
-        <v>23557.38</v>
+        <v>23505.9</v>
       </c>
       <c r="D114" s="2">
-        <v>23749.38</v>
+        <v>23571.02</v>
       </c>
       <c r="E114" s="2">
-        <v>23487.4</v>
+        <v>23234.27</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G114" s="3">
-        <v>0.0024</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B115" s="2">
-        <v>23544.31</v>
+        <v>23601.26</v>
       </c>
       <c r="C115" s="2">
-        <v>23748.58</v>
+        <v>23557.38</v>
       </c>
       <c r="D115" s="2">
-        <v>23778.24</v>
+        <v>23749.38</v>
       </c>
       <c r="E115" s="2">
-        <v>23470.81</v>
+        <v>23487.4</v>
       </c>
       <c r="F115" t="s">
         <v>91</v>
       </c>
       <c r="G115" s="3">
-        <v>-0.0119</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="B116" s="2">
-        <v>23827.78</v>
+        <v>23544.31</v>
       </c>
       <c r="C116" s="2">
-        <v>23736.43</v>
+        <v>23748.58</v>
       </c>
       <c r="D116" s="2">
-        <v>23917</v>
+        <v>23778.24</v>
       </c>
       <c r="E116" s="2">
-        <v>23697.76</v>
+        <v>23470.81</v>
       </c>
       <c r="F116" t="s">
         <v>92</v>
       </c>
       <c r="G116" s="3">
-        <v>0.0062</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B117" s="2">
-        <v>23681.48</v>
+        <v>23827.78</v>
       </c>
       <c r="C117" s="2">
-        <v>23398.35</v>
+        <v>23736.43</v>
       </c>
       <c r="D117" s="2">
-        <v>23709.04</v>
+        <v>23917</v>
       </c>
       <c r="E117" s="2">
-        <v>23357</v>
+        <v>23697.76</v>
       </c>
       <c r="F117" t="s">
         <v>93</v>
       </c>
       <c r="G117" s="3">
-        <v>0.0149</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B118" s="2">
-        <v>23332.72</v>
+        <v>23681.48</v>
       </c>
       <c r="C118" s="2">
-        <v>23156.27</v>
+        <v>23398.35</v>
       </c>
       <c r="D118" s="2">
-        <v>23402.2</v>
+        <v>23709.04</v>
       </c>
       <c r="E118" s="2">
-        <v>23059.89</v>
+        <v>23357</v>
       </c>
       <c r="F118" t="s">
         <v>94</v>
       </c>
       <c r="G118" s="3">
-        <v>-0.0005</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B119" s="2">
-        <v>23345.05</v>
+        <v>23332.72</v>
       </c>
       <c r="C119" s="2">
-        <v>23249.16</v>
+        <v>23156.27</v>
       </c>
       <c r="D119" s="2">
-        <v>23374.7</v>
+        <v>23402.2</v>
       </c>
       <c r="E119" s="2">
-        <v>23190.31</v>
+        <v>23059.89</v>
       </c>
       <c r="F119" t="s">
         <v>95</v>
       </c>
       <c r="G119" s="3">
-        <v>-0.0046</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="B120" s="2">
-        <v>23453.16</v>
+        <v>23345.05</v>
       </c>
       <c r="C120" s="2">
-        <v>23644.4</v>
+        <v>23249.16</v>
       </c>
       <c r="D120" s="2">
-        <v>23710.82</v>
+        <v>23374.7</v>
       </c>
       <c r="E120" s="2">
-        <v>23371.73</v>
+        <v>23190.31</v>
       </c>
       <c r="F120" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="3">
-        <v>-0.0079</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B121" s="2">
-        <v>23640.65</v>
+        <v>23453.16</v>
       </c>
       <c r="C121" s="2">
-        <v>23316.45</v>
+        <v>23644.4</v>
       </c>
       <c r="D121" s="2">
-        <v>23640.65</v>
+        <v>23710.82</v>
       </c>
       <c r="E121" s="2">
-        <v>23278.22</v>
+        <v>23371.73</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G121" s="3">
-        <v>0.023</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B122" s="2">
-        <v>23108.27</v>
+        <v>23640.65</v>
       </c>
       <c r="C122" s="2">
-        <v>23494.44</v>
+        <v>23316.45</v>
       </c>
       <c r="D122" s="2">
-        <v>23494.44</v>
+        <v>23640.65</v>
       </c>
       <c r="E122" s="2">
-        <v>23070.48</v>
+        <v>23278.22</v>
       </c>
       <c r="F122" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="G122" s="3">
-        <v>-0.0187</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>45789</v>
+        <v>45790</v>
       </c>
       <c r="B123" s="2">
-        <v>23549.46</v>
+        <v>23108.27</v>
       </c>
       <c r="C123" s="2">
-        <v>23183.81</v>
+        <v>23494.44</v>
       </c>
       <c r="D123" s="2">
-        <v>23685.34</v>
+        <v>23494.44</v>
       </c>
       <c r="E123" s="2">
-        <v>22982.91</v>
+        <v>23070.48</v>
       </c>
       <c r="F123" t="s">
         <v>98</v>
       </c>
       <c r="G123" s="3">
-        <v>0.0298</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>45786</v>
+        <v>45789</v>
       </c>
       <c r="B124" s="2">
-        <v>22867.74</v>
+        <v>23549.46</v>
       </c>
       <c r="C124" s="2">
-        <v>22856.21</v>
+        <v>23183.81</v>
       </c>
       <c r="D124" s="2">
-        <v>22907.91</v>
+        <v>23685.34</v>
       </c>
       <c r="E124" s="2">
-        <v>22692.44</v>
+        <v>22982.91</v>
       </c>
       <c r="F124" t="s">
         <v>99</v>
       </c>
       <c r="G124" s="3">
-        <v>0.004</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>45785</v>
+        <v>45786</v>
       </c>
       <c r="B125" s="2">
-        <v>22775.92</v>
+        <v>22867.74</v>
       </c>
       <c r="C125" s="2">
-        <v>22589.13</v>
+        <v>22856.21</v>
       </c>
       <c r="D125" s="2">
-        <v>22979.29</v>
+        <v>22907.91</v>
       </c>
       <c r="E125" s="2">
-        <v>22589.13</v>
+        <v>22692.44</v>
       </c>
       <c r="F125" t="s">
         <v>100</v>
       </c>
       <c r="G125" s="3">
-        <v>0.0037</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="B126" s="2">
-        <v>22691.88</v>
+        <v>22775.92</v>
       </c>
       <c r="C126" s="2">
-        <v>23169.83</v>
+        <v>22589.13</v>
       </c>
       <c r="D126" s="2">
-        <v>23197.57</v>
+        <v>22979.29</v>
       </c>
       <c r="E126" s="2">
-        <v>22691.88</v>
+        <v>22589.13</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="G126" s="3">
-        <v>0.0013</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="B127" s="2">
-        <v>22662.71</v>
+        <v>22691.88</v>
       </c>
       <c r="C127" s="2">
-        <v>22576.56</v>
+        <v>23169.83</v>
       </c>
       <c r="D127" s="2">
-        <v>22747.63</v>
+        <v>23197.57</v>
       </c>
       <c r="E127" s="2">
-        <v>22449.16</v>
+        <v>22691.88</v>
       </c>
       <c r="F127" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="G127" s="3">
-        <v>0.007</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B128" s="2">
-        <v>22504.68</v>
+        <v>22662.71</v>
       </c>
       <c r="C128" s="2">
-        <v>22192.51</v>
+        <v>22576.56</v>
       </c>
       <c r="D128" s="2">
-        <v>22532.54</v>
+        <v>22747.63</v>
       </c>
       <c r="E128" s="2">
-        <v>22058.3</v>
+        <v>22449.16</v>
       </c>
       <c r="F128" t="s">
         <v>102</v>
       </c>
       <c r="G128" s="3">
-        <v>0.0174</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="B129" s="2">
-        <v>22119.41</v>
+        <v>22504.68</v>
       </c>
       <c r="C129" s="2">
-        <v>22038.73</v>
+        <v>22192.51</v>
       </c>
       <c r="D129" s="2">
-        <v>22129.31</v>
+        <v>22532.54</v>
       </c>
       <c r="E129" s="2">
-        <v>21848.33</v>
+        <v>22058.3</v>
       </c>
       <c r="F129" t="s">
         <v>103</v>
       </c>
       <c r="G129" s="3">
-        <v>0.0051</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B130" s="2">
-        <v>22008.11</v>
+        <v>22119.41</v>
       </c>
       <c r="C130" s="2">
-        <v>22073.36</v>
+        <v>22038.73</v>
       </c>
       <c r="D130" s="2">
-        <v>22213.51</v>
+        <v>22129.31</v>
       </c>
       <c r="E130" s="2">
-        <v>21918.1</v>
+        <v>21848.33</v>
       </c>
       <c r="F130" t="s">
         <v>104</v>
       </c>
       <c r="G130" s="3">
-        <v>0.0016</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="B131" s="2">
-        <v>21971.96</v>
+        <v>22008.11</v>
       </c>
       <c r="C131" s="2">
-        <v>22072.35</v>
+        <v>22073.36</v>
       </c>
       <c r="D131" s="2">
-        <v>22072.35</v>
+        <v>22213.51</v>
       </c>
       <c r="E131" s="2">
-        <v>21817.85</v>
+        <v>21918.1</v>
       </c>
       <c r="F131" t="s">
         <v>105</v>
       </c>
       <c r="G131" s="3">
-        <v>-0.0004</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B132" s="2">
-        <v>21980.74</v>
+        <v>21971.96</v>
       </c>
       <c r="C132" s="2">
-        <v>22080.44</v>
+        <v>22072.35</v>
       </c>
       <c r="D132" s="2">
-        <v>22267.96</v>
+        <v>22072.35</v>
       </c>
       <c r="E132" s="2">
-        <v>21923.9</v>
+        <v>21817.85</v>
       </c>
       <c r="F132" t="s">
         <v>106</v>
       </c>
       <c r="G132" s="3">
-        <v>0.0032</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="B133" s="2">
-        <v>21909.76</v>
+        <v>21980.74</v>
       </c>
       <c r="C133" s="2">
-        <v>22030.15</v>
+        <v>22080.44</v>
       </c>
       <c r="D133" s="2">
-        <v>22093.68</v>
+        <v>22267.96</v>
       </c>
       <c r="E133" s="2">
-        <v>21712.1</v>
+        <v>21923.9</v>
       </c>
       <c r="F133" t="s">
         <v>107</v>
       </c>
       <c r="G133" s="3">
-        <v>-0.0074</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B134" s="2">
-        <v>22072.62</v>
+        <v>21909.76</v>
       </c>
       <c r="C134" s="2">
-        <v>22080.19</v>
+        <v>22030.15</v>
       </c>
       <c r="D134" s="2">
-        <v>22138.81</v>
+        <v>22093.68</v>
       </c>
       <c r="E134" s="2">
-        <v>21862.87</v>
+        <v>21712.1</v>
       </c>
       <c r="F134" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="G134" s="3">
-        <v>0.0237</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="B135" s="2">
-        <v>21562.32</v>
+        <v>22072.62</v>
       </c>
       <c r="C135" s="2">
-        <v>21303.51</v>
+        <v>22080.19</v>
       </c>
       <c r="D135" s="2">
-        <v>21592.67</v>
+        <v>22138.81</v>
       </c>
       <c r="E135" s="2">
-        <v>21191.02</v>
+        <v>21862.87</v>
       </c>
       <c r="F135" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G135" s="3">
-        <v>0.0078</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B136" s="2">
-        <v>21395.14</v>
+        <v>21562.32</v>
       </c>
       <c r="C136" s="2">
-        <v>21066.81</v>
+        <v>21303.51</v>
       </c>
       <c r="D136" s="2">
-        <v>21417.64</v>
+        <v>21592.67</v>
       </c>
       <c r="E136" s="2">
-        <v>21039.16</v>
+        <v>21191.02</v>
       </c>
       <c r="F136" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G136" s="3">
-        <v>0.0161</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B137" s="2">
-        <v>21056.98</v>
+        <v>21395.14</v>
       </c>
       <c r="C137" s="2">
-        <v>21316.47</v>
+        <v>21066.81</v>
       </c>
       <c r="D137" s="2">
-        <v>21363.57</v>
+        <v>21417.64</v>
       </c>
       <c r="E137" s="2">
-        <v>20868.36</v>
+        <v>21039.16</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="G137" s="3">
-        <v>-0.0191</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B138" s="2">
-        <v>21466.27</v>
+        <v>21056.98</v>
       </c>
       <c r="C138" s="2">
-        <v>21603.52</v>
+        <v>21316.47</v>
       </c>
       <c r="D138" s="2">
-        <v>21603.52</v>
+        <v>21363.57</v>
       </c>
       <c r="E138" s="2">
-        <v>21297.59</v>
+        <v>20868.36</v>
       </c>
       <c r="F138" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G138" s="3">
-        <v>0.0023</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B139" s="2">
-        <v>21417.4</v>
+        <v>21466.27</v>
       </c>
       <c r="C139" s="2">
-        <v>21363.88</v>
+        <v>21603.52</v>
       </c>
       <c r="D139" s="2">
-        <v>21517.32</v>
+        <v>21603.52</v>
       </c>
       <c r="E139" s="2">
-        <v>21224.55</v>
+        <v>21297.59</v>
       </c>
       <c r="F139" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="G139" s="3">
-        <v>0.024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B140" s="2">
-        <v>20914.69</v>
+        <v>21417.4</v>
       </c>
       <c r="C140" s="2">
-        <v>20557.49</v>
+        <v>21363.88</v>
       </c>
       <c r="D140" s="2">
-        <v>21127.37</v>
+        <v>21517.32</v>
       </c>
       <c r="E140" s="2">
-        <v>20444.04</v>
+        <v>21224.55</v>
       </c>
       <c r="F140" t="s">
         <v>110</v>
       </c>
       <c r="G140" s="3">
-        <v>0.0113</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B141" s="2">
-        <v>20681.78</v>
+        <v>20914.69</v>
       </c>
       <c r="C141" s="2">
-        <v>20810.43</v>
+        <v>20557.49</v>
       </c>
       <c r="D141" s="2">
-        <v>21211.13</v>
+        <v>21127.37</v>
       </c>
       <c r="E141" s="2">
-        <v>20530.43</v>
+        <v>20444.04</v>
       </c>
       <c r="F141" t="s">
         <v>111</v>
       </c>
       <c r="G141" s="3">
-        <v>0.0206</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B142" s="2">
-        <v>20264.49</v>
+        <v>20681.78</v>
       </c>
       <c r="C142" s="2">
-        <v>19494.92</v>
+        <v>20810.43</v>
       </c>
       <c r="D142" s="2">
-        <v>20441.14</v>
+        <v>21211.13</v>
       </c>
       <c r="E142" s="2">
-        <v>19260.21</v>
+        <v>20530.43</v>
       </c>
       <c r="F142" t="s">
         <v>112</v>
       </c>
       <c r="G142" s="3">
-        <v>0.0068</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B143" s="2">
-        <v>20127.68</v>
+        <v>20264.49</v>
       </c>
       <c r="C143" s="2">
-        <v>20157.52</v>
+        <v>19494.92</v>
       </c>
       <c r="D143" s="2">
-        <v>20454.26</v>
+        <v>20441.14</v>
       </c>
       <c r="E143" s="2">
-        <v>19745.14</v>
+        <v>19260.21</v>
       </c>
       <c r="F143" t="s">
         <v>113</v>
       </c>
       <c r="G143" s="3">
-        <v>0.0151</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B144" s="2">
-        <v>19828.3</v>
+        <v>20127.68</v>
       </c>
       <c r="C144" s="2">
-        <v>20730.05</v>
+        <v>20157.52</v>
       </c>
       <c r="D144" s="2">
-        <v>21047.83</v>
+        <v>20454.26</v>
       </c>
       <c r="E144" s="2">
-        <v>19706.03</v>
+        <v>19745.14</v>
       </c>
       <c r="F144" t="s">
         <v>114</v>
       </c>
       <c r="G144" s="3">
-        <v>-0.1322</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="B145" s="2">
-        <v>22849.81</v>
+        <v>19828.3</v>
       </c>
       <c r="C145" s="2">
-        <v>22638.21</v>
+        <v>20730.05</v>
       </c>
       <c r="D145" s="2">
-        <v>22998.3</v>
+        <v>21047.83</v>
       </c>
       <c r="E145" s="2">
-        <v>22638.21</v>
+        <v>19706.03</v>
       </c>
       <c r="F145" t="s">
         <v>115</v>
       </c>
       <c r="G145" s="3">
-        <v>-0.0152</v>
+        <v>-0.1322</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="B146" s="2">
-        <v>23202.53</v>
+        <v>22849.81</v>
       </c>
       <c r="C146" s="2">
-        <v>23167.31</v>
+        <v>22638.21</v>
       </c>
       <c r="D146" s="2">
-        <v>23393.03</v>
+        <v>22998.3</v>
       </c>
       <c r="E146" s="2">
-        <v>22980.96</v>
+        <v>22638.21</v>
       </c>
       <c r="F146" t="s">
         <v>116</v>
       </c>
       <c r="G146" s="3">
-        <v>-0.0002</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B147" s="2">
-        <v>23206.84</v>
+        <v>23202.53</v>
       </c>
       <c r="C147" s="2">
-        <v>23217.11</v>
+        <v>23167.31</v>
       </c>
       <c r="D147" s="2">
-        <v>23456.58</v>
+        <v>23393.03</v>
       </c>
       <c r="E147" s="2">
-        <v>23123.35</v>
+        <v>22980.96</v>
       </c>
       <c r="F147" t="s">
         <v>117</v>
       </c>
       <c r="G147" s="3">
-        <v>0.0038</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B148" s="2">
-        <v>23119.58</v>
+        <v>23206.84</v>
       </c>
       <c r="C148" s="2">
-        <v>23207.07</v>
+        <v>23217.11</v>
       </c>
       <c r="D148" s="2">
-        <v>23399.73</v>
+        <v>23456.58</v>
       </c>
       <c r="E148" s="2">
-        <v>23002.81</v>
+        <v>23123.35</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="G148" s="3">
-        <v>-0.0131</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B149" s="2">
-        <v>23426.6</v>
+        <v>23119.58</v>
       </c>
       <c r="C149" s="2">
-        <v>23672.82</v>
+        <v>23207.07</v>
       </c>
       <c r="D149" s="2">
-        <v>23775.3</v>
+        <v>23399.73</v>
       </c>
       <c r="E149" s="2">
-        <v>23254.3</v>
+        <v>23002.81</v>
       </c>
       <c r="F149" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="G149" s="3">
-        <v>-0.0065</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B150" s="2">
-        <v>23578.8</v>
+        <v>23426.6</v>
       </c>
       <c r="C150" s="2">
-        <v>23543.86</v>
+        <v>23672.82</v>
       </c>
       <c r="D150" s="2">
-        <v>23865.62</v>
+        <v>23775.3</v>
       </c>
       <c r="E150" s="2">
-        <v>23372.36</v>
+        <v>23254.3</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="G150" s="3">
-        <v>0.0041</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B151" s="2">
-        <v>23483.32</v>
+        <v>23578.8</v>
       </c>
       <c r="C151" s="2">
-        <v>23460.31</v>
+        <v>23543.86</v>
       </c>
       <c r="D151" s="2">
-        <v>23596.85</v>
+        <v>23865.62</v>
       </c>
       <c r="E151" s="2">
-        <v>23350.73</v>
+        <v>23372.36</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G151" s="3">
-        <v>0.006</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B152" s="2">
-        <v>23344.25</v>
+        <v>23483.32</v>
       </c>
       <c r="C152" s="2">
-        <v>23643.32</v>
+        <v>23460.31</v>
       </c>
       <c r="D152" s="2">
-        <v>23747.32</v>
+        <v>23596.85</v>
       </c>
       <c r="E152" s="2">
-        <v>23321.67</v>
+        <v>23350.73</v>
       </c>
       <c r="F152" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G152" s="3">
-        <v>-0.0235</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B153" s="2">
-        <v>23905.56</v>
+        <v>23344.25</v>
       </c>
       <c r="C153" s="2">
-        <v>23749.58</v>
+        <v>23643.32</v>
       </c>
       <c r="D153" s="2">
-        <v>23967.51</v>
+        <v>23747.32</v>
       </c>
       <c r="E153" s="2">
-        <v>23531.2</v>
+        <v>23321.67</v>
       </c>
       <c r="F153" t="s">
         <v>120</v>
       </c>
       <c r="G153" s="3">
-        <v>0.0091</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B154" s="2">
-        <v>23689.72</v>
+        <v>23905.56</v>
       </c>
       <c r="C154" s="2">
-        <v>24109.07</v>
+        <v>23749.58</v>
       </c>
       <c r="D154" s="2">
-        <v>24230.72</v>
+        <v>23967.51</v>
       </c>
       <c r="E154" s="2">
-        <v>23577.78</v>
+        <v>23531.2</v>
       </c>
       <c r="F154" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="G154" s="3">
-        <v>-0.0219</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B155" s="2">
-        <v>24219.95</v>
+        <v>23689.72</v>
       </c>
       <c r="C155" s="2">
-        <v>24753.15</v>
+        <v>24109.07</v>
       </c>
       <c r="D155" s="2">
-        <v>24753.15</v>
+        <v>24230.72</v>
       </c>
       <c r="E155" s="2">
-        <v>24186.69</v>
+        <v>23577.78</v>
       </c>
       <c r="F155" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G155" s="3">
-        <v>-0.0223</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B156" s="2">
-        <v>24771.14</v>
+        <v>24219.95</v>
       </c>
       <c r="C156" s="2">
-        <v>24697.63</v>
+        <v>24753.15</v>
       </c>
       <c r="D156" s="2">
-        <v>24874.39</v>
+        <v>24753.15</v>
       </c>
       <c r="E156" s="2">
-        <v>24601.73</v>
+        <v>24186.69</v>
       </c>
       <c r="F156" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="G156" s="3">
-        <v>0.0012</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B157" s="2">
-        <v>24740.57</v>
+        <v>24771.14</v>
       </c>
       <c r="C157" s="2">
-        <v>24679.35</v>
+        <v>24697.63</v>
       </c>
       <c r="D157" s="2">
-        <v>24745.13</v>
+        <v>24874.39</v>
       </c>
       <c r="E157" s="2">
-        <v>24475.26</v>
+        <v>24601.73</v>
       </c>
       <c r="F157" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="G157" s="3">
-        <v>0.0246</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
       <c r="B158" s="2">
-        <v>24145.57</v>
+        <v>24740.57</v>
       </c>
       <c r="C158" s="2">
-        <v>24226</v>
+        <v>24679.35</v>
       </c>
       <c r="D158" s="2">
-        <v>24352.47</v>
+        <v>24745.13</v>
       </c>
       <c r="E158" s="2">
-        <v>24077.15</v>
+        <v>24475.26</v>
       </c>
       <c r="F158" t="s">
         <v>123</v>
       </c>
       <c r="G158" s="3">
-        <v>0.0077</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B159" s="2">
-        <v>23959.98</v>
+        <v>24145.57</v>
       </c>
       <c r="C159" s="2">
-        <v>23653.33</v>
+        <v>24226</v>
       </c>
       <c r="D159" s="2">
-        <v>24113.53</v>
+        <v>24352.47</v>
       </c>
       <c r="E159" s="2">
-        <v>23454.49</v>
+        <v>24077.15</v>
       </c>
       <c r="F159" t="s">
         <v>124</v>
       </c>
       <c r="G159" s="3">
-        <v>0.0212</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B160" s="2">
-        <v>23462.65</v>
+        <v>23959.98</v>
       </c>
       <c r="C160" s="2">
-        <v>23616.33</v>
+        <v>23653.33</v>
       </c>
       <c r="D160" s="2">
-        <v>23712.61</v>
+        <v>24113.53</v>
       </c>
       <c r="E160" s="2">
-        <v>23198.73</v>
+        <v>23454.49</v>
       </c>
       <c r="F160" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G160" s="3">
-        <v>-0.0058</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B161" s="2">
-        <v>23600.31</v>
+        <v>23462.65</v>
       </c>
       <c r="C161" s="2">
-        <v>23859.23</v>
+        <v>23616.33</v>
       </c>
       <c r="D161" s="2">
-        <v>23962.03</v>
+        <v>23712.61</v>
       </c>
       <c r="E161" s="2">
-        <v>23363.98</v>
+        <v>23198.73</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G161" s="3">
-        <v>-0.0076</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B162" s="2">
-        <v>23782.14</v>
+        <v>23600.31</v>
       </c>
       <c r="C162" s="2">
-        <v>23274.86</v>
+        <v>23859.23</v>
       </c>
       <c r="D162" s="2">
-        <v>23858.61</v>
+        <v>23962.03</v>
       </c>
       <c r="E162" s="2">
-        <v>23238.36</v>
+        <v>23363.98</v>
       </c>
       <c r="F162" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="G162" s="3">
-        <v>-0.0001</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B163" s="2">
-        <v>23783.49</v>
+        <v>23782.14</v>
       </c>
       <c r="C163" s="2">
-        <v>24115.98</v>
+        <v>23274.86</v>
       </c>
       <c r="D163" s="2">
-        <v>24292.8</v>
+        <v>23858.61</v>
       </c>
       <c r="E163" s="2">
-        <v>23632.42</v>
+        <v>23238.36</v>
       </c>
       <c r="F163" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G163" s="3">
-        <v>-0.0185</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B164" s="2">
-        <v>24231.3</v>
+        <v>23783.49</v>
       </c>
       <c r="C164" s="2">
-        <v>24182.02</v>
+        <v>24115.98</v>
       </c>
       <c r="D164" s="2">
-        <v>24669.62</v>
+        <v>24292.8</v>
       </c>
       <c r="E164" s="2">
-        <v>24065.01</v>
+        <v>23632.42</v>
       </c>
       <c r="F164" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="G164" s="3">
-        <v>-0.0057</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B165" s="2">
-        <v>24369.71</v>
+        <v>24231.3</v>
       </c>
       <c r="C165" s="2">
-        <v>23987.09</v>
+        <v>24182.02</v>
       </c>
       <c r="D165" s="2">
-        <v>24410.93</v>
+        <v>24669.62</v>
       </c>
       <c r="E165" s="2">
-        <v>23987.09</v>
+        <v>24065.01</v>
       </c>
       <c r="F165" t="s">
         <v>127</v>
       </c>
       <c r="G165" s="3">
-        <v>0.0329</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B166" s="2">
-        <v>23594.21</v>
+        <v>24369.71</v>
       </c>
       <c r="C166" s="2">
-        <v>23200.42</v>
+        <v>23987.09</v>
       </c>
       <c r="D166" s="2">
-        <v>23636.65</v>
+        <v>24410.93</v>
       </c>
       <c r="E166" s="2">
-        <v>23090.63</v>
+        <v>23987.09</v>
       </c>
       <c r="F166" t="s">
         <v>128</v>
       </c>
       <c r="G166" s="3">
-        <v>0.0284</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B167" s="2">
-        <v>22941.77</v>
+        <v>23594.21</v>
       </c>
       <c r="C167" s="2">
-        <v>22678.25</v>
+        <v>23200.42</v>
       </c>
       <c r="D167" s="2">
-        <v>23051.01</v>
+        <v>23636.65</v>
       </c>
       <c r="E167" s="2">
-        <v>22547.53</v>
+        <v>23090.63</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="G167" s="3">
-        <v>-0.0028</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B168" s="2">
-        <v>23006.27</v>
+        <v>22941.77</v>
       </c>
       <c r="C168" s="2">
-        <v>23135.12</v>
+        <v>22678.25</v>
       </c>
       <c r="D168" s="2">
-        <v>23405.98</v>
+        <v>23051.01</v>
       </c>
       <c r="E168" s="2">
-        <v>22861.75</v>
+        <v>22547.53</v>
       </c>
       <c r="F168" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G168" s="3">
-        <v>0.0028</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B169" s="2">
-        <v>22941.32</v>
+        <v>23006.27</v>
       </c>
       <c r="C169" s="2">
-        <v>23616.18</v>
+        <v>23135.12</v>
       </c>
       <c r="D169" s="2">
-        <v>23616.18</v>
+        <v>23405.98</v>
       </c>
       <c r="E169" s="2">
-        <v>22798.34</v>
+        <v>22861.75</v>
       </c>
       <c r="F169" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="G169" s="3">
-        <v>-0.0328</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B170" s="2">
-        <v>23718.29</v>
+        <v>22941.32</v>
       </c>
       <c r="C170" s="2">
-        <v>23783.75</v>
+        <v>23616.18</v>
       </c>
       <c r="D170" s="2">
-        <v>24076.53</v>
+        <v>23616.18</v>
       </c>
       <c r="E170" s="2">
-        <v>23441.74</v>
+        <v>22798.34</v>
       </c>
       <c r="F170" t="s">
         <v>130</v>
       </c>
       <c r="G170" s="3">
-        <v>-0.0029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B171" s="2">
-        <v>23787.93</v>
+        <v>23718.29</v>
       </c>
       <c r="C171" s="2">
-        <v>23238.34</v>
+        <v>23783.75</v>
       </c>
       <c r="D171" s="2">
-        <v>23973.17</v>
+        <v>24076.53</v>
       </c>
       <c r="E171" s="2">
-        <v>23238.34</v>
+        <v>23441.74</v>
       </c>
       <c r="F171" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G171" s="3">
-        <v>0.0327</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B172" s="2">
-        <v>23034.02</v>
+        <v>23787.93</v>
       </c>
       <c r="C172" s="2">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="D172" s="2">
-        <v>23248.52</v>
+        <v>23973.17</v>
       </c>
       <c r="E172" s="2">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="F172" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G172" s="3">
-        <v>-0.0132</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B173" s="2">
-        <v>23341.61</v>
+        <v>23034.02</v>
       </c>
       <c r="C173" s="2">
-        <v>23472.14</v>
+        <v>22716.48</v>
       </c>
       <c r="D173" s="2">
-        <v>23688.45</v>
+        <v>23248.52</v>
       </c>
       <c r="E173" s="2">
-        <v>23221.57</v>
+        <v>22716.48</v>
       </c>
       <c r="F173" t="s">
         <v>132</v>
       </c>
       <c r="G173" s="3">
-        <v>-0.0058</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B174" s="2">
-        <v>23477.92</v>
+        <v>23341.61</v>
       </c>
       <c r="C174" s="2">
-        <v>23090.03</v>
+        <v>23472.14</v>
       </c>
       <c r="D174" s="2">
-        <v>23477.92</v>
+        <v>23688.45</v>
       </c>
       <c r="E174" s="2">
-        <v>22901.69</v>
+        <v>23221.57</v>
       </c>
       <c r="F174" t="s">
         <v>133</v>
       </c>
       <c r="G174" s="3">
-        <v>0.0399</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B175" s="2">
-        <v>22576.98</v>
+        <v>23477.92</v>
       </c>
       <c r="C175" s="2">
-        <v>22716.71</v>
+        <v>23090.03</v>
       </c>
       <c r="D175" s="2">
-        <v>22849.66</v>
+        <v>23477.92</v>
       </c>
       <c r="E175" s="2">
-        <v>22436.13</v>
+        <v>22901.69</v>
       </c>
       <c r="F175" t="s">
         <v>134</v>
       </c>
       <c r="G175" s="3">
-        <v>-0.016</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
-        <v>45707</v>
+        <v>45708</v>
       </c>
       <c r="B176" s="2">
-        <v>22944.24</v>
+        <v>22576.98</v>
       </c>
       <c r="C176" s="2">
-        <v>22777.46</v>
+        <v>22716.71</v>
       </c>
       <c r="D176" s="2">
-        <v>22975.34</v>
+        <v>22849.66</v>
       </c>
       <c r="E176" s="2">
-        <v>22649.49</v>
+        <v>22436.13</v>
       </c>
       <c r="F176" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G176" s="3">
-        <v>-0.0014</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B177" s="2">
-        <v>22976.81</v>
+        <v>22944.24</v>
       </c>
       <c r="C177" s="2">
-        <v>22664.73</v>
+        <v>22777.46</v>
       </c>
       <c r="D177" s="2">
-        <v>23141.41</v>
+        <v>22975.34</v>
       </c>
       <c r="E177" s="2">
-        <v>22608.18</v>
+        <v>22649.49</v>
       </c>
       <c r="F177" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G177" s="3">
-        <v>0.0159</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B178" s="2">
-        <v>22616.23</v>
+        <v>22976.81</v>
       </c>
       <c r="C178" s="2">
-        <v>22755.06</v>
+        <v>22664.73</v>
       </c>
       <c r="D178" s="2">
-        <v>22977.25</v>
+        <v>23141.41</v>
       </c>
       <c r="E178" s="2">
-        <v>22319.32</v>
+        <v>22608.18</v>
       </c>
       <c r="F178" t="s">
         <v>136</v>
       </c>
       <c r="G178" s="3">
-        <v>-0.0002</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B179" s="2">
-        <v>22620.33</v>
+        <v>22616.23</v>
       </c>
       <c r="C179" s="2">
-        <v>22027.07</v>
+        <v>22755.06</v>
       </c>
       <c r="D179" s="2">
-        <v>22620.33</v>
+        <v>22977.25</v>
       </c>
       <c r="E179" s="2">
-        <v>22027.07</v>
+        <v>22319.32</v>
       </c>
       <c r="F179" t="s">
         <v>137</v>
       </c>
       <c r="G179" s="3">
-        <v>0.0369</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B180" s="2">
-        <v>21814.37</v>
+        <v>22620.33</v>
       </c>
       <c r="C180" s="2">
-        <v>21958.69</v>
+        <v>22027.07</v>
       </c>
       <c r="D180" s="2">
-        <v>22523.57</v>
+        <v>22620.33</v>
       </c>
       <c r="E180" s="2">
-        <v>21735.56</v>
+        <v>22027.07</v>
       </c>
       <c r="F180" t="s">
         <v>138</v>
       </c>
       <c r="G180" s="3">
-        <v>-0.002</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B181" s="2">
-        <v>21857.92</v>
+        <v>21814.37</v>
       </c>
       <c r="C181" s="2">
-        <v>21526.41</v>
+        <v>21958.69</v>
       </c>
       <c r="D181" s="2">
-        <v>21858.83</v>
+        <v>22523.57</v>
       </c>
       <c r="E181" s="2">
-        <v>21411.09</v>
+        <v>21735.56</v>
       </c>
       <c r="F181" t="s">
         <v>139</v>
       </c>
       <c r="G181" s="3">
-        <v>0.0264</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B182" s="2">
-        <v>21294.86</v>
+        <v>21857.92</v>
       </c>
       <c r="C182" s="2">
-        <v>21656.82</v>
+        <v>21526.41</v>
       </c>
       <c r="D182" s="2">
-        <v>21682.41</v>
+        <v>21858.83</v>
       </c>
       <c r="E182" s="2">
-        <v>21279.37</v>
+        <v>21411.09</v>
       </c>
       <c r="F182" t="s">
         <v>140</v>
       </c>
       <c r="G182" s="3">
-        <v>-0.0106</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B183" s="2">
-        <v>21521.98</v>
+        <v>21294.86</v>
       </c>
       <c r="C183" s="2">
-        <v>21223.61</v>
+        <v>21656.82</v>
       </c>
       <c r="D183" s="2">
-        <v>21539.63</v>
+        <v>21682.41</v>
       </c>
       <c r="E183" s="2">
-        <v>21223.61</v>
+        <v>21279.37</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="G183" s="3">
-        <v>0.0184</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B184" s="2">
-        <v>21133.54</v>
+        <v>21521.98</v>
       </c>
       <c r="C184" s="2">
-        <v>20858.52</v>
+        <v>21223.61</v>
       </c>
       <c r="D184" s="2">
-        <v>21213.7</v>
+        <v>21539.63</v>
       </c>
       <c r="E184" s="2">
-        <v>20806.1</v>
+        <v>21223.61</v>
       </c>
       <c r="F184" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="G184" s="3">
-        <v>0.0116</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B185" s="2">
-        <v>20891.62</v>
+        <v>21133.54</v>
       </c>
       <c r="C185" s="2">
-        <v>20598.98</v>
+        <v>20858.52</v>
       </c>
       <c r="D185" s="2">
-        <v>20891.62</v>
+        <v>21213.7</v>
       </c>
       <c r="E185" s="2">
-        <v>20532.06</v>
+        <v>20806.1</v>
       </c>
       <c r="F185" t="s">
         <v>142</v>
       </c>
       <c r="G185" s="3">
-        <v>0.0143</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B186" s="2">
-        <v>20597.09</v>
+        <v>20891.62</v>
       </c>
       <c r="C186" s="2">
-        <v>20827.77</v>
+        <v>20598.98</v>
       </c>
       <c r="D186" s="2">
-        <v>20827.77</v>
+        <v>20891.62</v>
       </c>
       <c r="E186" s="2">
-        <v>20417.39</v>
+        <v>20532.06</v>
       </c>
       <c r="F186" t="s">
         <v>143</v>
       </c>
       <c r="G186" s="3">
-        <v>-0.0093</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B187" s="2">
-        <v>20789.96</v>
+        <v>20597.09</v>
       </c>
       <c r="C187" s="2">
-        <v>20488.29</v>
+        <v>20827.77</v>
       </c>
       <c r="D187" s="2">
-        <v>20885.49</v>
+        <v>20827.77</v>
       </c>
       <c r="E187" s="2">
-        <v>20297.64</v>
+        <v>20417.39</v>
       </c>
       <c r="F187" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="G187" s="3">
-        <v>0.0283</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B188" s="2">
-        <v>20217.26</v>
+        <v>20789.96</v>
       </c>
       <c r="C188" s="2">
-        <v>20048.87</v>
+        <v>20488.29</v>
       </c>
       <c r="D188" s="2">
-        <v>20222</v>
+        <v>20885.49</v>
       </c>
       <c r="E188" s="2">
-        <v>19764.67</v>
+        <v>20297.64</v>
       </c>
       <c r="F188" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="G188" s="3">
-        <v>-0.0004</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="B189" s="2">
-        <v>20225.11</v>
+        <v>20217.26</v>
       </c>
       <c r="C189" s="2">
-        <v>20337.46</v>
+        <v>20048.87</v>
       </c>
       <c r="D189" s="2">
-        <v>20337.46</v>
+        <v>20222</v>
       </c>
       <c r="E189" s="2">
-        <v>20165.73</v>
+        <v>19764.67</v>
       </c>
       <c r="F189" t="s">
         <v>145</v>
       </c>
       <c r="G189" s="3">
-        <v>0.0014</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B190" s="2">
-        <v>20197.77</v>
+        <v>20225.11</v>
       </c>
       <c r="C190" s="2">
-        <v>20118.02</v>
+        <v>20337.46</v>
       </c>
       <c r="D190" s="2">
-        <v>20296.94</v>
+        <v>20337.46</v>
       </c>
       <c r="E190" s="2">
-        <v>20118.02</v>
+        <v>20165.73</v>
       </c>
       <c r="F190" t="s">
         <v>146</v>
       </c>
       <c r="G190" s="3">
-        <v>0.0066</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B191" s="2">
-        <v>20066.19</v>
+        <v>20197.77</v>
       </c>
       <c r="C191" s="2">
-        <v>19842.85</v>
+        <v>20118.02</v>
       </c>
       <c r="D191" s="2">
-        <v>20144</v>
+        <v>20296.94</v>
       </c>
       <c r="E191" s="2">
-        <v>19768.13</v>
+        <v>20118.02</v>
       </c>
       <c r="F191" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G191" s="3">
-        <v>0.0186</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B192" s="2">
-        <v>19700.56</v>
+        <v>20066.19</v>
       </c>
       <c r="C192" s="2">
-        <v>19881.32</v>
+        <v>19842.85</v>
       </c>
       <c r="D192" s="2">
-        <v>20044.06</v>
+        <v>20144</v>
       </c>
       <c r="E192" s="2">
-        <v>19644.83</v>
+        <v>19768.13</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G192" s="3">
-        <v>-0.004</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B193" s="2">
-        <v>19778.77</v>
+        <v>19700.56</v>
       </c>
       <c r="C193" s="2">
-        <v>19997.09</v>
+        <v>19881.32</v>
       </c>
       <c r="D193" s="2">
-        <v>20022.34</v>
+        <v>20044.06</v>
       </c>
       <c r="E193" s="2">
-        <v>19733.21</v>
+        <v>19644.83</v>
       </c>
       <c r="F193" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G193" s="3">
-        <v>-0.0163</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B194" s="2">
-        <v>20106.55</v>
+        <v>19778.77</v>
       </c>
       <c r="C194" s="2">
-        <v>20128.34</v>
+        <v>19997.09</v>
       </c>
       <c r="D194" s="2">
-        <v>20205.25</v>
+        <v>20022.34</v>
       </c>
       <c r="E194" s="2">
-        <v>19920.31</v>
+        <v>19733.21</v>
       </c>
       <c r="F194" t="s">
         <v>148</v>
       </c>
       <c r="G194" s="3">
-        <v>0.0091</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B195" s="2">
-        <v>19925.81</v>
+        <v>20106.55</v>
       </c>
       <c r="C195" s="2">
-        <v>19804.64</v>
+        <v>20128.34</v>
       </c>
       <c r="D195" s="2">
-        <v>20093.65</v>
+        <v>20205.25</v>
       </c>
       <c r="E195" s="2">
-        <v>19786.73</v>
+        <v>19920.31</v>
       </c>
       <c r="F195" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="G195" s="3">
-        <v>0.0175</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B196" s="2">
-        <v>19584.06</v>
+        <v>19925.81</v>
       </c>
       <c r="C196" s="2">
-        <v>19499.1</v>
+        <v>19804.64</v>
       </c>
       <c r="D196" s="2">
-        <v>19640.37</v>
+        <v>20093.65</v>
       </c>
       <c r="E196" s="2">
-        <v>19423.7</v>
+        <v>19786.73</v>
       </c>
       <c r="F196" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="G196" s="3">
-        <v>0.0031</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B197" s="2">
-        <v>19522.89</v>
+        <v>19584.06</v>
       </c>
       <c r="C197" s="2">
-        <v>19454.92</v>
+        <v>19499.1</v>
       </c>
       <c r="D197" s="2">
-        <v>19664.39</v>
+        <v>19640.37</v>
       </c>
       <c r="E197" s="2">
-        <v>19345.19</v>
+        <v>19423.7</v>
       </c>
       <c r="F197" t="s">
         <v>150</v>
       </c>
       <c r="G197" s="3">
-        <v>0.0123</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B198" s="2">
-        <v>19286.07</v>
+        <v>19522.89</v>
       </c>
       <c r="C198" s="2">
-        <v>19149.94</v>
+        <v>19454.92</v>
       </c>
       <c r="D198" s="2">
-        <v>19319.22</v>
+        <v>19664.39</v>
       </c>
       <c r="E198" s="2">
-        <v>19149.94</v>
+        <v>19345.19</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="G198" s="3">
-        <v>0.0034</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B199" s="2">
-        <v>19219.78</v>
+        <v>19286.07</v>
       </c>
       <c r="C199" s="2">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="D199" s="2">
-        <v>19318.36</v>
+        <v>19319.22</v>
       </c>
       <c r="E199" s="2">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="F199" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="G199" s="3">
-        <v>0.0183</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B200" s="2">
-        <v>18874.14</v>
+        <v>19219.78</v>
       </c>
       <c r="C200" s="2">
-        <v>18918.15</v>
+        <v>18901.56</v>
       </c>
       <c r="D200" s="2">
-        <v>18929.12</v>
+        <v>19318.36</v>
       </c>
       <c r="E200" s="2">
-        <v>18671.49</v>
+        <v>18901.56</v>
       </c>
       <c r="F200" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G200" s="3">
-        <v>-0.01</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B201" s="2">
-        <v>19064.29</v>
+        <v>18874.14</v>
       </c>
       <c r="C201" s="2">
-        <v>19328.07</v>
+        <v>18918.15</v>
       </c>
       <c r="D201" s="2">
-        <v>19370.49</v>
+        <v>18929.12</v>
       </c>
       <c r="E201" s="2">
-        <v>19036.64</v>
+        <v>18671.49</v>
       </c>
       <c r="F201" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G201" s="3">
-        <v>-0.0092</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="B202" s="2">
-        <v>19240.89</v>
+        <v>19064.29</v>
       </c>
       <c r="C202" s="2">
-        <v>19254.38</v>
+        <v>19328.07</v>
       </c>
       <c r="D202" s="2">
-        <v>19405.74</v>
+        <v>19370.49</v>
       </c>
       <c r="E202" s="2">
-        <v>19227.73</v>
+        <v>19036.64</v>
       </c>
       <c r="F202" t="s">
         <v>153</v>
       </c>
       <c r="G202" s="3">
-        <v>-0.002</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="B203" s="2">
-        <v>19279.84</v>
+        <v>19240.89</v>
       </c>
       <c r="C203" s="2">
-        <v>19390.76</v>
+        <v>19254.38</v>
       </c>
       <c r="D203" s="2">
-        <v>19483.59</v>
+        <v>19405.74</v>
       </c>
       <c r="E203" s="2">
-        <v>19111.54</v>
+        <v>19227.73</v>
       </c>
       <c r="F203" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="G203" s="3">
-        <v>-0.0086</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="B204" s="2">
-        <v>19447.58</v>
+        <v>19279.84</v>
       </c>
       <c r="C204" s="2">
-        <v>19501.45</v>
+        <v>19390.76</v>
       </c>
       <c r="D204" s="2">
-        <v>19668.65</v>
+        <v>19483.59</v>
       </c>
       <c r="E204" s="2">
-        <v>19252.61</v>
+        <v>19111.54</v>
       </c>
       <c r="F204" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="G204" s="3">
-        <v>-0.0122</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B205" s="2">
-        <v>19688.29</v>
+        <v>19447.58</v>
       </c>
       <c r="C205" s="2">
-        <v>19848.71</v>
+        <v>19501.45</v>
       </c>
       <c r="D205" s="2">
-        <v>19851.55</v>
+        <v>19668.65</v>
       </c>
       <c r="E205" s="2">
-        <v>19627.84</v>
+        <v>19252.61</v>
       </c>
       <c r="F205" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="G205" s="3">
-        <v>-0.0036</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B206" s="2">
-        <v>19760.27</v>
+        <v>19688.29</v>
       </c>
       <c r="C206" s="2">
-        <v>19708.74</v>
+        <v>19848.71</v>
       </c>
       <c r="D206" s="2">
-        <v>19891.86</v>
+        <v>19851.55</v>
       </c>
       <c r="E206" s="2">
-        <v>19634.07</v>
+        <v>19627.84</v>
       </c>
       <c r="F206" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G206" s="3">
-        <v>0.007</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B207" s="2">
+        <v>19760.27</v>
+      </c>
+      <c r="C207" s="2">
+        <v>19708.74</v>
+      </c>
+      <c r="D207" s="2">
+        <v>19891.86</v>
+      </c>
+      <c r="E207" s="2">
+        <v>19634.07</v>
+      </c>
+      <c r="F207" t="s">
+        <v>121</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
         <v>45659</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B208" s="2">
         <v>19623.32</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C208" s="2">
         <v>19932.8</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D208" s="2">
         <v>19932.8</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E208" s="2">
         <v>19542.98</v>
       </c>
-      <c r="F207" t="s">
-        <v>154</v>
-      </c>
-      <c r="G207" s="3">
+      <c r="F208" t="s">
+        <v>155</v>
+      </c>
+      <c r="G208" s="3">
         <v>-0.0218</v>
       </c>
     </row>

--- a/data/hs_01_11.xlsx
+++ b/data/hs_01_11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12820"/>
+    <workbookView windowWidth="29400" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="hs_01_11" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="158">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,9 @@
     <t>涨跌幅</t>
   </si>
   <si>
+    <t>3.44B</t>
+  </si>
+  <si>
     <t>2.42B</t>
   </si>
   <si>
@@ -123,9 +126,6 @@
   </si>
   <si>
     <t>2.32B</t>
-  </si>
-  <si>
-    <t>3.44B</t>
   </si>
   <si>
     <t>3.69B</t>
@@ -1691,10 +1691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3828125" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1727,4877 +1727,4900 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B2">
-        <v>26696.41</v>
+        <v>26922.73</v>
       </c>
       <c r="C2">
-        <v>26748.09</v>
+        <v>26754.93</v>
       </c>
       <c r="D2">
-        <v>26788.43</v>
+        <v>27016.4</v>
       </c>
       <c r="E2">
-        <v>26511.25</v>
+        <v>26739.09</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="6">
-        <v>0.0018</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B3">
-        <v>26649.06</v>
+        <v>26696.41</v>
       </c>
       <c r="C3">
-        <v>26319.4</v>
+        <v>26748.09</v>
       </c>
       <c r="D3">
-        <v>26668.89</v>
+        <v>26788.43</v>
       </c>
       <c r="E3">
-        <v>26302.93</v>
+        <v>26511.25</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="6">
-        <v>0.0155</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B4">
-        <v>26241.83</v>
+        <v>26649.06</v>
       </c>
       <c r="C4">
-        <v>26350.74</v>
+        <v>26319.4</v>
       </c>
       <c r="D4">
-        <v>26371.46</v>
+        <v>26668.89</v>
       </c>
       <c r="E4">
-        <v>26167.23</v>
+        <v>26302.93</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="6">
-        <v>-0.0092</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>45967</v>
-      </c>
-      <c r="B5" s="2">
-        <v>26465.5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>26026</v>
-      </c>
-      <c r="D5" s="3">
-        <v>26493</v>
-      </c>
-      <c r="E5" s="3">
-        <v>26009</v>
+        <v>45968</v>
+      </c>
+      <c r="B5">
+        <v>26241.83</v>
+      </c>
+      <c r="C5">
+        <v>26350.74</v>
+      </c>
+      <c r="D5">
+        <v>26371.46</v>
+      </c>
+      <c r="E5">
+        <v>26167.23</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6">
-        <v>0.0204</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B6" s="2">
-        <v>25935.41</v>
+        <v>26465.5</v>
       </c>
       <c r="C6" s="3">
-        <v>25628.39</v>
-      </c>
-      <c r="D6" s="4">
-        <v>25980.9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>25496.13</v>
+        <v>26026</v>
+      </c>
+      <c r="D6" s="3">
+        <v>26493</v>
+      </c>
+      <c r="E6" s="3">
+        <v>26009</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="6">
-        <v>-0.0007</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>45965</v>
-      </c>
-      <c r="B7" s="5">
-        <v>25952.4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>26147.98</v>
-      </c>
-      <c r="D7" s="5">
-        <v>26291.65</v>
-      </c>
-      <c r="E7" s="5">
-        <v>25911.29</v>
+        <v>45966</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25935.41</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25628.39</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25980.9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25496.13</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6">
-        <v>-0.0079</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B8" s="5">
-        <v>26158.36</v>
+        <v>25952.4</v>
       </c>
       <c r="C8" s="5">
-        <v>26020.5</v>
+        <v>26147.98</v>
       </c>
       <c r="D8" s="5">
-        <v>26217.12</v>
+        <v>26291.65</v>
       </c>
       <c r="E8" s="5">
-        <v>25920.27</v>
+        <v>25911.29</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="6">
-        <v>0.0097</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B9" s="5">
-        <v>25906.65</v>
+        <v>26158.36</v>
       </c>
       <c r="C9" s="5">
-        <v>26263.01</v>
+        <v>26020.5</v>
       </c>
       <c r="D9" s="5">
-        <v>26283.96</v>
+        <v>26217.12</v>
       </c>
       <c r="E9" s="5">
-        <v>25906.65</v>
+        <v>25920.27</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="6">
-        <v>-0.0143</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B10" s="5">
-        <v>26282.69</v>
+        <v>25906.65</v>
       </c>
       <c r="C10" s="5">
-        <v>26545.92</v>
+        <v>26263.01</v>
       </c>
       <c r="D10" s="5">
-        <v>26588.89</v>
+        <v>26283.96</v>
       </c>
       <c r="E10" s="5">
-        <v>26138.79</v>
+        <v>25906.65</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6">
-        <v>-0.0024</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B11" s="5">
-        <v>26346.14</v>
+        <v>26282.69</v>
       </c>
       <c r="C11" s="5">
-        <v>26508.75</v>
+        <v>26545.92</v>
       </c>
       <c r="D11" s="5">
-        <v>26519.24</v>
+        <v>26588.89</v>
       </c>
       <c r="E11" s="5">
-        <v>26245.33</v>
+        <v>26138.79</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="6">
-        <v>-0.0033</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B12" s="5">
-        <v>26433.7</v>
+        <v>26346.14</v>
       </c>
       <c r="C12" s="5">
-        <v>26495.97</v>
+        <v>26508.75</v>
       </c>
       <c r="D12" s="5">
-        <v>26495.97</v>
+        <v>26519.24</v>
       </c>
       <c r="E12" s="5">
-        <v>26319.22</v>
+        <v>26245.33</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="6">
-        <v>0.0105</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B13" s="5">
-        <v>26160.15</v>
+        <v>26433.7</v>
       </c>
       <c r="C13" s="5">
-        <v>26177.11</v>
+        <v>26495.97</v>
       </c>
       <c r="D13" s="5">
-        <v>26239.96</v>
+        <v>26495.97</v>
       </c>
       <c r="E13" s="5">
-        <v>26063.99</v>
+        <v>26319.22</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="6">
-        <v>0.0074</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B14" s="5">
-        <v>25967.98</v>
+        <v>26160.15</v>
       </c>
       <c r="C14" s="5">
-        <v>25718.53</v>
+        <v>26177.11</v>
       </c>
       <c r="D14" s="5">
-        <v>26080.84</v>
+        <v>26239.96</v>
       </c>
       <c r="E14" s="5">
-        <v>25591.66</v>
+        <v>26063.99</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="6">
-        <v>0.0072</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B15" s="5">
-        <v>25781.77</v>
+        <v>25967.98</v>
       </c>
       <c r="C15" s="5">
-        <v>25897.62</v>
+        <v>25718.53</v>
       </c>
       <c r="D15" s="5">
-        <v>25947.88</v>
+        <v>26080.84</v>
       </c>
       <c r="E15" s="5">
-        <v>25653.75</v>
+        <v>25591.66</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="6">
-        <v>-0.0094</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B16" s="5">
-        <v>26027.55</v>
+        <v>25781.77</v>
       </c>
       <c r="C16" s="5">
-        <v>26160.24</v>
+        <v>25897.62</v>
       </c>
       <c r="D16" s="5">
-        <v>26367.35</v>
+        <v>25947.88</v>
       </c>
       <c r="E16" s="5">
-        <v>26017.72</v>
+        <v>25653.75</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="6">
-        <v>0.0065</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B17" s="5">
-        <v>25858.83</v>
+        <v>26027.55</v>
       </c>
       <c r="C17" s="5">
-        <v>25884.46</v>
+        <v>26160.24</v>
       </c>
       <c r="D17" s="5">
-        <v>25912.77</v>
+        <v>26367.35</v>
       </c>
       <c r="E17" s="5">
-        <v>25710.61</v>
+        <v>26017.72</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="6">
-        <v>0.0242</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B18" s="5">
-        <v>25247.1</v>
+        <v>25858.83</v>
       </c>
       <c r="C18" s="5">
-        <v>25851.94</v>
+        <v>25884.46</v>
       </c>
       <c r="D18" s="5">
-        <v>25859.82</v>
+        <v>25912.77</v>
       </c>
       <c r="E18" s="5">
-        <v>25145.34</v>
+        <v>25710.61</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="6">
-        <v>-0.0248</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B19" s="5">
-        <v>25888.51</v>
+        <v>25247.1</v>
       </c>
       <c r="C19" s="5">
-        <v>25890.01</v>
+        <v>25851.94</v>
       </c>
       <c r="D19" s="5">
-        <v>26062.8</v>
+        <v>25859.82</v>
       </c>
       <c r="E19" s="5">
-        <v>25687.32</v>
+        <v>25145.34</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6">
-        <v>-0.0009</v>
+        <v>-0.0248</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B20" s="5">
-        <v>25910.6</v>
+        <v>25888.51</v>
       </c>
       <c r="C20" s="5">
-        <v>25714.89</v>
+        <v>25890.01</v>
       </c>
       <c r="D20" s="5">
-        <v>25982.21</v>
+        <v>26062.8</v>
       </c>
       <c r="E20" s="5">
-        <v>25593.45</v>
+        <v>25687.32</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G20" s="6">
-        <v>0.0184</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B21" s="5">
-        <v>25441.35</v>
+        <v>25910.6</v>
       </c>
       <c r="C21" s="5">
-        <v>25969.21</v>
+        <v>25714.89</v>
       </c>
       <c r="D21" s="5">
-        <v>26102.68</v>
+        <v>25982.21</v>
       </c>
       <c r="E21" s="5">
-        <v>25331.64</v>
+        <v>25593.45</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="6">
-        <v>-0.0173</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B22" s="5">
-        <v>25889.48</v>
+        <v>25441.35</v>
       </c>
       <c r="C22" s="5">
-        <v>25634</v>
+        <v>25969.21</v>
       </c>
       <c r="D22" s="5">
-        <v>25895.62</v>
+        <v>26102.68</v>
       </c>
       <c r="E22" s="5">
-        <v>25336.09</v>
+        <v>25331.64</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="6">
-        <v>-0.0152</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B23" s="5">
-        <v>26290.32</v>
+        <v>25889.48</v>
       </c>
       <c r="C23" s="5">
-        <v>26523.89</v>
+        <v>25634</v>
       </c>
       <c r="D23" s="5">
-        <v>26558.87</v>
+        <v>25895.62</v>
       </c>
       <c r="E23" s="5">
-        <v>26247.04</v>
+        <v>25336.09</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="6">
-        <v>-0.0173</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="B24" s="5">
-        <v>26752.59</v>
+        <v>26290.32</v>
       </c>
       <c r="C24" s="5">
-        <v>26862.03</v>
+        <v>26523.89</v>
       </c>
       <c r="D24" s="5">
-        <v>26978.41</v>
+        <v>26558.87</v>
       </c>
       <c r="E24" s="5">
-        <v>26480.58</v>
+        <v>26247.04</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G24" s="6">
-        <v>-0.0029</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B25" s="5">
-        <v>26829.46</v>
+        <v>26752.59</v>
       </c>
       <c r="C25" s="5">
-        <v>26900.64</v>
+        <v>26862.03</v>
       </c>
       <c r="D25" s="5">
-        <v>26906.2</v>
+        <v>26978.41</v>
       </c>
       <c r="E25" s="5">
-        <v>26517.45</v>
+        <v>26480.58</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G25" s="6">
-        <v>-0.0048</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="B26" s="5">
-        <v>26957.77</v>
+        <v>26829.46</v>
       </c>
       <c r="C26" s="5">
-        <v>27003.92</v>
+        <v>26900.64</v>
       </c>
       <c r="D26" s="5">
-        <v>27145.17</v>
+        <v>26906.2</v>
       </c>
       <c r="E26" s="5">
-        <v>26873.34</v>
+        <v>26517.45</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="6">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="B27" s="5">
-        <v>27140.92</v>
+        <v>26957.77</v>
       </c>
       <c r="C27" s="5">
-        <v>27221.46</v>
+        <v>27003.92</v>
       </c>
       <c r="D27" s="5">
-        <v>27262</v>
+        <v>27145.17</v>
       </c>
       <c r="E27" s="5">
-        <v>26972.71</v>
+        <v>26873.34</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="6">
-        <v>-0.0054</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="B28" s="5">
-        <v>27287.12</v>
+        <v>27140.92</v>
       </c>
       <c r="C28" s="5">
-        <v>26918.3</v>
+        <v>27221.46</v>
       </c>
       <c r="D28" s="5">
-        <v>27381.84</v>
+        <v>27262</v>
       </c>
       <c r="E28" s="5">
-        <v>26918.3</v>
+        <v>26972.71</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="6">
-        <v>0.0161</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B29" s="5">
-        <v>26855.56</v>
+        <v>27287.12</v>
       </c>
       <c r="C29" s="5">
-        <v>26674.16</v>
+        <v>26918.3</v>
       </c>
       <c r="D29" s="5">
-        <v>26888.4</v>
+        <v>27381.84</v>
       </c>
       <c r="E29" s="5">
-        <v>26558.28</v>
+        <v>26918.3</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G29" s="6">
-        <v>0.0087</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B30" s="5">
-        <v>26622.88</v>
+        <v>26855.56</v>
       </c>
       <c r="C30" s="5">
-        <v>26321.57</v>
+        <v>26674.16</v>
       </c>
       <c r="D30" s="5">
-        <v>26687.72</v>
+        <v>26888.4</v>
       </c>
       <c r="E30" s="5">
-        <v>26321.57</v>
+        <v>26558.28</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30" s="6">
-        <v>0.0189</v>
+        <v>0.0087</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B31" s="5">
-        <v>26128.2</v>
+        <v>26622.88</v>
       </c>
       <c r="C31" s="5">
-        <v>26272.3</v>
+        <v>26321.57</v>
       </c>
       <c r="D31" s="5">
-        <v>26406.05</v>
+        <v>26687.72</v>
       </c>
       <c r="E31" s="5">
-        <v>26072.93</v>
+        <v>26321.57</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G31" s="6">
-        <v>-0.0135</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B32" s="5">
-        <v>26484.68</v>
+        <v>26128.2</v>
       </c>
       <c r="C32" s="5">
-        <v>26536.13</v>
+        <v>26272.3</v>
       </c>
       <c r="D32" s="5">
-        <v>26640.53</v>
+        <v>26406.05</v>
       </c>
       <c r="E32" s="5">
-        <v>26403.52</v>
+        <v>26072.93</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G32" s="6">
-        <v>-0.0013</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B33" s="5">
-        <v>26518.65</v>
+        <v>26484.68</v>
       </c>
       <c r="C33" s="5">
-        <v>26073.69</v>
+        <v>26536.13</v>
       </c>
       <c r="D33" s="5">
-        <v>26562.88</v>
+        <v>26640.53</v>
       </c>
       <c r="E33" s="5">
-        <v>26057.26</v>
+        <v>26403.52</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="6">
-        <v>0.0137</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B34" s="5">
-        <v>26159.12</v>
+        <v>26518.65</v>
       </c>
       <c r="C34" s="5">
-        <v>26435.58</v>
+        <v>26073.69</v>
       </c>
       <c r="D34" s="5">
-        <v>26454.09</v>
+        <v>26562.88</v>
       </c>
       <c r="E34" s="5">
-        <v>26003.67</v>
+        <v>26057.26</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G34" s="6">
-        <v>-0.007</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B35" s="5">
-        <v>26344.14</v>
+        <v>26159.12</v>
       </c>
       <c r="C35" s="5">
-        <v>26459.52</v>
+        <v>26435.58</v>
       </c>
       <c r="D35" s="5">
-        <v>26479.14</v>
+        <v>26454.09</v>
       </c>
       <c r="E35" s="5">
-        <v>26204.01</v>
+        <v>26003.67</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G35" s="6">
-        <v>-0.0076</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B36" s="5">
-        <v>26545.1</v>
+        <v>26344.14</v>
       </c>
       <c r="C36" s="5">
-        <v>26583.03</v>
+        <v>26459.52</v>
       </c>
       <c r="D36" s="5">
-        <v>26637.64</v>
+        <v>26479.14</v>
       </c>
       <c r="E36" s="5">
-        <v>26414.11</v>
+        <v>26204.01</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="6">
-        <v>0</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B37" s="5">
-        <v>26544.85</v>
+        <v>26545.1</v>
       </c>
       <c r="C37" s="5">
-        <v>26863.69</v>
+        <v>26583.03</v>
       </c>
       <c r="D37" s="5">
-        <v>27058.03</v>
+        <v>26637.64</v>
       </c>
       <c r="E37" s="5">
-        <v>26322.08</v>
+        <v>26414.11</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" s="6">
-        <v>-0.0135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B38" s="5">
-        <v>26908.39</v>
+        <v>26544.85</v>
       </c>
       <c r="C38" s="5">
-        <v>26554.19</v>
+        <v>26863.69</v>
       </c>
       <c r="D38" s="5">
-        <v>26936.5</v>
+        <v>27058.03</v>
       </c>
       <c r="E38" s="5">
-        <v>26540.57</v>
+        <v>26322.08</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38" s="6">
-        <v>0.0178</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B39" s="5">
-        <v>26438.51</v>
+        <v>26908.39</v>
       </c>
       <c r="C39" s="5">
-        <v>26536.63</v>
+        <v>26554.19</v>
       </c>
       <c r="D39" s="5">
-        <v>26601.59</v>
+        <v>26936.5</v>
       </c>
       <c r="E39" s="5">
-        <v>26332.21</v>
+        <v>26540.57</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="6">
-        <v>-0.0003</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B40" s="5">
-        <v>26446.56</v>
+        <v>26438.51</v>
       </c>
       <c r="C40" s="5">
-        <v>26308.91</v>
+        <v>26536.63</v>
       </c>
       <c r="D40" s="5">
-        <v>26532.75</v>
+        <v>26601.59</v>
       </c>
       <c r="E40" s="5">
-        <v>26280.23</v>
+        <v>26332.21</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G40" s="6">
-        <v>0.0022</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B41" s="5">
-        <v>26388.16</v>
+        <v>26446.56</v>
       </c>
       <c r="C41" s="5">
-        <v>26539.44</v>
+        <v>26308.91</v>
       </c>
       <c r="D41" s="5">
-        <v>26585.95</v>
+        <v>26532.75</v>
       </c>
       <c r="E41" s="5">
-        <v>26329.66</v>
+        <v>26280.23</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G41" s="6">
-        <v>0.0116</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B42" s="5">
-        <v>26086.32</v>
+        <v>26388.16</v>
       </c>
       <c r="C42" s="5">
-        <v>25987.49</v>
+        <v>26539.44</v>
       </c>
       <c r="D42" s="5">
-        <v>26241.46</v>
+        <v>26585.95</v>
       </c>
       <c r="E42" s="5">
-        <v>25878.97</v>
+        <v>26329.66</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="6">
-        <v>-0.0043</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B43" s="5">
-        <v>26200.26</v>
+        <v>26086.32</v>
       </c>
       <c r="C43" s="5">
-        <v>26042.41</v>
+        <v>25987.49</v>
       </c>
       <c r="D43" s="5">
-        <v>26296.6</v>
+        <v>26241.46</v>
       </c>
       <c r="E43" s="5">
-        <v>26017.5</v>
+        <v>25878.97</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" s="6">
-        <v>0.0101</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B44" s="5">
-        <v>25938.13</v>
+        <v>26200.26</v>
       </c>
       <c r="C44" s="5">
-        <v>25711.07</v>
+        <v>26042.41</v>
       </c>
       <c r="D44" s="5">
-        <v>26027.94</v>
+        <v>26296.6</v>
       </c>
       <c r="E44" s="5">
-        <v>25675.28</v>
+        <v>26017.5</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="6">
-        <v>0.0119</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B45" s="5">
-        <v>25633.91</v>
+        <v>25938.13</v>
       </c>
       <c r="C45" s="5">
-        <v>25440.01</v>
+        <v>25711.07</v>
       </c>
       <c r="D45" s="5">
-        <v>25664.01</v>
+        <v>26027.94</v>
       </c>
       <c r="E45" s="5">
-        <v>25387.81</v>
+        <v>25675.28</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45" s="6">
-        <v>0.0085</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B46" s="5">
-        <v>25417.98</v>
+        <v>25633.91</v>
       </c>
       <c r="C46" s="5">
-        <v>25136.24</v>
+        <v>25440.01</v>
       </c>
       <c r="D46" s="5">
-        <v>25471.8</v>
+        <v>25664.01</v>
       </c>
       <c r="E46" s="5">
-        <v>25090.65</v>
+        <v>25387.81</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" s="6">
-        <v>0.0143</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B47" s="5">
-        <v>25058.51</v>
+        <v>25417.98</v>
       </c>
       <c r="C47" s="5">
-        <v>25489.13</v>
+        <v>25136.24</v>
       </c>
       <c r="D47" s="5">
-        <v>25494.45</v>
+        <v>25471.8</v>
       </c>
       <c r="E47" s="5">
-        <v>25013.26</v>
+        <v>25090.65</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G47" s="6">
-        <v>-0.0112</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B48" s="5">
-        <v>25343.43</v>
+        <v>25058.51</v>
       </c>
       <c r="C48" s="5">
-        <v>25660.65</v>
+        <v>25489.13</v>
       </c>
       <c r="D48" s="5">
-        <v>25789.99</v>
+        <v>25494.45</v>
       </c>
       <c r="E48" s="5">
-        <v>25276.87</v>
+        <v>25013.26</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G48" s="6">
-        <v>-0.006</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B49" s="5">
-        <v>25496.55</v>
+        <v>25343.43</v>
       </c>
       <c r="C49" s="5">
-        <v>25587.97</v>
+        <v>25660.65</v>
       </c>
       <c r="D49" s="5">
-        <v>25724.73</v>
+        <v>25789.99</v>
       </c>
       <c r="E49" s="5">
-        <v>25416.61</v>
+        <v>25276.87</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G49" s="6">
-        <v>-0.0047</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B50" s="5">
-        <v>25617.42</v>
+        <v>25496.55</v>
       </c>
       <c r="C50" s="5">
-        <v>25508.21</v>
+        <v>25587.97</v>
       </c>
       <c r="D50" s="5">
-        <v>25638.34</v>
+        <v>25724.73</v>
       </c>
       <c r="E50" s="5">
-        <v>25471.35</v>
+        <v>25416.61</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G50" s="6">
-        <v>0.0215</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B51" s="5">
-        <v>25077.62</v>
+        <v>25617.42</v>
       </c>
       <c r="C51" s="5">
-        <v>25095.45</v>
+        <v>25508.21</v>
       </c>
       <c r="D51" s="5">
-        <v>25277.51</v>
+        <v>25638.34</v>
       </c>
       <c r="E51" s="5">
-        <v>25066.85</v>
+        <v>25471.35</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G51" s="6">
-        <v>0.0032</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B52" s="5">
-        <v>24998.82</v>
+        <v>25077.62</v>
       </c>
       <c r="C52" s="5">
-        <v>25030.54</v>
+        <v>25095.45</v>
       </c>
       <c r="D52" s="5">
-        <v>25093.65</v>
+        <v>25277.51</v>
       </c>
       <c r="E52" s="5">
-        <v>24808.78</v>
+        <v>25066.85</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G52" s="6">
-        <v>-0.0081</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B53" s="5">
-        <v>25201.76</v>
+        <v>24998.82</v>
       </c>
       <c r="C53" s="5">
-        <v>25626.17</v>
+        <v>25030.54</v>
       </c>
       <c r="D53" s="5">
-        <v>25653.92</v>
+        <v>25093.65</v>
       </c>
       <c r="E53" s="5">
-        <v>25140.17</v>
+        <v>24808.78</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G53" s="6">
-        <v>-0.0127</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B54" s="5">
-        <v>25524.92</v>
+        <v>25201.76</v>
       </c>
       <c r="C54" s="5">
-        <v>25714.91</v>
+        <v>25626.17</v>
       </c>
       <c r="D54" s="5">
-        <v>25819.7</v>
+        <v>25653.92</v>
       </c>
       <c r="E54" s="5">
-        <v>25524.92</v>
+        <v>25140.17</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" s="6">
-        <v>-0.0118</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B55" s="5">
-        <v>25829.91</v>
+        <v>25524.92</v>
       </c>
       <c r="C55" s="5">
-        <v>25606.88</v>
+        <v>25714.91</v>
       </c>
       <c r="D55" s="5">
-        <v>25918.86</v>
+        <v>25819.7</v>
       </c>
       <c r="E55" s="5">
-        <v>25590.62</v>
+        <v>25524.92</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G55" s="6">
-        <v>0.0194</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B56" s="5">
-        <v>25339.14</v>
+        <v>25829.91</v>
       </c>
       <c r="C56" s="5">
-        <v>25205.04</v>
+        <v>25606.88</v>
       </c>
       <c r="D56" s="5">
-        <v>25349.08</v>
+        <v>25918.86</v>
       </c>
       <c r="E56" s="5">
-        <v>25140.08</v>
+        <v>25590.62</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56" s="6">
-        <v>0.0093</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B57" s="5">
-        <v>25104.61</v>
+        <v>25339.14</v>
       </c>
       <c r="C57" s="5">
-        <v>25216.42</v>
+        <v>25205.04</v>
       </c>
       <c r="D57" s="5">
-        <v>25216.42</v>
+        <v>25349.08</v>
       </c>
       <c r="E57" s="5">
-        <v>25000.85</v>
+        <v>25140.08</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G57" s="6">
-        <v>-0.0024</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B58" s="5">
-        <v>25165.94</v>
+        <v>25104.61</v>
       </c>
       <c r="C58" s="5">
-        <v>24968.57</v>
+        <v>25216.42</v>
       </c>
       <c r="D58" s="5">
-        <v>25210.9</v>
+        <v>25216.42</v>
       </c>
       <c r="E58" s="5">
-        <v>24887.93</v>
+        <v>25000.85</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G58" s="6">
-        <v>0.0017</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B59" s="5">
-        <v>25122.9</v>
+        <v>25165.94</v>
       </c>
       <c r="C59" s="5">
-        <v>25241.29</v>
+        <v>24968.57</v>
       </c>
       <c r="D59" s="5">
-        <v>25260.58</v>
+        <v>25210.9</v>
       </c>
       <c r="E59" s="5">
-        <v>25083.2</v>
+        <v>24887.93</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G59" s="6">
-        <v>-0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B60" s="5">
-        <v>25176.85</v>
+        <v>25122.9</v>
       </c>
       <c r="C60" s="5">
-        <v>25293.34</v>
+        <v>25241.29</v>
       </c>
       <c r="D60" s="5">
-        <v>25466.1</v>
+        <v>25260.58</v>
       </c>
       <c r="E60" s="5">
-        <v>25176.85</v>
+        <v>25083.2</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" s="6">
-        <v>-0.0037</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="B61" s="5">
-        <v>25270.07</v>
+        <v>25176.85</v>
       </c>
       <c r="C61" s="5">
-        <v>25322.1</v>
+        <v>25293.34</v>
       </c>
       <c r="D61" s="5">
-        <v>25356.54</v>
+        <v>25466.1</v>
       </c>
       <c r="E61" s="5">
-        <v>25167.81</v>
+        <v>25176.85</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G61" s="6">
-        <v>-0.0098</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="B62" s="5">
-        <v>25519.32</v>
+        <v>25270.07</v>
       </c>
       <c r="C62" s="5">
-        <v>25766.62</v>
+        <v>25322.1</v>
       </c>
       <c r="D62" s="5">
-        <v>25766.62</v>
+        <v>25356.54</v>
       </c>
       <c r="E62" s="5">
-        <v>25449.8</v>
+        <v>25167.81</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G62" s="6">
-        <v>-0.0037</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B63" s="5">
-        <v>25613.67</v>
+        <v>25519.32</v>
       </c>
       <c r="C63" s="5">
-        <v>25176.52</v>
+        <v>25766.62</v>
       </c>
       <c r="D63" s="5">
-        <v>25613.67</v>
+        <v>25766.62</v>
       </c>
       <c r="E63" s="5">
-        <v>25176.52</v>
+        <v>25449.8</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G63" s="6">
-        <v>0.0258</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B64" s="5">
-        <v>24969.68</v>
+        <v>25613.67</v>
       </c>
       <c r="C64" s="5">
-        <v>24824.07</v>
+        <v>25176.52</v>
       </c>
       <c r="D64" s="5">
-        <v>25016.29</v>
+        <v>25613.67</v>
       </c>
       <c r="E64" s="5">
-        <v>24801.13</v>
+        <v>25176.52</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" s="6">
-        <v>0.0025</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B65" s="5">
-        <v>24906.81</v>
+        <v>24969.68</v>
       </c>
       <c r="C65" s="5">
-        <v>24946.55</v>
+        <v>24824.07</v>
       </c>
       <c r="D65" s="5">
-        <v>24969.3</v>
+        <v>25016.29</v>
       </c>
       <c r="E65" s="5">
-        <v>24775.73</v>
+        <v>24801.13</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G65" s="6">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B66" s="5">
-        <v>24858.82</v>
+        <v>24906.81</v>
       </c>
       <c r="C66" s="5">
-        <v>24968.31</v>
+        <v>24946.55</v>
       </c>
       <c r="D66" s="5">
-        <v>24999.11</v>
+        <v>24969.3</v>
       </c>
       <c r="E66" s="5">
-        <v>24812.12</v>
+        <v>24775.73</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" s="6">
-        <v>-0.0089</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B67" s="5">
-        <v>25081.63</v>
+        <v>24858.82</v>
       </c>
       <c r="C67" s="5">
-        <v>24982.5</v>
+        <v>24968.31</v>
       </c>
       <c r="D67" s="5">
-        <v>25115.16</v>
+        <v>24999.11</v>
       </c>
       <c r="E67" s="5">
-        <v>24820.6</v>
+        <v>24812.12</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G67" s="6">
-        <v>0.0069</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B68" s="5">
-        <v>24910.63</v>
+        <v>25081.63</v>
       </c>
       <c r="C68" s="5">
-        <v>24864.15</v>
+        <v>24982.5</v>
       </c>
       <c r="D68" s="5">
-        <v>25002.97</v>
+        <v>25115.16</v>
       </c>
       <c r="E68" s="5">
-        <v>24806.46</v>
+        <v>24820.6</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="6">
-        <v>0.0003</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B69" s="5">
-        <v>24902.53</v>
+        <v>24910.63</v>
       </c>
       <c r="C69" s="5">
-        <v>24746.81</v>
+        <v>24864.15</v>
       </c>
       <c r="D69" s="5">
-        <v>24925.9</v>
+        <v>25002.97</v>
       </c>
       <c r="E69" s="5">
-        <v>24686.85</v>
+        <v>24806.46</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G69" s="6">
-        <v>0.0068</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B70" s="5">
-        <v>24733.45</v>
+        <v>24902.53</v>
       </c>
       <c r="C70" s="5">
-        <v>24431.88</v>
+        <v>24746.81</v>
       </c>
       <c r="D70" s="5">
-        <v>24748.76</v>
+        <v>24925.9</v>
       </c>
       <c r="E70" s="5">
-        <v>24372.51</v>
+        <v>24686.85</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G70" s="6">
-        <v>0.0092</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B71" s="5">
-        <v>24507.81</v>
+        <v>24733.45</v>
       </c>
       <c r="C71" s="5">
-        <v>24744.34</v>
+        <v>24431.88</v>
       </c>
       <c r="D71" s="5">
-        <v>24856.54</v>
+        <v>24748.76</v>
       </c>
       <c r="E71" s="5">
-        <v>24507.63</v>
+        <v>24372.51</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="6">
-        <v>-0.0107</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B72" s="5">
-        <v>24773.33</v>
+        <v>24507.81</v>
       </c>
       <c r="C72" s="5">
-        <v>24982.87</v>
+        <v>24744.34</v>
       </c>
       <c r="D72" s="5">
-        <v>25000.06</v>
+        <v>24856.54</v>
       </c>
       <c r="E72" s="5">
-        <v>24744.92</v>
+        <v>24507.63</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G72" s="6">
-        <v>-0.016</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B73" s="5">
-        <v>25176.93</v>
+        <v>24773.33</v>
       </c>
       <c r="C73" s="5">
-        <v>25335.21</v>
+        <v>24982.87</v>
       </c>
       <c r="D73" s="5">
-        <v>25499.57</v>
+        <v>25000.06</v>
       </c>
       <c r="E73" s="5">
-        <v>25082.2</v>
+        <v>24744.92</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G73" s="6">
-        <v>-0.0136</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B74" s="5">
-        <v>25524.45</v>
+        <v>25176.93</v>
       </c>
       <c r="C74" s="5">
-        <v>25454.83</v>
+        <v>25335.21</v>
       </c>
       <c r="D74" s="5">
-        <v>25530.42</v>
+        <v>25499.57</v>
       </c>
       <c r="E74" s="5">
-        <v>25252.32</v>
+        <v>25082.2</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G74" s="6">
-        <v>-0.0015</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B75" s="5">
-        <v>25562.13</v>
+        <v>25524.45</v>
       </c>
       <c r="C75" s="5">
-        <v>25458.87</v>
+        <v>25454.83</v>
       </c>
       <c r="D75" s="5">
-        <v>25667.4</v>
+        <v>25530.42</v>
       </c>
       <c r="E75" s="5">
-        <v>25399.36</v>
+        <v>25252.32</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G75" s="6">
-        <v>0.0068</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B76" s="5">
-        <v>25388.35</v>
+        <v>25562.13</v>
       </c>
       <c r="C76" s="5">
-        <v>25531.59</v>
+        <v>25458.87</v>
       </c>
       <c r="D76" s="5">
-        <v>25585.73</v>
+        <v>25667.4</v>
       </c>
       <c r="E76" s="5">
-        <v>25355.31</v>
+        <v>25399.36</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G76" s="6">
-        <v>-0.0109</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B77" s="5">
-        <v>25667.18</v>
+        <v>25388.35</v>
       </c>
       <c r="C77" s="5">
-        <v>25528.22</v>
+        <v>25531.59</v>
       </c>
       <c r="D77" s="5">
-        <v>25735.89</v>
+        <v>25585.73</v>
       </c>
       <c r="E77" s="5">
-        <v>25502.49</v>
+        <v>25355.31</v>
       </c>
       <c r="F77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G77" s="6">
-        <v>0.0051</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B78" s="5">
-        <v>25538.07</v>
+        <v>25667.18</v>
       </c>
       <c r="C78" s="5">
-        <v>25348.3</v>
+        <v>25528.22</v>
       </c>
       <c r="D78" s="5">
-        <v>25538.07</v>
+        <v>25735.89</v>
       </c>
       <c r="E78" s="5">
-        <v>25228.01</v>
+        <v>25502.49</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G78" s="6">
-        <v>0.0162</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B79" s="5">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="C79" s="5">
-        <v>25024.93</v>
+        <v>25348.3</v>
       </c>
       <c r="D79" s="5">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="E79" s="5">
-        <v>24900.59</v>
+        <v>25228.01</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G79" s="6">
-        <v>0.0054</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B80" s="5">
-        <v>24994.14</v>
+        <v>25130.03</v>
       </c>
       <c r="C80" s="5">
-        <v>24991.14</v>
+        <v>25024.93</v>
       </c>
       <c r="D80" s="5">
-        <v>25010.9</v>
+        <v>25130.03</v>
       </c>
       <c r="E80" s="5">
-        <v>24844.8</v>
+        <v>24900.59</v>
       </c>
       <c r="F80" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G80" s="6">
-        <v>0.0068</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B81" s="5">
-        <v>24825.66</v>
+        <v>24994.14</v>
       </c>
       <c r="C81" s="5">
-        <v>24757.83</v>
+        <v>24991.14</v>
       </c>
       <c r="D81" s="5">
-        <v>24825.66</v>
+        <v>25010.9</v>
       </c>
       <c r="E81" s="5">
-        <v>24630.79</v>
+        <v>24844.8</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G81" s="6">
-        <v>0.0133</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B82" s="5">
-        <v>24498.95</v>
+        <v>24825.66</v>
       </c>
       <c r="C82" s="5">
-        <v>24547.08</v>
+        <v>24757.83</v>
       </c>
       <c r="D82" s="5">
-        <v>24672.51</v>
+        <v>24825.66</v>
       </c>
       <c r="E82" s="5">
-        <v>24447.93</v>
+        <v>24630.79</v>
       </c>
       <c r="F82" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G82" s="6">
-        <v>-0.0008</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B83" s="5">
-        <v>24517.76</v>
+        <v>24498.95</v>
       </c>
       <c r="C83" s="5">
-        <v>24704.05</v>
+        <v>24547.08</v>
       </c>
       <c r="D83" s="5">
-        <v>24867.81</v>
+        <v>24672.51</v>
       </c>
       <c r="E83" s="5">
-        <v>24517.75</v>
+        <v>24447.93</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G83" s="6">
-        <v>-0.0029</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B84" s="5">
-        <v>24590.12</v>
+        <v>24517.76</v>
       </c>
       <c r="C84" s="5">
-        <v>24281.94</v>
+        <v>24704.05</v>
       </c>
       <c r="D84" s="5">
-        <v>24590.12</v>
+        <v>24867.81</v>
       </c>
       <c r="E84" s="5">
-        <v>24141.88</v>
+        <v>24517.75</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G84" s="6">
-        <v>0.016</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B85" s="5">
-        <v>24203.32</v>
+        <v>24590.12</v>
       </c>
       <c r="C85" s="5">
-        <v>24100.57</v>
+        <v>24281.94</v>
       </c>
       <c r="D85" s="5">
-        <v>24267.84</v>
+        <v>24590.12</v>
       </c>
       <c r="E85" s="5">
-        <v>24097.32</v>
+        <v>24141.88</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G85" s="6">
-        <v>0.0026</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B86" s="5">
-        <v>24139.57</v>
+        <v>24203.32</v>
       </c>
       <c r="C86" s="5">
-        <v>24033.12</v>
+        <v>24100.57</v>
       </c>
       <c r="D86" s="5">
-        <v>24506.3</v>
+        <v>24267.84</v>
       </c>
       <c r="E86" s="5">
-        <v>24033.12</v>
+        <v>24097.32</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G86" s="6">
-        <v>0.0046</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B87" s="5">
-        <v>24028.37</v>
+        <v>24139.57</v>
       </c>
       <c r="C87" s="5">
-        <v>23865.64</v>
+        <v>24033.12</v>
       </c>
       <c r="D87" s="5">
-        <v>24087.59</v>
+        <v>24506.3</v>
       </c>
       <c r="E87" s="5">
-        <v>23820.58</v>
+        <v>24033.12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G87" s="6">
-        <v>0.0057</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B88" s="5">
-        <v>23892.32</v>
+        <v>24028.37</v>
       </c>
       <c r="C88" s="5">
-        <v>24061.08</v>
+        <v>23865.64</v>
       </c>
       <c r="D88" s="5">
-        <v>24061.08</v>
+        <v>24087.59</v>
       </c>
       <c r="E88" s="5">
-        <v>23827.15</v>
+        <v>23820.58</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G88" s="6">
-        <v>-0.0106</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B89" s="5">
-        <v>24148.07</v>
+        <v>23892.32</v>
       </c>
       <c r="C89" s="5">
-        <v>23927.53</v>
+        <v>24061.08</v>
       </c>
       <c r="D89" s="5">
-        <v>24159.01</v>
+        <v>24061.08</v>
       </c>
       <c r="E89" s="5">
-        <v>23899.6</v>
+        <v>23827.15</v>
       </c>
       <c r="F89" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G89" s="6">
-        <v>0.0109</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B90" s="5">
-        <v>23887.83</v>
+        <v>24148.07</v>
       </c>
       <c r="C90" s="5">
-        <v>23828.85</v>
+        <v>23927.53</v>
       </c>
       <c r="D90" s="5">
-        <v>23910.95</v>
+        <v>24159.01</v>
       </c>
       <c r="E90" s="5">
-        <v>23713.78</v>
+        <v>23899.6</v>
       </c>
       <c r="F90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G90" s="6">
-        <v>-0.0012</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B91" s="5">
-        <v>23916.06</v>
+        <v>23887.83</v>
       </c>
       <c r="C91" s="5">
-        <v>23900.69</v>
+        <v>23828.85</v>
       </c>
       <c r="D91" s="5">
-        <v>24068.51</v>
+        <v>23910.95</v>
       </c>
       <c r="E91" s="5">
-        <v>23690.94</v>
+        <v>23713.78</v>
       </c>
       <c r="F91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G91" s="6">
-        <v>-0.0064</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B92" s="5">
-        <v>24069.94</v>
+        <v>23916.06</v>
       </c>
       <c r="C92" s="5">
-        <v>24234.28</v>
+        <v>23900.69</v>
       </c>
       <c r="D92" s="5">
-        <v>24269.14</v>
+        <v>24068.51</v>
       </c>
       <c r="E92" s="5">
-        <v>23920</v>
+        <v>23690.94</v>
       </c>
       <c r="F92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G92" s="6">
-        <v>-0.0063</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B93" s="5">
-        <v>24221.41</v>
+        <v>24069.94</v>
       </c>
       <c r="C93" s="5">
-        <v>24304.31</v>
+        <v>24234.28</v>
       </c>
       <c r="D93" s="5">
-        <v>24372.7</v>
+        <v>24269.14</v>
       </c>
       <c r="E93" s="5">
-        <v>24122.57</v>
+        <v>23920</v>
       </c>
       <c r="F93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G93" s="6">
-        <v>0.0062</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B94" s="5">
-        <v>24072.28</v>
+        <v>24221.41</v>
       </c>
       <c r="C94" s="5">
-        <v>24274.91</v>
+        <v>24304.31</v>
       </c>
       <c r="D94" s="5">
-        <v>24274.91</v>
+        <v>24372.7</v>
       </c>
       <c r="E94" s="5">
-        <v>24064.26</v>
+        <v>24122.57</v>
       </c>
       <c r="F94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G94" s="6">
-        <v>-0.0087</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B95" s="5">
-        <v>24284.15</v>
+        <v>24072.28</v>
       </c>
       <c r="C95" s="5">
-        <v>24451.19</v>
+        <v>24274.91</v>
       </c>
       <c r="D95" s="5">
-        <v>24471.53</v>
+        <v>24274.91</v>
       </c>
       <c r="E95" s="5">
-        <v>24194.85</v>
+        <v>24064.26</v>
       </c>
       <c r="F95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G95" s="6">
-        <v>-0.0017</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B96" s="5">
-        <v>24325.4</v>
+        <v>24284.15</v>
       </c>
       <c r="C96" s="5">
-        <v>24345.29</v>
+        <v>24451.19</v>
       </c>
       <c r="D96" s="5">
-        <v>24411.48</v>
+        <v>24471.53</v>
       </c>
       <c r="E96" s="5">
-        <v>24235.54</v>
+        <v>24194.85</v>
       </c>
       <c r="F96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G96" s="6">
-        <v>-0.0061</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B97" s="5">
-        <v>24474.67</v>
+        <v>24325.4</v>
       </c>
       <c r="C97" s="5">
-        <v>24327.82</v>
+        <v>24345.29</v>
       </c>
       <c r="D97" s="5">
-        <v>24533.39</v>
+        <v>24411.48</v>
       </c>
       <c r="E97" s="5">
-        <v>24287.86</v>
+        <v>24235.54</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G97" s="6">
-        <v>0.0123</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B98" s="5">
-        <v>24177.07</v>
+        <v>24474.67</v>
       </c>
       <c r="C98" s="5">
-        <v>23832.73</v>
+        <v>24327.82</v>
       </c>
       <c r="D98" s="5">
-        <v>24229.21</v>
+        <v>24533.39</v>
       </c>
       <c r="E98" s="5">
-        <v>23832.73</v>
+        <v>24287.86</v>
       </c>
       <c r="F98" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G98" s="6">
-        <v>0.0206</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B99" s="5">
-        <v>23689.13</v>
+        <v>24177.07</v>
       </c>
       <c r="C99" s="5">
-        <v>23335.51</v>
+        <v>23832.73</v>
       </c>
       <c r="D99" s="5">
-        <v>23689.13</v>
+        <v>24229.21</v>
       </c>
       <c r="E99" s="5">
-        <v>23272.75</v>
+        <v>23832.73</v>
       </c>
       <c r="F99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G99" s="6">
-        <v>0.0067</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B100" s="5">
-        <v>23530.48</v>
+        <v>23689.13</v>
       </c>
       <c r="C100" s="5">
-        <v>23291.4</v>
+        <v>23335.51</v>
       </c>
       <c r="D100" s="5">
-        <v>23538.63</v>
+        <v>23689.13</v>
       </c>
       <c r="E100" s="5">
-        <v>23291.4</v>
+        <v>23272.75</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G100" s="6">
-        <v>0.0126</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B101" s="5">
-        <v>23237.74</v>
+        <v>23530.48</v>
       </c>
       <c r="C101" s="5">
-        <v>23620.02</v>
+        <v>23291.4</v>
       </c>
       <c r="D101" s="5">
-        <v>23653.55</v>
+        <v>23538.63</v>
       </c>
       <c r="E101" s="5">
-        <v>23185.58</v>
+        <v>23291.4</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G101" s="6">
-        <v>-0.0199</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B102" s="5">
-        <v>23710.69</v>
+        <v>23237.74</v>
       </c>
       <c r="C102" s="5">
-        <v>23859.55</v>
+        <v>23620.02</v>
       </c>
       <c r="D102" s="5">
-        <v>23880.24</v>
+        <v>23653.55</v>
       </c>
       <c r="E102" s="5">
-        <v>23631.48</v>
+        <v>23185.58</v>
       </c>
       <c r="F102" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G102" s="6">
-        <v>-0.0112</v>
+        <v>-0.0199</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B103" s="5">
-        <v>23980.3</v>
+        <v>23710.69</v>
       </c>
       <c r="C103" s="5">
-        <v>24107.34</v>
+        <v>23859.55</v>
       </c>
       <c r="D103" s="5">
-        <v>24131.44</v>
+        <v>23880.24</v>
       </c>
       <c r="E103" s="5">
-        <v>23880.67</v>
+        <v>23631.48</v>
       </c>
       <c r="F103" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G103" s="6">
-        <v>-0.0034</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B104" s="5">
-        <v>24060.99</v>
+        <v>23980.3</v>
       </c>
       <c r="C104" s="5">
-        <v>23791.79</v>
+        <v>24107.34</v>
       </c>
       <c r="D104" s="5">
-        <v>24125.05</v>
+        <v>24131.44</v>
       </c>
       <c r="E104" s="5">
-        <v>23718.72</v>
+        <v>23880.67</v>
       </c>
       <c r="F104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G104" s="6">
-        <v>0.007</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B105" s="5">
-        <v>23892.56</v>
+        <v>24060.99</v>
       </c>
       <c r="C105" s="5">
-        <v>23959.81</v>
+        <v>23791.79</v>
       </c>
       <c r="D105" s="5">
-        <v>24100.32</v>
+        <v>24125.05</v>
       </c>
       <c r="E105" s="5">
-        <v>23774.92</v>
+        <v>23718.72</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G105" s="6">
-        <v>-0.0059</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B106" s="5">
-        <v>24035.38</v>
+        <v>23892.56</v>
       </c>
       <c r="C106" s="5">
-        <v>24223.12</v>
+        <v>23959.81</v>
       </c>
       <c r="D106" s="5">
-        <v>24288.76</v>
+        <v>24100.32</v>
       </c>
       <c r="E106" s="5">
-        <v>24002.42</v>
+        <v>23774.92</v>
       </c>
       <c r="F106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G106" s="6">
-        <v>-0.0136</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B107" s="5">
-        <v>24366.94</v>
+        <v>24035.38</v>
       </c>
       <c r="C107" s="5">
-        <v>24191.32</v>
+        <v>24223.12</v>
       </c>
       <c r="D107" s="5">
-        <v>24439.35</v>
+        <v>24288.76</v>
       </c>
       <c r="E107" s="5">
-        <v>24179.35</v>
+        <v>24002.42</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="G107" s="6">
-        <v>0.0084</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B108" s="5">
-        <v>24162.87</v>
+        <v>24366.94</v>
       </c>
       <c r="C108" s="5">
-        <v>24231.31</v>
+        <v>24191.32</v>
       </c>
       <c r="D108" s="5">
-        <v>24296.47</v>
+        <v>24439.35</v>
       </c>
       <c r="E108" s="5">
-        <v>24003.38</v>
+        <v>24179.35</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G108" s="6">
-        <v>-0.0008</v>
+        <v>0.0084</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B109" s="5">
-        <v>24181.43</v>
+        <v>24162.87</v>
       </c>
       <c r="C109" s="5">
-        <v>23977.54</v>
+        <v>24231.31</v>
       </c>
       <c r="D109" s="5">
-        <v>24181.43</v>
+        <v>24296.47</v>
       </c>
       <c r="E109" s="5">
-        <v>23957.96</v>
+        <v>24003.38</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G109" s="6">
-        <v>0.0163</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B110" s="5">
-        <v>23792.54</v>
+        <v>24181.43</v>
       </c>
       <c r="C110" s="5">
-        <v>23941.57</v>
+        <v>23977.54</v>
       </c>
       <c r="D110" s="5">
-        <v>23951.14</v>
+        <v>24181.43</v>
       </c>
       <c r="E110" s="5">
-        <v>23773.36</v>
+        <v>23957.96</v>
       </c>
       <c r="F110" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="G110" s="6">
-        <v>-0.0048</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="B111" s="5">
-        <v>23906.97</v>
+        <v>23792.54</v>
       </c>
       <c r="C111" s="5">
-        <v>23828.69</v>
+        <v>23941.57</v>
       </c>
       <c r="D111" s="5">
-        <v>23911.14</v>
+        <v>23951.14</v>
       </c>
       <c r="E111" s="5">
-        <v>23732.31</v>
+        <v>23773.36</v>
       </c>
       <c r="F111" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G111" s="6">
-        <v>0.0107</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B112" s="5">
-        <v>23654.03</v>
+        <v>23906.97</v>
       </c>
       <c r="C112" s="5">
-        <v>23499.78</v>
+        <v>23828.69</v>
       </c>
       <c r="D112" s="5">
-        <v>23716.93</v>
+        <v>23911.14</v>
       </c>
       <c r="E112" s="5">
-        <v>23481.46</v>
+        <v>23732.31</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G112" s="6">
-        <v>0.006</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B113" s="5">
-        <v>23512.49</v>
+        <v>23654.03</v>
       </c>
       <c r="C113" s="5">
-        <v>23281.1</v>
+        <v>23499.78</v>
       </c>
       <c r="D113" s="5">
-        <v>23535.37</v>
+        <v>23716.93</v>
       </c>
       <c r="E113" s="5">
-        <v>23281.1</v>
+        <v>23481.46</v>
       </c>
       <c r="F113" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="G113" s="6">
-        <v>0.0153</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="B114" s="5">
-        <v>23157.97</v>
+        <v>23512.49</v>
       </c>
       <c r="C114" s="5">
-        <v>23043.1</v>
+        <v>23281.1</v>
       </c>
       <c r="D114" s="5">
-        <v>23163.35</v>
+        <v>23535.37</v>
       </c>
       <c r="E114" s="5">
-        <v>22668.35</v>
+        <v>23281.1</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G114" s="6">
-        <v>-0.0057</v>
+        <v>0.0153</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B115" s="5">
-        <v>23289.77</v>
+        <v>23157.97</v>
       </c>
       <c r="C115" s="5">
-        <v>23339.64</v>
+        <v>23043.1</v>
       </c>
       <c r="D115" s="5">
-        <v>23375.34</v>
+        <v>23163.35</v>
       </c>
       <c r="E115" s="5">
-        <v>23163.22</v>
+        <v>22668.35</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G115" s="6">
-        <v>-0.012</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B116" s="5">
-        <v>23573.38</v>
+        <v>23289.77</v>
       </c>
       <c r="C116" s="5">
-        <v>23240.71</v>
+        <v>23339.64</v>
       </c>
       <c r="D116" s="5">
-        <v>23603.82</v>
+        <v>23375.34</v>
       </c>
       <c r="E116" s="5">
-        <v>23207.37</v>
+        <v>23163.22</v>
       </c>
       <c r="F116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G116" s="6">
-        <v>0.0135</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B117" s="5">
-        <v>23258.31</v>
+        <v>23573.38</v>
       </c>
       <c r="C117" s="5">
-        <v>23385.18</v>
+        <v>23240.71</v>
       </c>
       <c r="D117" s="5">
-        <v>23476.22</v>
+        <v>23603.82</v>
       </c>
       <c r="E117" s="5">
-        <v>23180.17</v>
+        <v>23207.37</v>
       </c>
       <c r="F117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G117" s="6">
-        <v>-0.0053</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B118" s="5">
-        <v>23381.99</v>
+        <v>23258.31</v>
       </c>
       <c r="C118" s="5">
-        <v>23216.87</v>
+        <v>23385.18</v>
       </c>
       <c r="D118" s="5">
-        <v>23419.55</v>
+        <v>23476.22</v>
       </c>
       <c r="E118" s="5">
-        <v>23167.56</v>
+        <v>23180.17</v>
       </c>
       <c r="F118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G118" s="6">
-        <v>0.0043</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="B119" s="5">
-        <v>23282.33</v>
+        <v>23381.99</v>
       </c>
       <c r="C119" s="5">
-        <v>23505.9</v>
+        <v>23216.87</v>
       </c>
       <c r="D119" s="5">
-        <v>23571.02</v>
+        <v>23419.55</v>
       </c>
       <c r="E119" s="5">
-        <v>23234.27</v>
+        <v>23167.56</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="G119" s="6">
-        <v>-0.0135</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B120" s="5">
-        <v>23601.26</v>
+        <v>23282.33</v>
       </c>
       <c r="C120" s="5">
-        <v>23557.38</v>
+        <v>23505.9</v>
       </c>
       <c r="D120" s="5">
-        <v>23749.38</v>
+        <v>23571.02</v>
       </c>
       <c r="E120" s="5">
-        <v>23487.4</v>
+        <v>23234.27</v>
       </c>
       <c r="F120" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="G120" s="6">
-        <v>0.0024</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B121" s="5">
-        <v>23544.31</v>
+        <v>23601.26</v>
       </c>
       <c r="C121" s="5">
-        <v>23748.58</v>
+        <v>23557.38</v>
       </c>
       <c r="D121" s="5">
-        <v>23778.24</v>
+        <v>23749.38</v>
       </c>
       <c r="E121" s="5">
-        <v>23470.81</v>
+        <v>23487.4</v>
       </c>
       <c r="F121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G121" s="6">
-        <v>-0.0119</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="B122" s="5">
-        <v>23827.78</v>
+        <v>23544.31</v>
       </c>
       <c r="C122" s="5">
-        <v>23736.43</v>
+        <v>23748.58</v>
       </c>
       <c r="D122" s="5">
-        <v>23917</v>
+        <v>23778.24</v>
       </c>
       <c r="E122" s="5">
-        <v>23697.76</v>
+        <v>23470.81</v>
       </c>
       <c r="F122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G122" s="6">
-        <v>0.0062</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B123" s="5">
-        <v>23681.48</v>
+        <v>23827.78</v>
       </c>
       <c r="C123" s="5">
-        <v>23398.35</v>
+        <v>23736.43</v>
       </c>
       <c r="D123" s="5">
-        <v>23709.04</v>
+        <v>23917</v>
       </c>
       <c r="E123" s="5">
-        <v>23357</v>
+        <v>23697.76</v>
       </c>
       <c r="F123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G123" s="6">
-        <v>0.0149</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B124" s="5">
-        <v>23332.72</v>
+        <v>23681.48</v>
       </c>
       <c r="C124" s="5">
-        <v>23156.27</v>
+        <v>23398.35</v>
       </c>
       <c r="D124" s="5">
-        <v>23402.2</v>
+        <v>23709.04</v>
       </c>
       <c r="E124" s="5">
-        <v>23059.89</v>
+        <v>23357</v>
       </c>
       <c r="F124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G124" s="6">
-        <v>-0.0005</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B125" s="5">
-        <v>23345.05</v>
+        <v>23332.72</v>
       </c>
       <c r="C125" s="5">
-        <v>23249.16</v>
+        <v>23156.27</v>
       </c>
       <c r="D125" s="5">
-        <v>23374.7</v>
+        <v>23402.2</v>
       </c>
       <c r="E125" s="5">
-        <v>23190.31</v>
+        <v>23059.89</v>
       </c>
       <c r="F125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G125" s="6">
-        <v>-0.0046</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="B126" s="5">
-        <v>23453.16</v>
+        <v>23345.05</v>
       </c>
       <c r="C126" s="5">
-        <v>23644.4</v>
+        <v>23249.16</v>
       </c>
       <c r="D126" s="5">
-        <v>23710.82</v>
+        <v>23374.7</v>
       </c>
       <c r="E126" s="5">
-        <v>23371.73</v>
+        <v>23190.31</v>
       </c>
       <c r="F126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G126" s="6">
-        <v>-0.0079</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B127" s="5">
-        <v>23640.65</v>
+        <v>23453.16</v>
       </c>
       <c r="C127" s="5">
-        <v>23316.45</v>
+        <v>23644.4</v>
       </c>
       <c r="D127" s="5">
-        <v>23640.65</v>
+        <v>23710.82</v>
       </c>
       <c r="E127" s="5">
-        <v>23278.22</v>
+        <v>23371.73</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G127" s="6">
-        <v>0.023</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B128" s="5">
-        <v>23108.27</v>
+        <v>23640.65</v>
       </c>
       <c r="C128" s="5">
-        <v>23494.44</v>
+        <v>23316.45</v>
       </c>
       <c r="D128" s="5">
-        <v>23494.44</v>
+        <v>23640.65</v>
       </c>
       <c r="E128" s="5">
-        <v>23070.48</v>
+        <v>23278.22</v>
       </c>
       <c r="F128" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="G128" s="6">
-        <v>-0.0187</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>45789</v>
+        <v>45790</v>
       </c>
       <c r="B129" s="5">
-        <v>23549.46</v>
+        <v>23108.27</v>
       </c>
       <c r="C129" s="5">
-        <v>23183.81</v>
+        <v>23494.44</v>
       </c>
       <c r="D129" s="5">
-        <v>23685.34</v>
+        <v>23494.44</v>
       </c>
       <c r="E129" s="5">
-        <v>22982.91</v>
+        <v>23070.48</v>
       </c>
       <c r="F129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G129" s="6">
-        <v>0.0298</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>45786</v>
+        <v>45789</v>
       </c>
       <c r="B130" s="5">
-        <v>22867.74</v>
+        <v>23549.46</v>
       </c>
       <c r="C130" s="5">
-        <v>22856.21</v>
+        <v>23183.81</v>
       </c>
       <c r="D130" s="5">
-        <v>22907.91</v>
+        <v>23685.34</v>
       </c>
       <c r="E130" s="5">
-        <v>22692.44</v>
+        <v>22982.91</v>
       </c>
       <c r="F130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G130" s="6">
-        <v>0.004</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>45785</v>
+        <v>45786</v>
       </c>
       <c r="B131" s="5">
-        <v>22775.92</v>
+        <v>22867.74</v>
       </c>
       <c r="C131" s="5">
-        <v>22589.13</v>
+        <v>22856.21</v>
       </c>
       <c r="D131" s="5">
-        <v>22979.29</v>
+        <v>22907.91</v>
       </c>
       <c r="E131" s="5">
-        <v>22589.13</v>
+        <v>22692.44</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G131" s="6">
-        <v>0.0037</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="B132" s="5">
-        <v>22691.88</v>
+        <v>22775.92</v>
       </c>
       <c r="C132" s="5">
-        <v>23169.83</v>
+        <v>22589.13</v>
       </c>
       <c r="D132" s="5">
-        <v>23197.57</v>
+        <v>22979.29</v>
       </c>
       <c r="E132" s="5">
-        <v>22691.88</v>
+        <v>22589.13</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G132" s="6">
-        <v>0.0013</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="B133" s="5">
-        <v>22662.71</v>
+        <v>22691.88</v>
       </c>
       <c r="C133" s="5">
-        <v>22576.56</v>
+        <v>23169.83</v>
       </c>
       <c r="D133" s="5">
-        <v>22747.63</v>
+        <v>23197.57</v>
       </c>
       <c r="E133" s="5">
-        <v>22449.16</v>
+        <v>22691.88</v>
       </c>
       <c r="F133" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="G133" s="6">
-        <v>0.007</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B134" s="5">
-        <v>22504.68</v>
+        <v>22662.71</v>
       </c>
       <c r="C134" s="5">
-        <v>22192.51</v>
+        <v>22576.56</v>
       </c>
       <c r="D134" s="5">
-        <v>22532.54</v>
+        <v>22747.63</v>
       </c>
       <c r="E134" s="5">
-        <v>22058.3</v>
+        <v>22449.16</v>
       </c>
       <c r="F134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G134" s="6">
-        <v>0.0174</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="B135" s="5">
-        <v>22119.41</v>
+        <v>22504.68</v>
       </c>
       <c r="C135" s="5">
-        <v>22038.73</v>
+        <v>22192.51</v>
       </c>
       <c r="D135" s="5">
-        <v>22129.31</v>
+        <v>22532.54</v>
       </c>
       <c r="E135" s="5">
-        <v>21848.33</v>
+        <v>22058.3</v>
       </c>
       <c r="F135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G135" s="6">
-        <v>0.0051</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B136" s="5">
-        <v>22008.11</v>
+        <v>22119.41</v>
       </c>
       <c r="C136" s="5">
-        <v>22073.36</v>
+        <v>22038.73</v>
       </c>
       <c r="D136" s="5">
-        <v>22213.51</v>
+        <v>22129.31</v>
       </c>
       <c r="E136" s="5">
-        <v>21918.1</v>
+        <v>21848.33</v>
       </c>
       <c r="F136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G136" s="6">
-        <v>0.0016</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="B137" s="5">
-        <v>21971.96</v>
+        <v>22008.11</v>
       </c>
       <c r="C137" s="5">
-        <v>22072.35</v>
+        <v>22073.36</v>
       </c>
       <c r="D137" s="5">
-        <v>22072.35</v>
+        <v>22213.51</v>
       </c>
       <c r="E137" s="5">
-        <v>21817.85</v>
+        <v>21918.1</v>
       </c>
       <c r="F137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G137" s="6">
-        <v>-0.0004</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B138" s="5">
-        <v>21980.74</v>
+        <v>21971.96</v>
       </c>
       <c r="C138" s="5">
-        <v>22080.44</v>
+        <v>22072.35</v>
       </c>
       <c r="D138" s="5">
-        <v>22267.96</v>
+        <v>22072.35</v>
       </c>
       <c r="E138" s="5">
-        <v>21923.9</v>
+        <v>21817.85</v>
       </c>
       <c r="F138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G138" s="6">
-        <v>0.0032</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="B139" s="5">
-        <v>21909.76</v>
+        <v>21980.74</v>
       </c>
       <c r="C139" s="5">
-        <v>22030.15</v>
+        <v>22080.44</v>
       </c>
       <c r="D139" s="5">
-        <v>22093.68</v>
+        <v>22267.96</v>
       </c>
       <c r="E139" s="5">
-        <v>21712.1</v>
+        <v>21923.9</v>
       </c>
       <c r="F139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G139" s="6">
-        <v>-0.0074</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B140" s="5">
-        <v>22072.62</v>
+        <v>21909.76</v>
       </c>
       <c r="C140" s="5">
-        <v>22080.19</v>
+        <v>22030.15</v>
       </c>
       <c r="D140" s="5">
-        <v>22138.81</v>
+        <v>22093.68</v>
       </c>
       <c r="E140" s="5">
-        <v>21862.87</v>
+        <v>21712.1</v>
       </c>
       <c r="F140" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="G140" s="6">
-        <v>0.0237</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="B141" s="5">
-        <v>21562.32</v>
+        <v>22072.62</v>
       </c>
       <c r="C141" s="5">
-        <v>21303.51</v>
+        <v>22080.19</v>
       </c>
       <c r="D141" s="5">
-        <v>21592.67</v>
+        <v>22138.81</v>
       </c>
       <c r="E141" s="5">
-        <v>21191.02</v>
+        <v>21862.87</v>
       </c>
       <c r="F141" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G141" s="6">
-        <v>0.0078</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B142" s="5">
-        <v>21395.14</v>
+        <v>21562.32</v>
       </c>
       <c r="C142" s="5">
-        <v>21066.81</v>
+        <v>21303.51</v>
       </c>
       <c r="D142" s="5">
-        <v>21417.64</v>
+        <v>21592.67</v>
       </c>
       <c r="E142" s="5">
-        <v>21039.16</v>
+        <v>21191.02</v>
       </c>
       <c r="F142" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G142" s="6">
-        <v>0.0161</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B143" s="5">
-        <v>21056.98</v>
+        <v>21395.14</v>
       </c>
       <c r="C143" s="5">
-        <v>21316.47</v>
+        <v>21066.81</v>
       </c>
       <c r="D143" s="5">
-        <v>21363.57</v>
+        <v>21417.64</v>
       </c>
       <c r="E143" s="5">
-        <v>20868.36</v>
+        <v>21039.16</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G143" s="6">
-        <v>-0.0191</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B144" s="5">
-        <v>21466.27</v>
+        <v>21056.98</v>
       </c>
       <c r="C144" s="5">
-        <v>21603.52</v>
+        <v>21316.47</v>
       </c>
       <c r="D144" s="5">
-        <v>21603.52</v>
+        <v>21363.57</v>
       </c>
       <c r="E144" s="5">
-        <v>21297.59</v>
+        <v>20868.36</v>
       </c>
       <c r="F144" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G144" s="6">
-        <v>0.0023</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B145" s="5">
-        <v>21417.4</v>
+        <v>21466.27</v>
       </c>
       <c r="C145" s="5">
-        <v>21363.88</v>
+        <v>21603.52</v>
       </c>
       <c r="D145" s="5">
-        <v>21517.32</v>
+        <v>21603.52</v>
       </c>
       <c r="E145" s="5">
-        <v>21224.55</v>
+        <v>21297.59</v>
       </c>
       <c r="F145" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G145" s="6">
-        <v>0.024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B146" s="5">
-        <v>20914.69</v>
+        <v>21417.4</v>
       </c>
       <c r="C146" s="5">
-        <v>20557.49</v>
+        <v>21363.88</v>
       </c>
       <c r="D146" s="5">
-        <v>21127.37</v>
+        <v>21517.32</v>
       </c>
       <c r="E146" s="5">
-        <v>20444.04</v>
+        <v>21224.55</v>
       </c>
       <c r="F146" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G146" s="6">
-        <v>0.0113</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B147" s="5">
-        <v>20681.78</v>
+        <v>20914.69</v>
       </c>
       <c r="C147" s="5">
-        <v>20810.43</v>
+        <v>20557.49</v>
       </c>
       <c r="D147" s="5">
-        <v>21211.13</v>
+        <v>21127.37</v>
       </c>
       <c r="E147" s="5">
-        <v>20530.43</v>
+        <v>20444.04</v>
       </c>
       <c r="F147" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G147" s="6">
-        <v>0.0206</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B148" s="5">
-        <v>20264.49</v>
+        <v>20681.78</v>
       </c>
       <c r="C148" s="5">
-        <v>19494.92</v>
+        <v>20810.43</v>
       </c>
       <c r="D148" s="5">
-        <v>20441.14</v>
+        <v>21211.13</v>
       </c>
       <c r="E148" s="5">
-        <v>19260.21</v>
+        <v>20530.43</v>
       </c>
       <c r="F148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G148" s="6">
-        <v>0.0068</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B149" s="5">
-        <v>20127.68</v>
+        <v>20264.49</v>
       </c>
       <c r="C149" s="5">
-        <v>20157.52</v>
+        <v>19494.92</v>
       </c>
       <c r="D149" s="5">
-        <v>20454.26</v>
+        <v>20441.14</v>
       </c>
       <c r="E149" s="5">
-        <v>19745.14</v>
+        <v>19260.21</v>
       </c>
       <c r="F149" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G149" s="6">
-        <v>0.0151</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B150" s="5">
-        <v>19828.3</v>
+        <v>20127.68</v>
       </c>
       <c r="C150" s="5">
-        <v>20730.05</v>
+        <v>20157.52</v>
       </c>
       <c r="D150" s="5">
-        <v>21047.83</v>
+        <v>20454.26</v>
       </c>
       <c r="E150" s="5">
-        <v>19706.03</v>
+        <v>19745.14</v>
       </c>
       <c r="F150" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G150" s="6">
-        <v>-0.1322</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="B151" s="5">
-        <v>22849.81</v>
+        <v>19828.3</v>
       </c>
       <c r="C151" s="5">
-        <v>22638.21</v>
+        <v>20730.05</v>
       </c>
       <c r="D151" s="5">
-        <v>22998.3</v>
+        <v>21047.83</v>
       </c>
       <c r="E151" s="5">
-        <v>22638.21</v>
+        <v>19706.03</v>
       </c>
       <c r="F151" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G151" s="6">
-        <v>-0.0152</v>
+        <v>-0.1322</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="B152" s="5">
-        <v>23202.53</v>
+        <v>22849.81</v>
       </c>
       <c r="C152" s="5">
-        <v>23167.31</v>
+        <v>22638.21</v>
       </c>
       <c r="D152" s="5">
-        <v>23393.03</v>
+        <v>22998.3</v>
       </c>
       <c r="E152" s="5">
-        <v>22980.96</v>
+        <v>22638.21</v>
       </c>
       <c r="F152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G152" s="6">
-        <v>-0.0002</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B153" s="5">
-        <v>23206.84</v>
+        <v>23202.53</v>
       </c>
       <c r="C153" s="5">
-        <v>23217.11</v>
+        <v>23167.31</v>
       </c>
       <c r="D153" s="5">
-        <v>23456.58</v>
+        <v>23393.03</v>
       </c>
       <c r="E153" s="5">
-        <v>23123.35</v>
+        <v>22980.96</v>
       </c>
       <c r="F153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G153" s="6">
-        <v>0.0038</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B154" s="5">
-        <v>23119.58</v>
+        <v>23206.84</v>
       </c>
       <c r="C154" s="5">
-        <v>23207.07</v>
+        <v>23217.11</v>
       </c>
       <c r="D154" s="5">
-        <v>23399.73</v>
+        <v>23456.58</v>
       </c>
       <c r="E154" s="5">
-        <v>23002.81</v>
+        <v>23123.35</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="G154" s="6">
-        <v>-0.0131</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B155" s="5">
-        <v>23426.6</v>
+        <v>23119.58</v>
       </c>
       <c r="C155" s="5">
-        <v>23672.82</v>
+        <v>23207.07</v>
       </c>
       <c r="D155" s="5">
-        <v>23775.3</v>
+        <v>23399.73</v>
       </c>
       <c r="E155" s="5">
-        <v>23254.3</v>
+        <v>23002.81</v>
       </c>
       <c r="F155" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="G155" s="6">
-        <v>-0.0065</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B156" s="5">
-        <v>23578.8</v>
+        <v>23426.6</v>
       </c>
       <c r="C156" s="5">
-        <v>23543.86</v>
+        <v>23672.82</v>
       </c>
       <c r="D156" s="5">
-        <v>23865.62</v>
+        <v>23775.3</v>
       </c>
       <c r="E156" s="5">
-        <v>23372.36</v>
+        <v>23254.3</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="G156" s="6">
-        <v>0.0041</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B157" s="5">
-        <v>23483.32</v>
+        <v>23578.8</v>
       </c>
       <c r="C157" s="5">
-        <v>23460.31</v>
+        <v>23543.86</v>
       </c>
       <c r="D157" s="5">
-        <v>23596.85</v>
+        <v>23865.62</v>
       </c>
       <c r="E157" s="5">
-        <v>23350.73</v>
+        <v>23372.36</v>
       </c>
       <c r="F157" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G157" s="6">
-        <v>0.006</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B158" s="5">
-        <v>23344.25</v>
+        <v>23483.32</v>
       </c>
       <c r="C158" s="5">
-        <v>23643.32</v>
+        <v>23460.31</v>
       </c>
       <c r="D158" s="5">
-        <v>23747.32</v>
+        <v>23596.85</v>
       </c>
       <c r="E158" s="5">
-        <v>23321.67</v>
+        <v>23350.73</v>
       </c>
       <c r="F158" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="G158" s="6">
-        <v>-0.0235</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B159" s="5">
-        <v>23905.56</v>
+        <v>23344.25</v>
       </c>
       <c r="C159" s="5">
-        <v>23749.58</v>
+        <v>23643.32</v>
       </c>
       <c r="D159" s="5">
-        <v>23967.51</v>
+        <v>23747.32</v>
       </c>
       <c r="E159" s="5">
-        <v>23531.2</v>
+        <v>23321.67</v>
       </c>
       <c r="F159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G159" s="6">
-        <v>0.0091</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B160" s="5">
-        <v>23689.72</v>
+        <v>23905.56</v>
       </c>
       <c r="C160" s="5">
-        <v>24109.07</v>
+        <v>23749.58</v>
       </c>
       <c r="D160" s="5">
-        <v>24230.72</v>
+        <v>23967.51</v>
       </c>
       <c r="E160" s="5">
-        <v>23577.78</v>
+        <v>23531.2</v>
       </c>
       <c r="F160" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="G160" s="6">
-        <v>-0.0219</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B161" s="5">
-        <v>24219.95</v>
+        <v>23689.72</v>
       </c>
       <c r="C161" s="5">
-        <v>24753.15</v>
+        <v>24109.07</v>
       </c>
       <c r="D161" s="5">
-        <v>24753.15</v>
+        <v>24230.72</v>
       </c>
       <c r="E161" s="5">
-        <v>24186.69</v>
+        <v>23577.78</v>
       </c>
       <c r="F161" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G161" s="6">
-        <v>-0.0223</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B162" s="5">
-        <v>24771.14</v>
+        <v>24219.95</v>
       </c>
       <c r="C162" s="5">
-        <v>24697.63</v>
+        <v>24753.15</v>
       </c>
       <c r="D162" s="5">
-        <v>24874.39</v>
+        <v>24753.15</v>
       </c>
       <c r="E162" s="5">
-        <v>24601.73</v>
+        <v>24186.69</v>
       </c>
       <c r="F162" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="G162" s="6">
-        <v>0.0012</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B163" s="5">
-        <v>24740.57</v>
+        <v>24771.14</v>
       </c>
       <c r="C163" s="5">
-        <v>24679.35</v>
+        <v>24697.63</v>
       </c>
       <c r="D163" s="5">
-        <v>24745.13</v>
+        <v>24874.39</v>
       </c>
       <c r="E163" s="5">
-        <v>24475.26</v>
+        <v>24601.73</v>
       </c>
       <c r="F163" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="G163" s="6">
-        <v>0.0246</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
       <c r="B164" s="5">
-        <v>24145.57</v>
+        <v>24740.57</v>
       </c>
       <c r="C164" s="5">
-        <v>24226</v>
+        <v>24679.35</v>
       </c>
       <c r="D164" s="5">
-        <v>24352.47</v>
+        <v>24745.13</v>
       </c>
       <c r="E164" s="5">
-        <v>24077.15</v>
+        <v>24475.26</v>
       </c>
       <c r="F164" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G164" s="6">
-        <v>0.0077</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B165" s="5">
-        <v>23959.98</v>
+        <v>24145.57</v>
       </c>
       <c r="C165" s="5">
-        <v>23653.33</v>
+        <v>24226</v>
       </c>
       <c r="D165" s="5">
-        <v>24113.53</v>
+        <v>24352.47</v>
       </c>
       <c r="E165" s="5">
-        <v>23454.49</v>
+        <v>24077.15</v>
       </c>
       <c r="F165" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G165" s="6">
-        <v>0.0212</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B166" s="5">
-        <v>23462.65</v>
+        <v>23959.98</v>
       </c>
       <c r="C166" s="5">
-        <v>23616.33</v>
+        <v>23653.33</v>
       </c>
       <c r="D166" s="5">
-        <v>23712.61</v>
+        <v>24113.53</v>
       </c>
       <c r="E166" s="5">
-        <v>23198.73</v>
+        <v>23454.49</v>
       </c>
       <c r="F166" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="G166" s="6">
-        <v>-0.0058</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B167" s="5">
-        <v>23600.31</v>
+        <v>23462.65</v>
       </c>
       <c r="C167" s="5">
-        <v>23859.23</v>
+        <v>23616.33</v>
       </c>
       <c r="D167" s="5">
-        <v>23962.03</v>
+        <v>23712.61</v>
       </c>
       <c r="E167" s="5">
-        <v>23363.98</v>
+        <v>23198.73</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G167" s="6">
-        <v>-0.0076</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B168" s="5">
-        <v>23782.14</v>
+        <v>23600.31</v>
       </c>
       <c r="C168" s="5">
-        <v>23274.86</v>
+        <v>23859.23</v>
       </c>
       <c r="D168" s="5">
-        <v>23858.61</v>
+        <v>23962.03</v>
       </c>
       <c r="E168" s="5">
-        <v>23238.36</v>
+        <v>23363.98</v>
       </c>
       <c r="F168" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="G168" s="6">
-        <v>-0.0001</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B169" s="5">
-        <v>23783.49</v>
+        <v>23782.14</v>
       </c>
       <c r="C169" s="5">
-        <v>24115.98</v>
+        <v>23274.86</v>
       </c>
       <c r="D169" s="5">
-        <v>24292.8</v>
+        <v>23858.61</v>
       </c>
       <c r="E169" s="5">
-        <v>23632.42</v>
+        <v>23238.36</v>
       </c>
       <c r="F169" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="G169" s="6">
-        <v>-0.0185</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B170" s="5">
-        <v>24231.3</v>
+        <v>23783.49</v>
       </c>
       <c r="C170" s="5">
-        <v>24182.02</v>
+        <v>24115.98</v>
       </c>
       <c r="D170" s="5">
-        <v>24669.62</v>
+        <v>24292.8</v>
       </c>
       <c r="E170" s="5">
-        <v>24065.01</v>
+        <v>23632.42</v>
       </c>
       <c r="F170" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="G170" s="6">
-        <v>-0.0057</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B171" s="5">
-        <v>24369.71</v>
+        <v>24231.3</v>
       </c>
       <c r="C171" s="5">
-        <v>23987.09</v>
+        <v>24182.02</v>
       </c>
       <c r="D171" s="5">
-        <v>24410.93</v>
+        <v>24669.62</v>
       </c>
       <c r="E171" s="5">
-        <v>23987.09</v>
+        <v>24065.01</v>
       </c>
       <c r="F171" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G171" s="6">
-        <v>0.0329</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B172" s="5">
-        <v>23594.21</v>
+        <v>24369.71</v>
       </c>
       <c r="C172" s="5">
-        <v>23200.42</v>
+        <v>23987.09</v>
       </c>
       <c r="D172" s="5">
-        <v>23636.65</v>
+        <v>24410.93</v>
       </c>
       <c r="E172" s="5">
-        <v>23090.63</v>
+        <v>23987.09</v>
       </c>
       <c r="F172" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G172" s="6">
-        <v>0.0284</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B173" s="5">
-        <v>22941.77</v>
+        <v>23594.21</v>
       </c>
       <c r="C173" s="5">
-        <v>22678.25</v>
+        <v>23200.42</v>
       </c>
       <c r="D173" s="5">
-        <v>23051.01</v>
+        <v>23636.65</v>
       </c>
       <c r="E173" s="5">
-        <v>22547.53</v>
+        <v>23090.63</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="G173" s="6">
-        <v>-0.0028</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B174" s="5">
-        <v>23006.27</v>
+        <v>22941.77</v>
       </c>
       <c r="C174" s="5">
-        <v>23135.12</v>
+        <v>22678.25</v>
       </c>
       <c r="D174" s="5">
-        <v>23405.98</v>
+        <v>23051.01</v>
       </c>
       <c r="E174" s="5">
-        <v>22861.75</v>
+        <v>22547.53</v>
       </c>
       <c r="F174" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G174" s="6">
-        <v>0.0028</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B175" s="5">
-        <v>22941.32</v>
+        <v>23006.27</v>
       </c>
       <c r="C175" s="5">
-        <v>23616.18</v>
+        <v>23135.12</v>
       </c>
       <c r="D175" s="5">
-        <v>23616.18</v>
+        <v>23405.98</v>
       </c>
       <c r="E175" s="5">
-        <v>22798.34</v>
+        <v>22861.75</v>
       </c>
       <c r="F175" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="G175" s="6">
-        <v>-0.0328</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B176" s="5">
-        <v>23718.29</v>
+        <v>22941.32</v>
       </c>
       <c r="C176" s="5">
-        <v>23783.75</v>
+        <v>23616.18</v>
       </c>
       <c r="D176" s="5">
-        <v>24076.53</v>
+        <v>23616.18</v>
       </c>
       <c r="E176" s="5">
-        <v>23441.74</v>
+        <v>22798.34</v>
       </c>
       <c r="F176" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G176" s="6">
-        <v>-0.0029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B177" s="5">
-        <v>23787.93</v>
+        <v>23718.29</v>
       </c>
       <c r="C177" s="5">
-        <v>23238.34</v>
+        <v>23783.75</v>
       </c>
       <c r="D177" s="5">
-        <v>23973.17</v>
+        <v>24076.53</v>
       </c>
       <c r="E177" s="5">
-        <v>23238.34</v>
+        <v>23441.74</v>
       </c>
       <c r="F177" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G177" s="6">
-        <v>0.0327</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B178" s="5">
-        <v>23034.02</v>
+        <v>23787.93</v>
       </c>
       <c r="C178" s="5">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="D178" s="5">
-        <v>23248.52</v>
+        <v>23973.17</v>
       </c>
       <c r="E178" s="5">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="F178" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G178" s="6">
-        <v>-0.0132</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B179" s="5">
-        <v>23341.61</v>
+        <v>23034.02</v>
       </c>
       <c r="C179" s="5">
-        <v>23472.14</v>
+        <v>22716.48</v>
       </c>
       <c r="D179" s="5">
-        <v>23688.45</v>
+        <v>23248.52</v>
       </c>
       <c r="E179" s="5">
-        <v>23221.57</v>
+        <v>22716.48</v>
       </c>
       <c r="F179" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G179" s="6">
-        <v>-0.0058</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B180" s="5">
-        <v>23477.92</v>
+        <v>23341.61</v>
       </c>
       <c r="C180" s="5">
-        <v>23090.03</v>
+        <v>23472.14</v>
       </c>
       <c r="D180" s="5">
-        <v>23477.92</v>
+        <v>23688.45</v>
       </c>
       <c r="E180" s="5">
-        <v>22901.69</v>
+        <v>23221.57</v>
       </c>
       <c r="F180" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G180" s="6">
-        <v>0.0399</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B181" s="5">
-        <v>22576.98</v>
+        <v>23477.92</v>
       </c>
       <c r="C181" s="5">
-        <v>22716.71</v>
+        <v>23090.03</v>
       </c>
       <c r="D181" s="5">
-        <v>22849.66</v>
+        <v>23477.92</v>
       </c>
       <c r="E181" s="5">
-        <v>22436.13</v>
+        <v>22901.69</v>
       </c>
       <c r="F181" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G181" s="6">
-        <v>-0.016</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>45707</v>
+        <v>45708</v>
       </c>
       <c r="B182" s="5">
-        <v>22944.24</v>
+        <v>22576.98</v>
       </c>
       <c r="C182" s="5">
-        <v>22777.46</v>
+        <v>22716.71</v>
       </c>
       <c r="D182" s="5">
-        <v>22975.34</v>
+        <v>22849.66</v>
       </c>
       <c r="E182" s="5">
-        <v>22649.49</v>
+        <v>22436.13</v>
       </c>
       <c r="F182" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G182" s="6">
-        <v>-0.0014</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B183" s="5">
-        <v>22976.81</v>
+        <v>22944.24</v>
       </c>
       <c r="C183" s="5">
-        <v>22664.73</v>
+        <v>22777.46</v>
       </c>
       <c r="D183" s="5">
-        <v>23141.41</v>
+        <v>22975.34</v>
       </c>
       <c r="E183" s="5">
-        <v>22608.18</v>
+        <v>22649.49</v>
       </c>
       <c r="F183" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G183" s="6">
-        <v>0.0159</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B184" s="5">
-        <v>22616.23</v>
+        <v>22976.81</v>
       </c>
       <c r="C184" s="5">
-        <v>22755.06</v>
+        <v>22664.73</v>
       </c>
       <c r="D184" s="5">
-        <v>22977.25</v>
+        <v>23141.41</v>
       </c>
       <c r="E184" s="5">
-        <v>22319.32</v>
+        <v>22608.18</v>
       </c>
       <c r="F184" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G184" s="6">
-        <v>-0.0002</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B185" s="5">
-        <v>22620.33</v>
+        <v>22616.23</v>
       </c>
       <c r="C185" s="5">
-        <v>22027.07</v>
+        <v>22755.06</v>
       </c>
       <c r="D185" s="5">
-        <v>22620.33</v>
+        <v>22977.25</v>
       </c>
       <c r="E185" s="5">
-        <v>22027.07</v>
+        <v>22319.32</v>
       </c>
       <c r="F185" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G185" s="6">
-        <v>0.0369</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B186" s="5">
-        <v>21814.37</v>
+        <v>22620.33</v>
       </c>
       <c r="C186" s="5">
-        <v>21958.69</v>
+        <v>22027.07</v>
       </c>
       <c r="D186" s="5">
-        <v>22523.57</v>
+        <v>22620.33</v>
       </c>
       <c r="E186" s="5">
-        <v>21735.56</v>
+        <v>22027.07</v>
       </c>
       <c r="F186" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G186" s="6">
-        <v>-0.002</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B187" s="5">
-        <v>21857.92</v>
+        <v>21814.37</v>
       </c>
       <c r="C187" s="5">
-        <v>21526.41</v>
+        <v>21958.69</v>
       </c>
       <c r="D187" s="5">
-        <v>21858.83</v>
+        <v>22523.57</v>
       </c>
       <c r="E187" s="5">
-        <v>21411.09</v>
+        <v>21735.56</v>
       </c>
       <c r="F187" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G187" s="6">
-        <v>0.0264</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B188" s="5">
-        <v>21294.86</v>
+        <v>21857.92</v>
       </c>
       <c r="C188" s="5">
-        <v>21656.82</v>
+        <v>21526.41</v>
       </c>
       <c r="D188" s="5">
-        <v>21682.41</v>
+        <v>21858.83</v>
       </c>
       <c r="E188" s="5">
-        <v>21279.37</v>
+        <v>21411.09</v>
       </c>
       <c r="F188" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G188" s="6">
-        <v>-0.0106</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B189" s="5">
-        <v>21521.98</v>
+        <v>21294.86</v>
       </c>
       <c r="C189" s="5">
-        <v>21223.61</v>
+        <v>21656.82</v>
       </c>
       <c r="D189" s="5">
-        <v>21539.63</v>
+        <v>21682.41</v>
       </c>
       <c r="E189" s="5">
-        <v>21223.61</v>
+        <v>21279.37</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="G189" s="6">
-        <v>0.0184</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B190" s="5">
-        <v>21133.54</v>
+        <v>21521.98</v>
       </c>
       <c r="C190" s="5">
-        <v>20858.52</v>
+        <v>21223.61</v>
       </c>
       <c r="D190" s="5">
-        <v>21213.7</v>
+        <v>21539.63</v>
       </c>
       <c r="E190" s="5">
-        <v>20806.1</v>
+        <v>21223.61</v>
       </c>
       <c r="F190" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="G190" s="6">
-        <v>0.0116</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B191" s="5">
-        <v>20891.62</v>
+        <v>21133.54</v>
       </c>
       <c r="C191" s="5">
-        <v>20598.98</v>
+        <v>20858.52</v>
       </c>
       <c r="D191" s="5">
-        <v>20891.62</v>
+        <v>21213.7</v>
       </c>
       <c r="E191" s="5">
-        <v>20532.06</v>
+        <v>20806.1</v>
       </c>
       <c r="F191" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G191" s="6">
-        <v>0.0143</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B192" s="5">
-        <v>20597.09</v>
+        <v>20891.62</v>
       </c>
       <c r="C192" s="5">
-        <v>20827.77</v>
+        <v>20598.98</v>
       </c>
       <c r="D192" s="5">
-        <v>20827.77</v>
+        <v>20891.62</v>
       </c>
       <c r="E192" s="5">
-        <v>20417.39</v>
+        <v>20532.06</v>
       </c>
       <c r="F192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G192" s="6">
-        <v>-0.0093</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B193" s="5">
-        <v>20789.96</v>
+        <v>20597.09</v>
       </c>
       <c r="C193" s="5">
-        <v>20488.29</v>
+        <v>20827.77</v>
       </c>
       <c r="D193" s="5">
-        <v>20885.49</v>
+        <v>20827.77</v>
       </c>
       <c r="E193" s="5">
-        <v>20297.64</v>
+        <v>20417.39</v>
       </c>
       <c r="F193" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="G193" s="6">
-        <v>0.0283</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B194" s="5">
-        <v>20217.26</v>
+        <v>20789.96</v>
       </c>
       <c r="C194" s="5">
-        <v>20048.87</v>
+        <v>20488.29</v>
       </c>
       <c r="D194" s="5">
-        <v>20222</v>
+        <v>20885.49</v>
       </c>
       <c r="E194" s="5">
-        <v>19764.67</v>
+        <v>20297.64</v>
       </c>
       <c r="F194" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="G194" s="6">
-        <v>-0.0004</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="B195" s="5">
-        <v>20225.11</v>
+        <v>20217.26</v>
       </c>
       <c r="C195" s="5">
-        <v>20337.46</v>
+        <v>20048.87</v>
       </c>
       <c r="D195" s="5">
-        <v>20337.46</v>
+        <v>20222</v>
       </c>
       <c r="E195" s="5">
-        <v>20165.73</v>
+        <v>19764.67</v>
       </c>
       <c r="F195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G195" s="6">
-        <v>0.0014</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B196" s="5">
-        <v>20197.77</v>
+        <v>20225.11</v>
       </c>
       <c r="C196" s="5">
-        <v>20118.02</v>
+        <v>20337.46</v>
       </c>
       <c r="D196" s="5">
-        <v>20296.94</v>
+        <v>20337.46</v>
       </c>
       <c r="E196" s="5">
-        <v>20118.02</v>
+        <v>20165.73</v>
       </c>
       <c r="F196" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G196" s="6">
-        <v>0.0066</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B197" s="5">
-        <v>20066.19</v>
+        <v>20197.77</v>
       </c>
       <c r="C197" s="5">
-        <v>19842.85</v>
+        <v>20118.02</v>
       </c>
       <c r="D197" s="5">
-        <v>20144</v>
+        <v>20296.94</v>
       </c>
       <c r="E197" s="5">
-        <v>19768.13</v>
+        <v>20118.02</v>
       </c>
       <c r="F197" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G197" s="6">
-        <v>0.0186</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B198" s="5">
-        <v>19700.56</v>
+        <v>20066.19</v>
       </c>
       <c r="C198" s="5">
-        <v>19881.32</v>
+        <v>19842.85</v>
       </c>
       <c r="D198" s="5">
-        <v>20044.06</v>
+        <v>20144</v>
       </c>
       <c r="E198" s="5">
-        <v>19644.83</v>
+        <v>19768.13</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G198" s="6">
-        <v>-0.004</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B199" s="5">
-        <v>19778.77</v>
+        <v>19700.56</v>
       </c>
       <c r="C199" s="5">
-        <v>19997.09</v>
+        <v>19881.32</v>
       </c>
       <c r="D199" s="5">
-        <v>20022.34</v>
+        <v>20044.06</v>
       </c>
       <c r="E199" s="5">
-        <v>19733.21</v>
+        <v>19644.83</v>
       </c>
       <c r="F199" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="G199" s="6">
-        <v>-0.0163</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B200" s="5">
-        <v>20106.55</v>
+        <v>19778.77</v>
       </c>
       <c r="C200" s="5">
-        <v>20128.34</v>
+        <v>19997.09</v>
       </c>
       <c r="D200" s="5">
-        <v>20205.25</v>
+        <v>20022.34</v>
       </c>
       <c r="E200" s="5">
-        <v>19920.31</v>
+        <v>19733.21</v>
       </c>
       <c r="F200" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G200" s="6">
-        <v>0.0091</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B201" s="5">
-        <v>19925.81</v>
+        <v>20106.55</v>
       </c>
       <c r="C201" s="5">
-        <v>19804.64</v>
+        <v>20128.34</v>
       </c>
       <c r="D201" s="5">
-        <v>20093.65</v>
+        <v>20205.25</v>
       </c>
       <c r="E201" s="5">
-        <v>19786.73</v>
+        <v>19920.31</v>
       </c>
       <c r="F201" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G201" s="6">
-        <v>0.0175</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B202" s="5">
-        <v>19584.06</v>
+        <v>19925.81</v>
       </c>
       <c r="C202" s="5">
-        <v>19499.1</v>
+        <v>19804.64</v>
       </c>
       <c r="D202" s="5">
-        <v>19640.37</v>
+        <v>20093.65</v>
       </c>
       <c r="E202" s="5">
-        <v>19423.7</v>
+        <v>19786.73</v>
       </c>
       <c r="F202" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G202" s="6">
-        <v>0.0031</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B203" s="5">
-        <v>19522.89</v>
+        <v>19584.06</v>
       </c>
       <c r="C203" s="5">
-        <v>19454.92</v>
+        <v>19499.1</v>
       </c>
       <c r="D203" s="5">
-        <v>19664.39</v>
+        <v>19640.37</v>
       </c>
       <c r="E203" s="5">
-        <v>19345.19</v>
+        <v>19423.7</v>
       </c>
       <c r="F203" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G203" s="6">
-        <v>0.0123</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B204" s="5">
-        <v>19286.07</v>
+        <v>19522.89</v>
       </c>
       <c r="C204" s="5">
-        <v>19149.94</v>
+        <v>19454.92</v>
       </c>
       <c r="D204" s="5">
-        <v>19319.22</v>
+        <v>19664.39</v>
       </c>
       <c r="E204" s="5">
-        <v>19149.94</v>
+        <v>19345.19</v>
       </c>
       <c r="F204" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G204" s="6">
-        <v>0.0034</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B205" s="5">
-        <v>19219.78</v>
+        <v>19286.07</v>
       </c>
       <c r="C205" s="5">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="D205" s="5">
-        <v>19318.36</v>
+        <v>19319.22</v>
       </c>
       <c r="E205" s="5">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="F205" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="G205" s="6">
-        <v>0.0183</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B206" s="5">
-        <v>18874.14</v>
+        <v>19219.78</v>
       </c>
       <c r="C206" s="5">
-        <v>18918.15</v>
+        <v>18901.56</v>
       </c>
       <c r="D206" s="5">
-        <v>18929.12</v>
+        <v>19318.36</v>
       </c>
       <c r="E206" s="5">
-        <v>18671.49</v>
+        <v>18901.56</v>
       </c>
       <c r="F206" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G206" s="6">
-        <v>-0.01</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B207" s="5">
-        <v>19064.29</v>
+        <v>18874.14</v>
       </c>
       <c r="C207" s="5">
-        <v>19328.07</v>
+        <v>18918.15</v>
       </c>
       <c r="D207" s="5">
-        <v>19370.49</v>
+        <v>18929.12</v>
       </c>
       <c r="E207" s="5">
-        <v>19036.64</v>
+        <v>18671.49</v>
       </c>
       <c r="F207" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G207" s="6">
-        <v>-0.0092</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="B208" s="5">
-        <v>19240.89</v>
+        <v>19064.29</v>
       </c>
       <c r="C208" s="5">
-        <v>19254.38</v>
+        <v>19328.07</v>
       </c>
       <c r="D208" s="5">
-        <v>19405.74</v>
+        <v>19370.49</v>
       </c>
       <c r="E208" s="5">
-        <v>19227.73</v>
+        <v>19036.64</v>
       </c>
       <c r="F208" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G208" s="6">
-        <v>-0.002</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="B209" s="5">
-        <v>19279.84</v>
+        <v>19240.89</v>
       </c>
       <c r="C209" s="5">
-        <v>19390.76</v>
+        <v>19254.38</v>
       </c>
       <c r="D209" s="5">
-        <v>19483.59</v>
+        <v>19405.74</v>
       </c>
       <c r="E209" s="5">
-        <v>19111.54</v>
+        <v>19227.73</v>
       </c>
       <c r="F209" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="G209" s="6">
-        <v>-0.0086</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="B210" s="5">
-        <v>19447.58</v>
+        <v>19279.84</v>
       </c>
       <c r="C210" s="5">
-        <v>19501.45</v>
+        <v>19390.76</v>
       </c>
       <c r="D210" s="5">
-        <v>19668.65</v>
+        <v>19483.59</v>
       </c>
       <c r="E210" s="5">
-        <v>19252.61</v>
+        <v>19111.54</v>
       </c>
       <c r="F210" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="G210" s="6">
-        <v>-0.0122</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B211" s="5">
-        <v>19688.29</v>
+        <v>19447.58</v>
       </c>
       <c r="C211" s="5">
-        <v>19848.71</v>
+        <v>19501.45</v>
       </c>
       <c r="D211" s="5">
-        <v>19851.55</v>
+        <v>19668.65</v>
       </c>
       <c r="E211" s="5">
-        <v>19627.84</v>
+        <v>19252.61</v>
       </c>
       <c r="F211" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G211" s="6">
-        <v>-0.0036</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B212" s="5">
-        <v>19760.27</v>
+        <v>19688.29</v>
       </c>
       <c r="C212" s="5">
-        <v>19708.74</v>
+        <v>19848.71</v>
       </c>
       <c r="D212" s="5">
-        <v>19891.86</v>
+        <v>19851.55</v>
       </c>
       <c r="E212" s="5">
-        <v>19634.07</v>
+        <v>19627.84</v>
       </c>
       <c r="F212" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G212" s="6">
-        <v>0.007</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B213" s="5">
+        <v>19760.27</v>
+      </c>
+      <c r="C213" s="5">
+        <v>19708.74</v>
+      </c>
+      <c r="D213" s="5">
+        <v>19891.86</v>
+      </c>
+      <c r="E213" s="5">
+        <v>19634.07</v>
+      </c>
+      <c r="F213" t="s">
+        <v>124</v>
+      </c>
+      <c r="G213" s="6">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
         <v>45659</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B214" s="5">
         <v>19623.32</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C214" s="5">
         <v>19932.8</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D214" s="5">
         <v>19932.8</v>
       </c>
-      <c r="E213" s="5">
+      <c r="E214" s="5">
         <v>19542.98</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F214" t="s">
         <v>157</v>
       </c>
-      <c r="G213" s="6">
+      <c r="G214" s="6">
         <v>-0.0218</v>
       </c>
     </row>

--- a/data/hs_01_11.xlsx
+++ b/data/hs_01_11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12120"/>
+    <workbookView windowWidth="27660" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="hs_01_11" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,9 @@
     <t>涨跌幅</t>
   </si>
   <si>
+    <t>2.81B</t>
+  </si>
+  <si>
     <t>3.29B</t>
   </si>
   <si>
@@ -324,9 +327,6 @@
   </si>
   <si>
     <t>3.46B</t>
-  </si>
-  <si>
-    <t>2.81B</t>
   </si>
   <si>
     <t>2.76B</t>
@@ -1691,10 +1691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1727,4923 +1727,4946 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45973</v>
+        <v>45975</v>
       </c>
       <c r="B2">
-        <v>27073.03</v>
+        <v>26572.46</v>
       </c>
       <c r="C2">
-        <v>26779.41</v>
+        <v>26675.05</v>
       </c>
       <c r="D2">
-        <v>27188.81</v>
+        <v>26881.88</v>
       </c>
       <c r="E2">
-        <v>26733.21</v>
+        <v>26535.42</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0056</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B3">
-        <v>26922.73</v>
+        <v>27073.03</v>
       </c>
       <c r="C3">
-        <v>26754.93</v>
+        <v>26779.41</v>
       </c>
       <c r="D3">
-        <v>27016.4</v>
+        <v>27188.81</v>
       </c>
       <c r="E3">
-        <v>26739.09</v>
+        <v>26733.21</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
-        <v>0.0085</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B4">
-        <v>26696.41</v>
+        <v>26922.73</v>
       </c>
       <c r="C4">
-        <v>26748.09</v>
+        <v>26754.93</v>
       </c>
       <c r="D4">
-        <v>26788.43</v>
+        <v>27016.4</v>
       </c>
       <c r="E4">
-        <v>26511.25</v>
+        <v>26739.09</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0018</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B5">
-        <v>26649.06</v>
+        <v>26696.41</v>
       </c>
       <c r="C5">
-        <v>26319.4</v>
+        <v>26748.09</v>
       </c>
       <c r="D5">
-        <v>26668.89</v>
+        <v>26788.43</v>
       </c>
       <c r="E5">
-        <v>26302.93</v>
+        <v>26511.25</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0155</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B6">
-        <v>26241.83</v>
+        <v>26649.06</v>
       </c>
       <c r="C6">
-        <v>26350.74</v>
+        <v>26319.4</v>
       </c>
       <c r="D6">
-        <v>26371.46</v>
+        <v>26668.89</v>
       </c>
       <c r="E6">
-        <v>26167.23</v>
+        <v>26302.93</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.0092</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>45967</v>
-      </c>
-      <c r="B7" s="3">
-        <v>26465.5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>26026</v>
-      </c>
-      <c r="D7" s="4">
-        <v>26493</v>
-      </c>
-      <c r="E7" s="4">
-        <v>26009</v>
+        <v>45968</v>
+      </c>
+      <c r="B7">
+        <v>26241.83</v>
+      </c>
+      <c r="C7">
+        <v>26350.74</v>
+      </c>
+      <c r="D7">
+        <v>26371.46</v>
+      </c>
+      <c r="E7">
+        <v>26167.23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0204</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B8" s="3">
-        <v>25935.41</v>
+        <v>26465.5</v>
       </c>
       <c r="C8" s="4">
-        <v>25628.39</v>
-      </c>
-      <c r="D8" s="5">
-        <v>25980.9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>25496.13</v>
+        <v>26026</v>
+      </c>
+      <c r="D8" s="4">
+        <v>26493</v>
+      </c>
+      <c r="E8" s="4">
+        <v>26009</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.0007</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>45965</v>
-      </c>
-      <c r="B9" s="6">
-        <v>25952.4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>26147.98</v>
-      </c>
-      <c r="D9" s="6">
-        <v>26291.65</v>
-      </c>
-      <c r="E9" s="6">
-        <v>25911.29</v>
+        <v>45966</v>
+      </c>
+      <c r="B9" s="3">
+        <v>25935.41</v>
+      </c>
+      <c r="C9" s="4">
+        <v>25628.39</v>
+      </c>
+      <c r="D9" s="5">
+        <v>25980.9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25496.13</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.0079</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B10" s="6">
-        <v>26158.36</v>
+        <v>25952.4</v>
       </c>
       <c r="C10" s="6">
-        <v>26020.5</v>
+        <v>26147.98</v>
       </c>
       <c r="D10" s="6">
-        <v>26217.12</v>
+        <v>26291.65</v>
       </c>
       <c r="E10" s="6">
-        <v>25920.27</v>
+        <v>25911.29</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="2">
-        <v>0.0097</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B11" s="6">
-        <v>25906.65</v>
+        <v>26158.36</v>
       </c>
       <c r="C11" s="6">
-        <v>26263.01</v>
+        <v>26020.5</v>
       </c>
       <c r="D11" s="6">
-        <v>26283.96</v>
+        <v>26217.12</v>
       </c>
       <c r="E11" s="6">
-        <v>25906.65</v>
+        <v>25920.27</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.0143</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B12" s="6">
-        <v>26282.69</v>
+        <v>25906.65</v>
       </c>
       <c r="C12" s="6">
-        <v>26545.92</v>
+        <v>26263.01</v>
       </c>
       <c r="D12" s="6">
-        <v>26588.89</v>
+        <v>26283.96</v>
       </c>
       <c r="E12" s="6">
-        <v>26138.79</v>
+        <v>25906.65</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.0024</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B13" s="6">
-        <v>26346.14</v>
+        <v>26282.69</v>
       </c>
       <c r="C13" s="6">
-        <v>26508.75</v>
+        <v>26545.92</v>
       </c>
       <c r="D13" s="6">
-        <v>26519.24</v>
+        <v>26588.89</v>
       </c>
       <c r="E13" s="6">
-        <v>26245.33</v>
+        <v>26138.79</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.0033</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B14" s="6">
-        <v>26433.7</v>
+        <v>26346.14</v>
       </c>
       <c r="C14" s="6">
-        <v>26495.97</v>
+        <v>26508.75</v>
       </c>
       <c r="D14" s="6">
-        <v>26495.97</v>
+        <v>26519.24</v>
       </c>
       <c r="E14" s="6">
-        <v>26319.22</v>
+        <v>26245.33</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2">
-        <v>0.0105</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B15" s="6">
-        <v>26160.15</v>
+        <v>26433.7</v>
       </c>
       <c r="C15" s="6">
-        <v>26177.11</v>
+        <v>26495.97</v>
       </c>
       <c r="D15" s="6">
-        <v>26239.96</v>
+        <v>26495.97</v>
       </c>
       <c r="E15" s="6">
-        <v>26063.99</v>
+        <v>26319.22</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0074</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B16" s="6">
-        <v>25967.98</v>
+        <v>26160.15</v>
       </c>
       <c r="C16" s="6">
-        <v>25718.53</v>
+        <v>26177.11</v>
       </c>
       <c r="D16" s="6">
-        <v>26080.84</v>
+        <v>26239.96</v>
       </c>
       <c r="E16" s="6">
-        <v>25591.66</v>
+        <v>26063.99</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="2">
-        <v>0.0072</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B17" s="6">
-        <v>25781.77</v>
+        <v>25967.98</v>
       </c>
       <c r="C17" s="6">
-        <v>25897.62</v>
+        <v>25718.53</v>
       </c>
       <c r="D17" s="6">
-        <v>25947.88</v>
+        <v>26080.84</v>
       </c>
       <c r="E17" s="6">
-        <v>25653.75</v>
+        <v>25591.66</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.0094</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B18" s="6">
-        <v>26027.55</v>
+        <v>25781.77</v>
       </c>
       <c r="C18" s="6">
-        <v>26160.24</v>
+        <v>25897.62</v>
       </c>
       <c r="D18" s="6">
-        <v>26367.35</v>
+        <v>25947.88</v>
       </c>
       <c r="E18" s="6">
-        <v>26017.72</v>
+        <v>25653.75</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="2">
-        <v>0.0065</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B19" s="6">
-        <v>25858.83</v>
+        <v>26027.55</v>
       </c>
       <c r="C19" s="6">
-        <v>25884.46</v>
+        <v>26160.24</v>
       </c>
       <c r="D19" s="6">
-        <v>25912.77</v>
+        <v>26367.35</v>
       </c>
       <c r="E19" s="6">
-        <v>25710.61</v>
+        <v>26017.72</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="2">
-        <v>0.0242</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B20" s="6">
-        <v>25247.1</v>
+        <v>25858.83</v>
       </c>
       <c r="C20" s="6">
-        <v>25851.94</v>
+        <v>25884.46</v>
       </c>
       <c r="D20" s="6">
-        <v>25859.82</v>
+        <v>25912.77</v>
       </c>
       <c r="E20" s="6">
-        <v>25145.34</v>
+        <v>25710.61</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="2">
-        <v>-0.0248</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B21" s="6">
-        <v>25888.51</v>
+        <v>25247.1</v>
       </c>
       <c r="C21" s="6">
-        <v>25890.01</v>
+        <v>25851.94</v>
       </c>
       <c r="D21" s="6">
-        <v>26062.8</v>
+        <v>25859.82</v>
       </c>
       <c r="E21" s="6">
-        <v>25687.32</v>
+        <v>25145.34</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2">
-        <v>-0.0009</v>
+        <v>-0.0248</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B22" s="6">
-        <v>25910.6</v>
+        <v>25888.51</v>
       </c>
       <c r="C22" s="6">
-        <v>25714.89</v>
+        <v>25890.01</v>
       </c>
       <c r="D22" s="6">
-        <v>25982.21</v>
+        <v>26062.8</v>
       </c>
       <c r="E22" s="6">
-        <v>25593.45</v>
+        <v>25687.32</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2">
-        <v>0.0184</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B23" s="6">
-        <v>25441.35</v>
+        <v>25910.6</v>
       </c>
       <c r="C23" s="6">
-        <v>25969.21</v>
+        <v>25714.89</v>
       </c>
       <c r="D23" s="6">
-        <v>26102.68</v>
+        <v>25982.21</v>
       </c>
       <c r="E23" s="6">
-        <v>25331.64</v>
+        <v>25593.45</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="2">
-        <v>-0.0173</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B24" s="6">
-        <v>25889.48</v>
+        <v>25441.35</v>
       </c>
       <c r="C24" s="6">
-        <v>25634</v>
+        <v>25969.21</v>
       </c>
       <c r="D24" s="6">
-        <v>25895.62</v>
+        <v>26102.68</v>
       </c>
       <c r="E24" s="6">
-        <v>25336.09</v>
+        <v>25331.64</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="2">
-        <v>-0.0152</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B25" s="6">
-        <v>26290.32</v>
+        <v>25889.48</v>
       </c>
       <c r="C25" s="6">
-        <v>26523.89</v>
+        <v>25634</v>
       </c>
       <c r="D25" s="6">
-        <v>26558.87</v>
+        <v>25895.62</v>
       </c>
       <c r="E25" s="6">
-        <v>26247.04</v>
+        <v>25336.09</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.0173</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="B26" s="6">
-        <v>26752.59</v>
+        <v>26290.32</v>
       </c>
       <c r="C26" s="6">
-        <v>26862.03</v>
+        <v>26523.89</v>
       </c>
       <c r="D26" s="6">
-        <v>26978.41</v>
+        <v>26558.87</v>
       </c>
       <c r="E26" s="6">
-        <v>26480.58</v>
+        <v>26247.04</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G26" s="2">
-        <v>-0.0029</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B27" s="6">
-        <v>26829.46</v>
+        <v>26752.59</v>
       </c>
       <c r="C27" s="6">
-        <v>26900.64</v>
+        <v>26862.03</v>
       </c>
       <c r="D27" s="6">
-        <v>26906.2</v>
+        <v>26978.41</v>
       </c>
       <c r="E27" s="6">
-        <v>26517.45</v>
+        <v>26480.58</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2">
-        <v>-0.0048</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="B28" s="6">
-        <v>26957.77</v>
+        <v>26829.46</v>
       </c>
       <c r="C28" s="6">
-        <v>27003.92</v>
+        <v>26900.64</v>
       </c>
       <c r="D28" s="6">
-        <v>27145.17</v>
+        <v>26906.2</v>
       </c>
       <c r="E28" s="6">
-        <v>26873.34</v>
+        <v>26517.45</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="2">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="B29" s="6">
-        <v>27140.92</v>
+        <v>26957.77</v>
       </c>
       <c r="C29" s="6">
-        <v>27221.46</v>
+        <v>27003.92</v>
       </c>
       <c r="D29" s="6">
-        <v>27262</v>
+        <v>27145.17</v>
       </c>
       <c r="E29" s="6">
-        <v>26972.71</v>
+        <v>26873.34</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="2">
-        <v>-0.0054</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="B30" s="6">
-        <v>27287.12</v>
+        <v>27140.92</v>
       </c>
       <c r="C30" s="6">
-        <v>26918.3</v>
+        <v>27221.46</v>
       </c>
       <c r="D30" s="6">
-        <v>27381.84</v>
+        <v>27262</v>
       </c>
       <c r="E30" s="6">
-        <v>26918.3</v>
+        <v>26972.71</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="2">
-        <v>0.0161</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B31" s="6">
-        <v>26855.56</v>
+        <v>27287.12</v>
       </c>
       <c r="C31" s="6">
-        <v>26674.16</v>
+        <v>26918.3</v>
       </c>
       <c r="D31" s="6">
-        <v>26888.4</v>
+        <v>27381.84</v>
       </c>
       <c r="E31" s="6">
-        <v>26558.28</v>
+        <v>26918.3</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2">
-        <v>0.0087</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B32" s="6">
-        <v>26622.88</v>
+        <v>26855.56</v>
       </c>
       <c r="C32" s="6">
-        <v>26321.57</v>
+        <v>26674.16</v>
       </c>
       <c r="D32" s="6">
-        <v>26687.72</v>
+        <v>26888.4</v>
       </c>
       <c r="E32" s="6">
-        <v>26321.57</v>
+        <v>26558.28</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" s="2">
-        <v>0.0189</v>
+        <v>0.0087</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B33" s="6">
-        <v>26128.2</v>
+        <v>26622.88</v>
       </c>
       <c r="C33" s="6">
-        <v>26272.3</v>
+        <v>26321.57</v>
       </c>
       <c r="D33" s="6">
-        <v>26406.05</v>
+        <v>26687.72</v>
       </c>
       <c r="E33" s="6">
-        <v>26072.93</v>
+        <v>26321.57</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2">
-        <v>-0.0135</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B34" s="6">
-        <v>26484.68</v>
+        <v>26128.2</v>
       </c>
       <c r="C34" s="6">
-        <v>26536.13</v>
+        <v>26272.3</v>
       </c>
       <c r="D34" s="6">
-        <v>26640.53</v>
+        <v>26406.05</v>
       </c>
       <c r="E34" s="6">
-        <v>26403.52</v>
+        <v>26072.93</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2">
-        <v>-0.0013</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B35" s="6">
-        <v>26518.65</v>
+        <v>26484.68</v>
       </c>
       <c r="C35" s="6">
-        <v>26073.69</v>
+        <v>26536.13</v>
       </c>
       <c r="D35" s="6">
-        <v>26562.88</v>
+        <v>26640.53</v>
       </c>
       <c r="E35" s="6">
-        <v>26057.26</v>
+        <v>26403.52</v>
       </c>
       <c r="F35" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="2">
-        <v>0.0137</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B36" s="6">
-        <v>26159.12</v>
+        <v>26518.65</v>
       </c>
       <c r="C36" s="6">
-        <v>26435.58</v>
+        <v>26073.69</v>
       </c>
       <c r="D36" s="6">
-        <v>26454.09</v>
+        <v>26562.88</v>
       </c>
       <c r="E36" s="6">
-        <v>26003.67</v>
+        <v>26057.26</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G36" s="2">
-        <v>-0.007</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B37" s="6">
-        <v>26344.14</v>
+        <v>26159.12</v>
       </c>
       <c r="C37" s="6">
-        <v>26459.52</v>
+        <v>26435.58</v>
       </c>
       <c r="D37" s="6">
-        <v>26479.14</v>
+        <v>26454.09</v>
       </c>
       <c r="E37" s="6">
-        <v>26204.01</v>
+        <v>26003.67</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G37" s="2">
-        <v>-0.0076</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B38" s="6">
-        <v>26545.1</v>
+        <v>26344.14</v>
       </c>
       <c r="C38" s="6">
-        <v>26583.03</v>
+        <v>26459.52</v>
       </c>
       <c r="D38" s="6">
-        <v>26637.64</v>
+        <v>26479.14</v>
       </c>
       <c r="E38" s="6">
-        <v>26414.11</v>
+        <v>26204.01</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B39" s="6">
-        <v>26544.85</v>
+        <v>26545.1</v>
       </c>
       <c r="C39" s="6">
-        <v>26863.69</v>
+        <v>26583.03</v>
       </c>
       <c r="D39" s="6">
-        <v>27058.03</v>
+        <v>26637.64</v>
       </c>
       <c r="E39" s="6">
-        <v>26322.08</v>
+        <v>26414.11</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="2">
-        <v>-0.0135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B40" s="6">
-        <v>26908.39</v>
+        <v>26544.85</v>
       </c>
       <c r="C40" s="6">
-        <v>26554.19</v>
+        <v>26863.69</v>
       </c>
       <c r="D40" s="6">
-        <v>26936.5</v>
+        <v>27058.03</v>
       </c>
       <c r="E40" s="6">
-        <v>26540.57</v>
+        <v>26322.08</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" s="2">
-        <v>0.0178</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B41" s="6">
-        <v>26438.51</v>
+        <v>26908.39</v>
       </c>
       <c r="C41" s="6">
-        <v>26536.63</v>
+        <v>26554.19</v>
       </c>
       <c r="D41" s="6">
-        <v>26601.59</v>
+        <v>26936.5</v>
       </c>
       <c r="E41" s="6">
-        <v>26332.21</v>
+        <v>26540.57</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="2">
-        <v>-0.0003</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B42" s="6">
-        <v>26446.56</v>
+        <v>26438.51</v>
       </c>
       <c r="C42" s="6">
-        <v>26308.91</v>
+        <v>26536.63</v>
       </c>
       <c r="D42" s="6">
-        <v>26532.75</v>
+        <v>26601.59</v>
       </c>
       <c r="E42" s="6">
-        <v>26280.23</v>
+        <v>26332.21</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G42" s="2">
-        <v>0.0022</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B43" s="6">
-        <v>26388.16</v>
+        <v>26446.56</v>
       </c>
       <c r="C43" s="6">
-        <v>26539.44</v>
+        <v>26308.91</v>
       </c>
       <c r="D43" s="6">
-        <v>26585.95</v>
+        <v>26532.75</v>
       </c>
       <c r="E43" s="6">
-        <v>26329.66</v>
+        <v>26280.23</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2">
-        <v>0.0116</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B44" s="6">
-        <v>26086.32</v>
+        <v>26388.16</v>
       </c>
       <c r="C44" s="6">
-        <v>25987.49</v>
+        <v>26539.44</v>
       </c>
       <c r="D44" s="6">
-        <v>26241.46</v>
+        <v>26585.95</v>
       </c>
       <c r="E44" s="6">
-        <v>25878.97</v>
+        <v>26329.66</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
       </c>
       <c r="G44" s="2">
-        <v>-0.0043</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B45" s="6">
-        <v>26200.26</v>
+        <v>26086.32</v>
       </c>
       <c r="C45" s="6">
-        <v>26042.41</v>
+        <v>25987.49</v>
       </c>
       <c r="D45" s="6">
-        <v>26296.6</v>
+        <v>26241.46</v>
       </c>
       <c r="E45" s="6">
-        <v>26017.5</v>
+        <v>25878.97</v>
       </c>
       <c r="F45" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="2">
-        <v>0.0101</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B46" s="6">
-        <v>25938.13</v>
+        <v>26200.26</v>
       </c>
       <c r="C46" s="6">
-        <v>25711.07</v>
+        <v>26042.41</v>
       </c>
       <c r="D46" s="6">
-        <v>26027.94</v>
+        <v>26296.6</v>
       </c>
       <c r="E46" s="6">
-        <v>25675.28</v>
+        <v>26017.5</v>
       </c>
       <c r="F46" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="2">
-        <v>0.0119</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B47" s="6">
-        <v>25633.91</v>
+        <v>25938.13</v>
       </c>
       <c r="C47" s="6">
-        <v>25440.01</v>
+        <v>25711.07</v>
       </c>
       <c r="D47" s="6">
-        <v>25664.01</v>
+        <v>26027.94</v>
       </c>
       <c r="E47" s="6">
-        <v>25387.81</v>
+        <v>25675.28</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
       </c>
       <c r="G47" s="2">
-        <v>0.0085</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B48" s="6">
-        <v>25417.98</v>
+        <v>25633.91</v>
       </c>
       <c r="C48" s="6">
-        <v>25136.24</v>
+        <v>25440.01</v>
       </c>
       <c r="D48" s="6">
-        <v>25471.8</v>
+        <v>25664.01</v>
       </c>
       <c r="E48" s="6">
-        <v>25090.65</v>
+        <v>25387.81</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
       </c>
       <c r="G48" s="2">
-        <v>0.0143</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B49" s="6">
-        <v>25058.51</v>
+        <v>25417.98</v>
       </c>
       <c r="C49" s="6">
-        <v>25489.13</v>
+        <v>25136.24</v>
       </c>
       <c r="D49" s="6">
-        <v>25494.45</v>
+        <v>25471.8</v>
       </c>
       <c r="E49" s="6">
-        <v>25013.26</v>
+        <v>25090.65</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G49" s="2">
-        <v>-0.0112</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B50" s="6">
-        <v>25343.43</v>
+        <v>25058.51</v>
       </c>
       <c r="C50" s="6">
-        <v>25660.65</v>
+        <v>25489.13</v>
       </c>
       <c r="D50" s="6">
-        <v>25789.99</v>
+        <v>25494.45</v>
       </c>
       <c r="E50" s="6">
-        <v>25276.87</v>
+        <v>25013.26</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G50" s="2">
-        <v>-0.006</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B51" s="6">
-        <v>25496.55</v>
+        <v>25343.43</v>
       </c>
       <c r="C51" s="6">
-        <v>25587.97</v>
+        <v>25660.65</v>
       </c>
       <c r="D51" s="6">
-        <v>25724.73</v>
+        <v>25789.99</v>
       </c>
       <c r="E51" s="6">
-        <v>25416.61</v>
+        <v>25276.87</v>
       </c>
       <c r="F51" t="s">
         <v>48</v>
       </c>
       <c r="G51" s="2">
-        <v>-0.0047</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B52" s="6">
-        <v>25617.42</v>
+        <v>25496.55</v>
       </c>
       <c r="C52" s="6">
-        <v>25508.21</v>
+        <v>25587.97</v>
       </c>
       <c r="D52" s="6">
-        <v>25638.34</v>
+        <v>25724.73</v>
       </c>
       <c r="E52" s="6">
-        <v>25471.35</v>
+        <v>25416.61</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G52" s="2">
-        <v>0.0215</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B53" s="6">
-        <v>25077.62</v>
+        <v>25617.42</v>
       </c>
       <c r="C53" s="6">
-        <v>25095.45</v>
+        <v>25508.21</v>
       </c>
       <c r="D53" s="6">
-        <v>25277.51</v>
+        <v>25638.34</v>
       </c>
       <c r="E53" s="6">
-        <v>25066.85</v>
+        <v>25471.35</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2">
-        <v>0.0032</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B54" s="6">
-        <v>24998.82</v>
+        <v>25077.62</v>
       </c>
       <c r="C54" s="6">
-        <v>25030.54</v>
+        <v>25095.45</v>
       </c>
       <c r="D54" s="6">
-        <v>25093.65</v>
+        <v>25277.51</v>
       </c>
       <c r="E54" s="6">
-        <v>24808.78</v>
+        <v>25066.85</v>
       </c>
       <c r="F54" t="s">
         <v>50</v>
       </c>
       <c r="G54" s="2">
-        <v>-0.0081</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B55" s="6">
-        <v>25201.76</v>
+        <v>24998.82</v>
       </c>
       <c r="C55" s="6">
-        <v>25626.17</v>
+        <v>25030.54</v>
       </c>
       <c r="D55" s="6">
-        <v>25653.92</v>
+        <v>25093.65</v>
       </c>
       <c r="E55" s="6">
-        <v>25140.17</v>
+        <v>24808.78</v>
       </c>
       <c r="F55" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="2">
-        <v>-0.0127</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B56" s="6">
-        <v>25524.92</v>
+        <v>25201.76</v>
       </c>
       <c r="C56" s="6">
-        <v>25714.91</v>
+        <v>25626.17</v>
       </c>
       <c r="D56" s="6">
-        <v>25819.7</v>
+        <v>25653.92</v>
       </c>
       <c r="E56" s="6">
-        <v>25524.92</v>
+        <v>25140.17</v>
       </c>
       <c r="F56" t="s">
         <v>52</v>
       </c>
       <c r="G56" s="2">
-        <v>-0.0118</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B57" s="6">
-        <v>25829.91</v>
+        <v>25524.92</v>
       </c>
       <c r="C57" s="6">
-        <v>25606.88</v>
+        <v>25714.91</v>
       </c>
       <c r="D57" s="6">
-        <v>25918.86</v>
+        <v>25819.7</v>
       </c>
       <c r="E57" s="6">
-        <v>25590.62</v>
+        <v>25524.92</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="2">
-        <v>0.0194</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B58" s="6">
-        <v>25339.14</v>
+        <v>25829.91</v>
       </c>
       <c r="C58" s="6">
-        <v>25205.04</v>
+        <v>25606.88</v>
       </c>
       <c r="D58" s="6">
-        <v>25349.08</v>
+        <v>25918.86</v>
       </c>
       <c r="E58" s="6">
-        <v>25140.08</v>
+        <v>25590.62</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
       </c>
       <c r="G58" s="2">
-        <v>0.0093</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B59" s="6">
-        <v>25104.61</v>
+        <v>25339.14</v>
       </c>
       <c r="C59" s="6">
-        <v>25216.42</v>
+        <v>25205.04</v>
       </c>
       <c r="D59" s="6">
-        <v>25216.42</v>
+        <v>25349.08</v>
       </c>
       <c r="E59" s="6">
-        <v>25000.85</v>
+        <v>25140.08</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G59" s="2">
-        <v>-0.0024</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B60" s="6">
-        <v>25165.94</v>
+        <v>25104.61</v>
       </c>
       <c r="C60" s="6">
-        <v>24968.57</v>
+        <v>25216.42</v>
       </c>
       <c r="D60" s="6">
-        <v>25210.9</v>
+        <v>25216.42</v>
       </c>
       <c r="E60" s="6">
-        <v>24887.93</v>
+        <v>25000.85</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2">
-        <v>0.0017</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B61" s="6">
-        <v>25122.9</v>
+        <v>25165.94</v>
       </c>
       <c r="C61" s="6">
-        <v>25241.29</v>
+        <v>24968.57</v>
       </c>
       <c r="D61" s="6">
-        <v>25260.58</v>
+        <v>25210.9</v>
       </c>
       <c r="E61" s="6">
-        <v>25083.2</v>
+        <v>24887.93</v>
       </c>
       <c r="F61" t="s">
         <v>56</v>
       </c>
       <c r="G61" s="2">
-        <v>-0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B62" s="6">
-        <v>25176.85</v>
+        <v>25122.9</v>
       </c>
       <c r="C62" s="6">
-        <v>25293.34</v>
+        <v>25241.29</v>
       </c>
       <c r="D62" s="6">
-        <v>25466.1</v>
+        <v>25260.58</v>
       </c>
       <c r="E62" s="6">
-        <v>25176.85</v>
+        <v>25083.2</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
       </c>
       <c r="G62" s="2">
-        <v>-0.0037</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="B63" s="6">
-        <v>25270.07</v>
+        <v>25176.85</v>
       </c>
       <c r="C63" s="6">
-        <v>25322.1</v>
+        <v>25293.34</v>
       </c>
       <c r="D63" s="6">
-        <v>25356.54</v>
+        <v>25466.1</v>
       </c>
       <c r="E63" s="6">
-        <v>25167.81</v>
+        <v>25176.85</v>
       </c>
       <c r="F63" t="s">
         <v>58</v>
       </c>
       <c r="G63" s="2">
-        <v>-0.0098</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="B64" s="6">
-        <v>25519.32</v>
+        <v>25270.07</v>
       </c>
       <c r="C64" s="6">
-        <v>25766.62</v>
+        <v>25322.1</v>
       </c>
       <c r="D64" s="6">
-        <v>25766.62</v>
+        <v>25356.54</v>
       </c>
       <c r="E64" s="6">
-        <v>25449.8</v>
+        <v>25167.81</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G64" s="2">
-        <v>-0.0037</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B65" s="6">
-        <v>25613.67</v>
+        <v>25519.32</v>
       </c>
       <c r="C65" s="6">
-        <v>25176.52</v>
+        <v>25766.62</v>
       </c>
       <c r="D65" s="6">
-        <v>25613.67</v>
+        <v>25766.62</v>
       </c>
       <c r="E65" s="6">
-        <v>25176.52</v>
+        <v>25449.8</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G65" s="2">
-        <v>0.0258</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B66" s="6">
-        <v>24969.68</v>
+        <v>25613.67</v>
       </c>
       <c r="C66" s="6">
-        <v>24824.07</v>
+        <v>25176.52</v>
       </c>
       <c r="D66" s="6">
-        <v>25016.29</v>
+        <v>25613.67</v>
       </c>
       <c r="E66" s="6">
-        <v>24801.13</v>
+        <v>25176.52</v>
       </c>
       <c r="F66" t="s">
         <v>60</v>
       </c>
       <c r="G66" s="2">
-        <v>0.0025</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B67" s="6">
-        <v>24906.81</v>
+        <v>24969.68</v>
       </c>
       <c r="C67" s="6">
-        <v>24946.55</v>
+        <v>24824.07</v>
       </c>
       <c r="D67" s="6">
-        <v>24969.3</v>
+        <v>25016.29</v>
       </c>
       <c r="E67" s="6">
-        <v>24775.73</v>
+        <v>24801.13</v>
       </c>
       <c r="F67" t="s">
         <v>61</v>
       </c>
       <c r="G67" s="2">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B68" s="6">
-        <v>24858.82</v>
+        <v>24906.81</v>
       </c>
       <c r="C68" s="6">
-        <v>24968.31</v>
+        <v>24946.55</v>
       </c>
       <c r="D68" s="6">
-        <v>24999.11</v>
+        <v>24969.3</v>
       </c>
       <c r="E68" s="6">
-        <v>24812.12</v>
+        <v>24775.73</v>
       </c>
       <c r="F68" t="s">
         <v>62</v>
       </c>
       <c r="G68" s="2">
-        <v>-0.0089</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B69" s="6">
-        <v>25081.63</v>
+        <v>24858.82</v>
       </c>
       <c r="C69" s="6">
-        <v>24982.5</v>
+        <v>24968.31</v>
       </c>
       <c r="D69" s="6">
-        <v>25115.16</v>
+        <v>24999.11</v>
       </c>
       <c r="E69" s="6">
-        <v>24820.6</v>
+        <v>24812.12</v>
       </c>
       <c r="F69" t="s">
         <v>63</v>
       </c>
       <c r="G69" s="2">
-        <v>0.0069</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B70" s="6">
-        <v>24910.63</v>
+        <v>25081.63</v>
       </c>
       <c r="C70" s="6">
-        <v>24864.15</v>
+        <v>24982.5</v>
       </c>
       <c r="D70" s="6">
-        <v>25002.97</v>
+        <v>25115.16</v>
       </c>
       <c r="E70" s="6">
-        <v>24806.46</v>
+        <v>24820.6</v>
       </c>
       <c r="F70" t="s">
         <v>64</v>
       </c>
       <c r="G70" s="2">
-        <v>0.0003</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B71" s="6">
-        <v>24902.53</v>
+        <v>24910.63</v>
       </c>
       <c r="C71" s="6">
-        <v>24746.81</v>
+        <v>24864.15</v>
       </c>
       <c r="D71" s="6">
-        <v>24925.9</v>
+        <v>25002.97</v>
       </c>
       <c r="E71" s="6">
-        <v>24686.85</v>
+        <v>24806.46</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G71" s="2">
-        <v>0.0068</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B72" s="6">
-        <v>24733.45</v>
+        <v>24902.53</v>
       </c>
       <c r="C72" s="6">
-        <v>24431.88</v>
+        <v>24746.81</v>
       </c>
       <c r="D72" s="6">
-        <v>24748.76</v>
+        <v>24925.9</v>
       </c>
       <c r="E72" s="6">
-        <v>24372.51</v>
+        <v>24686.85</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G72" s="2">
-        <v>0.0092</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B73" s="6">
-        <v>24507.81</v>
+        <v>24733.45</v>
       </c>
       <c r="C73" s="6">
-        <v>24744.34</v>
+        <v>24431.88</v>
       </c>
       <c r="D73" s="6">
-        <v>24856.54</v>
+        <v>24748.76</v>
       </c>
       <c r="E73" s="6">
-        <v>24507.63</v>
+        <v>24372.51</v>
       </c>
       <c r="F73" t="s">
         <v>66</v>
       </c>
       <c r="G73" s="2">
-        <v>-0.0107</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B74" s="6">
-        <v>24773.33</v>
+        <v>24507.81</v>
       </c>
       <c r="C74" s="6">
-        <v>24982.87</v>
+        <v>24744.34</v>
       </c>
       <c r="D74" s="6">
-        <v>25000.06</v>
+        <v>24856.54</v>
       </c>
       <c r="E74" s="6">
-        <v>24744.92</v>
+        <v>24507.63</v>
       </c>
       <c r="F74" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="2">
-        <v>-0.016</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B75" s="6">
-        <v>25176.93</v>
+        <v>24773.33</v>
       </c>
       <c r="C75" s="6">
-        <v>25335.21</v>
+        <v>24982.87</v>
       </c>
       <c r="D75" s="6">
-        <v>25499.57</v>
+        <v>25000.06</v>
       </c>
       <c r="E75" s="6">
-        <v>25082.2</v>
+        <v>24744.92</v>
       </c>
       <c r="F75" t="s">
         <v>68</v>
       </c>
       <c r="G75" s="2">
-        <v>-0.0136</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B76" s="6">
-        <v>25524.45</v>
+        <v>25176.93</v>
       </c>
       <c r="C76" s="6">
-        <v>25454.83</v>
+        <v>25335.21</v>
       </c>
       <c r="D76" s="6">
-        <v>25530.42</v>
+        <v>25499.57</v>
       </c>
       <c r="E76" s="6">
-        <v>25252.32</v>
+        <v>25082.2</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G76" s="2">
-        <v>-0.0015</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B77" s="6">
-        <v>25562.13</v>
+        <v>25524.45</v>
       </c>
       <c r="C77" s="6">
-        <v>25458.87</v>
+        <v>25454.83</v>
       </c>
       <c r="D77" s="6">
-        <v>25667.4</v>
+        <v>25530.42</v>
       </c>
       <c r="E77" s="6">
-        <v>25399.36</v>
+        <v>25252.32</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G77" s="2">
-        <v>0.0068</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B78" s="6">
-        <v>25388.35</v>
+        <v>25562.13</v>
       </c>
       <c r="C78" s="6">
-        <v>25531.59</v>
+        <v>25458.87</v>
       </c>
       <c r="D78" s="6">
-        <v>25585.73</v>
+        <v>25667.4</v>
       </c>
       <c r="E78" s="6">
-        <v>25355.31</v>
+        <v>25399.36</v>
       </c>
       <c r="F78" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G78" s="2">
-        <v>-0.0109</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B79" s="6">
-        <v>25667.18</v>
+        <v>25388.35</v>
       </c>
       <c r="C79" s="6">
-        <v>25528.22</v>
+        <v>25531.59</v>
       </c>
       <c r="D79" s="6">
-        <v>25735.89</v>
+        <v>25585.73</v>
       </c>
       <c r="E79" s="6">
-        <v>25502.49</v>
+        <v>25355.31</v>
       </c>
       <c r="F79" t="s">
         <v>70</v>
       </c>
       <c r="G79" s="2">
-        <v>0.0051</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B80" s="6">
-        <v>25538.07</v>
+        <v>25667.18</v>
       </c>
       <c r="C80" s="6">
-        <v>25348.3</v>
+        <v>25528.22</v>
       </c>
       <c r="D80" s="6">
-        <v>25538.07</v>
+        <v>25735.89</v>
       </c>
       <c r="E80" s="6">
-        <v>25228.01</v>
+        <v>25502.49</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G80" s="2">
-        <v>0.0162</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B81" s="6">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="C81" s="6">
-        <v>25024.93</v>
+        <v>25348.3</v>
       </c>
       <c r="D81" s="6">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="E81" s="6">
-        <v>24900.59</v>
+        <v>25228.01</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G81" s="2">
-        <v>0.0054</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B82" s="6">
-        <v>24994.14</v>
+        <v>25130.03</v>
       </c>
       <c r="C82" s="6">
-        <v>24991.14</v>
+        <v>25024.93</v>
       </c>
       <c r="D82" s="6">
-        <v>25010.9</v>
+        <v>25130.03</v>
       </c>
       <c r="E82" s="6">
-        <v>24844.8</v>
+        <v>24900.59</v>
       </c>
       <c r="F82" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G82" s="2">
-        <v>0.0068</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B83" s="6">
-        <v>24825.66</v>
+        <v>24994.14</v>
       </c>
       <c r="C83" s="6">
-        <v>24757.83</v>
+        <v>24991.14</v>
       </c>
       <c r="D83" s="6">
-        <v>24825.66</v>
+        <v>25010.9</v>
       </c>
       <c r="E83" s="6">
-        <v>24630.79</v>
+        <v>24844.8</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G83" s="2">
-        <v>0.0133</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B84" s="6">
-        <v>24498.95</v>
+        <v>24825.66</v>
       </c>
       <c r="C84" s="6">
-        <v>24547.08</v>
+        <v>24757.83</v>
       </c>
       <c r="D84" s="6">
-        <v>24672.51</v>
+        <v>24825.66</v>
       </c>
       <c r="E84" s="6">
-        <v>24447.93</v>
+        <v>24630.79</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G84" s="2">
-        <v>-0.0008</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B85" s="6">
-        <v>24517.76</v>
+        <v>24498.95</v>
       </c>
       <c r="C85" s="6">
-        <v>24704.05</v>
+        <v>24547.08</v>
       </c>
       <c r="D85" s="6">
-        <v>24867.81</v>
+        <v>24672.51</v>
       </c>
       <c r="E85" s="6">
-        <v>24517.75</v>
+        <v>24447.93</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G85" s="2">
-        <v>-0.0029</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B86" s="6">
-        <v>24590.12</v>
+        <v>24517.76</v>
       </c>
       <c r="C86" s="6">
-        <v>24281.94</v>
+        <v>24704.05</v>
       </c>
       <c r="D86" s="6">
-        <v>24590.12</v>
+        <v>24867.81</v>
       </c>
       <c r="E86" s="6">
-        <v>24141.88</v>
+        <v>24517.75</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2">
-        <v>0.016</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B87" s="6">
-        <v>24203.32</v>
+        <v>24590.12</v>
       </c>
       <c r="C87" s="6">
-        <v>24100.57</v>
+        <v>24281.94</v>
       </c>
       <c r="D87" s="6">
-        <v>24267.84</v>
+        <v>24590.12</v>
       </c>
       <c r="E87" s="6">
-        <v>24097.32</v>
+        <v>24141.88</v>
       </c>
       <c r="F87" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G87" s="2">
-        <v>0.0026</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B88" s="6">
-        <v>24139.57</v>
+        <v>24203.32</v>
       </c>
       <c r="C88" s="6">
-        <v>24033.12</v>
+        <v>24100.57</v>
       </c>
       <c r="D88" s="6">
-        <v>24506.3</v>
+        <v>24267.84</v>
       </c>
       <c r="E88" s="6">
-        <v>24033.12</v>
+        <v>24097.32</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G88" s="2">
-        <v>0.0046</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B89" s="6">
-        <v>24028.37</v>
+        <v>24139.57</v>
       </c>
       <c r="C89" s="6">
-        <v>23865.64</v>
+        <v>24033.12</v>
       </c>
       <c r="D89" s="6">
-        <v>24087.59</v>
+        <v>24506.3</v>
       </c>
       <c r="E89" s="6">
-        <v>23820.58</v>
+        <v>24033.12</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G89" s="2">
-        <v>0.0057</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B90" s="6">
-        <v>23892.32</v>
+        <v>24028.37</v>
       </c>
       <c r="C90" s="6">
-        <v>24061.08</v>
+        <v>23865.64</v>
       </c>
       <c r="D90" s="6">
-        <v>24061.08</v>
+        <v>24087.59</v>
       </c>
       <c r="E90" s="6">
-        <v>23827.15</v>
+        <v>23820.58</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G90" s="2">
-        <v>-0.0106</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B91" s="6">
-        <v>24148.07</v>
+        <v>23892.32</v>
       </c>
       <c r="C91" s="6">
-        <v>23927.53</v>
+        <v>24061.08</v>
       </c>
       <c r="D91" s="6">
-        <v>24159.01</v>
+        <v>24061.08</v>
       </c>
       <c r="E91" s="6">
-        <v>23899.6</v>
+        <v>23827.15</v>
       </c>
       <c r="F91" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G91" s="2">
-        <v>0.0109</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B92" s="6">
-        <v>23887.83</v>
+        <v>24148.07</v>
       </c>
       <c r="C92" s="6">
-        <v>23828.85</v>
+        <v>23927.53</v>
       </c>
       <c r="D92" s="6">
-        <v>23910.95</v>
+        <v>24159.01</v>
       </c>
       <c r="E92" s="6">
-        <v>23713.78</v>
+        <v>23899.6</v>
       </c>
       <c r="F92" t="s">
         <v>75</v>
       </c>
       <c r="G92" s="2">
-        <v>-0.0012</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B93" s="6">
-        <v>23916.06</v>
+        <v>23887.83</v>
       </c>
       <c r="C93" s="6">
-        <v>23900.69</v>
+        <v>23828.85</v>
       </c>
       <c r="D93" s="6">
-        <v>24068.51</v>
+        <v>23910.95</v>
       </c>
       <c r="E93" s="6">
-        <v>23690.94</v>
+        <v>23713.78</v>
       </c>
       <c r="F93" t="s">
         <v>76</v>
       </c>
       <c r="G93" s="2">
-        <v>-0.0064</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B94" s="6">
-        <v>24069.94</v>
+        <v>23916.06</v>
       </c>
       <c r="C94" s="6">
-        <v>24234.28</v>
+        <v>23900.69</v>
       </c>
       <c r="D94" s="6">
-        <v>24269.14</v>
+        <v>24068.51</v>
       </c>
       <c r="E94" s="6">
-        <v>23920</v>
+        <v>23690.94</v>
       </c>
       <c r="F94" t="s">
         <v>77</v>
       </c>
       <c r="G94" s="2">
-        <v>-0.0063</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B95" s="6">
-        <v>24221.41</v>
+        <v>24069.94</v>
       </c>
       <c r="C95" s="6">
-        <v>24304.31</v>
+        <v>24234.28</v>
       </c>
       <c r="D95" s="6">
-        <v>24372.7</v>
+        <v>24269.14</v>
       </c>
       <c r="E95" s="6">
-        <v>24122.57</v>
+        <v>23920</v>
       </c>
       <c r="F95" t="s">
         <v>78</v>
       </c>
       <c r="G95" s="2">
-        <v>0.0062</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B96" s="6">
-        <v>24072.28</v>
+        <v>24221.41</v>
       </c>
       <c r="C96" s="6">
-        <v>24274.91</v>
+        <v>24304.31</v>
       </c>
       <c r="D96" s="6">
-        <v>24274.91</v>
+        <v>24372.7</v>
       </c>
       <c r="E96" s="6">
-        <v>24064.26</v>
+        <v>24122.57</v>
       </c>
       <c r="F96" t="s">
         <v>79</v>
       </c>
       <c r="G96" s="2">
-        <v>-0.0087</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B97" s="6">
-        <v>24284.15</v>
+        <v>24072.28</v>
       </c>
       <c r="C97" s="6">
-        <v>24451.19</v>
+        <v>24274.91</v>
       </c>
       <c r="D97" s="6">
-        <v>24471.53</v>
+        <v>24274.91</v>
       </c>
       <c r="E97" s="6">
-        <v>24194.85</v>
+        <v>24064.26</v>
       </c>
       <c r="F97" t="s">
         <v>80</v>
       </c>
       <c r="G97" s="2">
-        <v>-0.0017</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B98" s="6">
-        <v>24325.4</v>
+        <v>24284.15</v>
       </c>
       <c r="C98" s="6">
-        <v>24345.29</v>
+        <v>24451.19</v>
       </c>
       <c r="D98" s="6">
-        <v>24411.48</v>
+        <v>24471.53</v>
       </c>
       <c r="E98" s="6">
-        <v>24235.54</v>
+        <v>24194.85</v>
       </c>
       <c r="F98" t="s">
         <v>81</v>
       </c>
       <c r="G98" s="2">
-        <v>-0.0061</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B99" s="6">
-        <v>24474.67</v>
+        <v>24325.4</v>
       </c>
       <c r="C99" s="6">
-        <v>24327.82</v>
+        <v>24345.29</v>
       </c>
       <c r="D99" s="6">
-        <v>24533.39</v>
+        <v>24411.48</v>
       </c>
       <c r="E99" s="6">
-        <v>24287.86</v>
+        <v>24235.54</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G99" s="2">
-        <v>0.0123</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B100" s="6">
-        <v>24177.07</v>
+        <v>24474.67</v>
       </c>
       <c r="C100" s="6">
-        <v>23832.73</v>
+        <v>24327.82</v>
       </c>
       <c r="D100" s="6">
-        <v>24229.21</v>
+        <v>24533.39</v>
       </c>
       <c r="E100" s="6">
-        <v>23832.73</v>
+        <v>24287.86</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G100" s="2">
-        <v>0.0206</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B101" s="6">
-        <v>23689.13</v>
+        <v>24177.07</v>
       </c>
       <c r="C101" s="6">
-        <v>23335.51</v>
+        <v>23832.73</v>
       </c>
       <c r="D101" s="6">
-        <v>23689.13</v>
+        <v>24229.21</v>
       </c>
       <c r="E101" s="6">
-        <v>23272.75</v>
+        <v>23832.73</v>
       </c>
       <c r="F101" t="s">
         <v>83</v>
       </c>
       <c r="G101" s="2">
-        <v>0.0067</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B102" s="6">
-        <v>23530.48</v>
+        <v>23689.13</v>
       </c>
       <c r="C102" s="6">
-        <v>23291.4</v>
+        <v>23335.51</v>
       </c>
       <c r="D102" s="6">
-        <v>23538.63</v>
+        <v>23689.13</v>
       </c>
       <c r="E102" s="6">
-        <v>23291.4</v>
+        <v>23272.75</v>
       </c>
       <c r="F102" t="s">
         <v>84</v>
       </c>
       <c r="G102" s="2">
-        <v>0.0126</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B103" s="6">
-        <v>23237.74</v>
+        <v>23530.48</v>
       </c>
       <c r="C103" s="6">
-        <v>23620.02</v>
+        <v>23291.4</v>
       </c>
       <c r="D103" s="6">
-        <v>23653.55</v>
+        <v>23538.63</v>
       </c>
       <c r="E103" s="6">
-        <v>23185.58</v>
+        <v>23291.4</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="G103" s="2">
-        <v>-0.0199</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B104" s="6">
-        <v>23710.69</v>
+        <v>23237.74</v>
       </c>
       <c r="C104" s="6">
-        <v>23859.55</v>
+        <v>23620.02</v>
       </c>
       <c r="D104" s="6">
-        <v>23880.24</v>
+        <v>23653.55</v>
       </c>
       <c r="E104" s="6">
-        <v>23631.48</v>
+        <v>23185.58</v>
       </c>
       <c r="F104" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G104" s="2">
-        <v>-0.0112</v>
+        <v>-0.0199</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B105" s="6">
-        <v>23980.3</v>
+        <v>23710.69</v>
       </c>
       <c r="C105" s="6">
-        <v>24107.34</v>
+        <v>23859.55</v>
       </c>
       <c r="D105" s="6">
-        <v>24131.44</v>
+        <v>23880.24</v>
       </c>
       <c r="E105" s="6">
-        <v>23880.67</v>
+        <v>23631.48</v>
       </c>
       <c r="F105" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G105" s="2">
-        <v>-0.0034</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B106" s="6">
-        <v>24060.99</v>
+        <v>23980.3</v>
       </c>
       <c r="C106" s="6">
-        <v>23791.79</v>
+        <v>24107.34</v>
       </c>
       <c r="D106" s="6">
-        <v>24125.05</v>
+        <v>24131.44</v>
       </c>
       <c r="E106" s="6">
-        <v>23718.72</v>
+        <v>23880.67</v>
       </c>
       <c r="F106" t="s">
         <v>86</v>
       </c>
       <c r="G106" s="2">
-        <v>0.007</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B107" s="6">
-        <v>23892.56</v>
+        <v>24060.99</v>
       </c>
       <c r="C107" s="6">
-        <v>23959.81</v>
+        <v>23791.79</v>
       </c>
       <c r="D107" s="6">
-        <v>24100.32</v>
+        <v>24125.05</v>
       </c>
       <c r="E107" s="6">
-        <v>23774.92</v>
+        <v>23718.72</v>
       </c>
       <c r="F107" t="s">
         <v>87</v>
       </c>
       <c r="G107" s="2">
-        <v>-0.0059</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B108" s="6">
-        <v>24035.38</v>
+        <v>23892.56</v>
       </c>
       <c r="C108" s="6">
-        <v>24223.12</v>
+        <v>23959.81</v>
       </c>
       <c r="D108" s="6">
-        <v>24288.76</v>
+        <v>24100.32</v>
       </c>
       <c r="E108" s="6">
-        <v>24002.42</v>
+        <v>23774.92</v>
       </c>
       <c r="F108" t="s">
         <v>88</v>
       </c>
       <c r="G108" s="2">
-        <v>-0.0136</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B109" s="6">
-        <v>24366.94</v>
+        <v>24035.38</v>
       </c>
       <c r="C109" s="6">
-        <v>24191.32</v>
+        <v>24223.12</v>
       </c>
       <c r="D109" s="6">
-        <v>24439.35</v>
+        <v>24288.76</v>
       </c>
       <c r="E109" s="6">
-        <v>24179.35</v>
+        <v>24002.42</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G109" s="2">
-        <v>0.0084</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B110" s="6">
-        <v>24162.87</v>
+        <v>24366.94</v>
       </c>
       <c r="C110" s="6">
-        <v>24231.31</v>
+        <v>24191.32</v>
       </c>
       <c r="D110" s="6">
-        <v>24296.47</v>
+        <v>24439.35</v>
       </c>
       <c r="E110" s="6">
-        <v>24003.38</v>
+        <v>24179.35</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G110" s="2">
-        <v>-0.0008</v>
+        <v>0.0084</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B111" s="6">
-        <v>24181.43</v>
+        <v>24162.87</v>
       </c>
       <c r="C111" s="6">
-        <v>23977.54</v>
+        <v>24231.31</v>
       </c>
       <c r="D111" s="6">
-        <v>24181.43</v>
+        <v>24296.47</v>
       </c>
       <c r="E111" s="6">
-        <v>23957.96</v>
+        <v>24003.38</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G111" s="2">
-        <v>0.0163</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B112" s="6">
-        <v>23792.54</v>
+        <v>24181.43</v>
       </c>
       <c r="C112" s="6">
-        <v>23941.57</v>
+        <v>23977.54</v>
       </c>
       <c r="D112" s="6">
-        <v>23951.14</v>
+        <v>24181.43</v>
       </c>
       <c r="E112" s="6">
-        <v>23773.36</v>
+        <v>23957.96</v>
       </c>
       <c r="F112" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="G112" s="2">
-        <v>-0.0048</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="B113" s="6">
-        <v>23906.97</v>
+        <v>23792.54</v>
       </c>
       <c r="C113" s="6">
-        <v>23828.69</v>
+        <v>23941.57</v>
       </c>
       <c r="D113" s="6">
-        <v>23911.14</v>
+        <v>23951.14</v>
       </c>
       <c r="E113" s="6">
-        <v>23732.31</v>
+        <v>23773.36</v>
       </c>
       <c r="F113" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="G113" s="2">
-        <v>0.0107</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B114" s="6">
-        <v>23654.03</v>
+        <v>23906.97</v>
       </c>
       <c r="C114" s="6">
-        <v>23499.78</v>
+        <v>23828.69</v>
       </c>
       <c r="D114" s="6">
-        <v>23716.93</v>
+        <v>23911.14</v>
       </c>
       <c r="E114" s="6">
-        <v>23481.46</v>
+        <v>23732.31</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G114" s="2">
-        <v>0.006</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B115" s="6">
-        <v>23512.49</v>
+        <v>23654.03</v>
       </c>
       <c r="C115" s="6">
-        <v>23281.1</v>
+        <v>23499.78</v>
       </c>
       <c r="D115" s="6">
-        <v>23535.37</v>
+        <v>23716.93</v>
       </c>
       <c r="E115" s="6">
-        <v>23281.1</v>
+        <v>23481.46</v>
       </c>
       <c r="F115" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G115" s="2">
-        <v>0.0153</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="B116" s="6">
-        <v>23157.97</v>
+        <v>23512.49</v>
       </c>
       <c r="C116" s="6">
-        <v>23043.1</v>
+        <v>23281.1</v>
       </c>
       <c r="D116" s="6">
-        <v>23163.35</v>
+        <v>23535.37</v>
       </c>
       <c r="E116" s="6">
-        <v>22668.35</v>
+        <v>23281.1</v>
       </c>
       <c r="F116" t="s">
         <v>91</v>
       </c>
       <c r="G116" s="2">
-        <v>-0.0057</v>
+        <v>0.0153</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B117" s="6">
-        <v>23289.77</v>
+        <v>23157.97</v>
       </c>
       <c r="C117" s="6">
-        <v>23339.64</v>
+        <v>23043.1</v>
       </c>
       <c r="D117" s="6">
-        <v>23375.34</v>
+        <v>23163.35</v>
       </c>
       <c r="E117" s="6">
-        <v>23163.22</v>
+        <v>22668.35</v>
       </c>
       <c r="F117" t="s">
         <v>92</v>
       </c>
       <c r="G117" s="2">
-        <v>-0.012</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B118" s="6">
-        <v>23573.38</v>
+        <v>23289.77</v>
       </c>
       <c r="C118" s="6">
-        <v>23240.71</v>
+        <v>23339.64</v>
       </c>
       <c r="D118" s="6">
-        <v>23603.82</v>
+        <v>23375.34</v>
       </c>
       <c r="E118" s="6">
-        <v>23207.37</v>
+        <v>23163.22</v>
       </c>
       <c r="F118" t="s">
         <v>93</v>
       </c>
       <c r="G118" s="2">
-        <v>0.0135</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B119" s="6">
-        <v>23258.31</v>
+        <v>23573.38</v>
       </c>
       <c r="C119" s="6">
-        <v>23385.18</v>
+        <v>23240.71</v>
       </c>
       <c r="D119" s="6">
-        <v>23476.22</v>
+        <v>23603.82</v>
       </c>
       <c r="E119" s="6">
-        <v>23180.17</v>
+        <v>23207.37</v>
       </c>
       <c r="F119" t="s">
         <v>94</v>
       </c>
       <c r="G119" s="2">
-        <v>-0.0053</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B120" s="6">
-        <v>23381.99</v>
+        <v>23258.31</v>
       </c>
       <c r="C120" s="6">
-        <v>23216.87</v>
+        <v>23385.18</v>
       </c>
       <c r="D120" s="6">
-        <v>23419.55</v>
+        <v>23476.22</v>
       </c>
       <c r="E120" s="6">
-        <v>23167.56</v>
+        <v>23180.17</v>
       </c>
       <c r="F120" t="s">
         <v>95</v>
       </c>
       <c r="G120" s="2">
-        <v>0.0043</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="B121" s="6">
-        <v>23282.33</v>
+        <v>23381.99</v>
       </c>
       <c r="C121" s="6">
-        <v>23505.9</v>
+        <v>23216.87</v>
       </c>
       <c r="D121" s="6">
-        <v>23571.02</v>
+        <v>23419.55</v>
       </c>
       <c r="E121" s="6">
-        <v>23234.27</v>
+        <v>23167.56</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="G121" s="2">
-        <v>-0.0135</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B122" s="6">
-        <v>23601.26</v>
+        <v>23282.33</v>
       </c>
       <c r="C122" s="6">
-        <v>23557.38</v>
+        <v>23505.9</v>
       </c>
       <c r="D122" s="6">
-        <v>23749.38</v>
+        <v>23571.02</v>
       </c>
       <c r="E122" s="6">
-        <v>23487.4</v>
+        <v>23234.27</v>
       </c>
       <c r="F122" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G122" s="2">
-        <v>0.0024</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B123" s="6">
-        <v>23544.31</v>
+        <v>23601.26</v>
       </c>
       <c r="C123" s="6">
-        <v>23748.58</v>
+        <v>23557.38</v>
       </c>
       <c r="D123" s="6">
-        <v>23778.24</v>
+        <v>23749.38</v>
       </c>
       <c r="E123" s="6">
-        <v>23470.81</v>
+        <v>23487.4</v>
       </c>
       <c r="F123" t="s">
         <v>97</v>
       </c>
       <c r="G123" s="2">
-        <v>-0.0119</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="B124" s="6">
-        <v>23827.78</v>
+        <v>23544.31</v>
       </c>
       <c r="C124" s="6">
-        <v>23736.43</v>
+        <v>23748.58</v>
       </c>
       <c r="D124" s="6">
-        <v>23917</v>
+        <v>23778.24</v>
       </c>
       <c r="E124" s="6">
-        <v>23697.76</v>
+        <v>23470.81</v>
       </c>
       <c r="F124" t="s">
         <v>98</v>
       </c>
       <c r="G124" s="2">
-        <v>0.0062</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B125" s="6">
-        <v>23681.48</v>
+        <v>23827.78</v>
       </c>
       <c r="C125" s="6">
-        <v>23398.35</v>
+        <v>23736.43</v>
       </c>
       <c r="D125" s="6">
-        <v>23709.04</v>
+        <v>23917</v>
       </c>
       <c r="E125" s="6">
-        <v>23357</v>
+        <v>23697.76</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="G125" s="2">
-        <v>0.0149</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B126" s="6">
-        <v>23332.72</v>
+        <v>23681.48</v>
       </c>
       <c r="C126" s="6">
-        <v>23156.27</v>
+        <v>23398.35</v>
       </c>
       <c r="D126" s="6">
-        <v>23402.2</v>
+        <v>23709.04</v>
       </c>
       <c r="E126" s="6">
-        <v>23059.89</v>
+        <v>23357</v>
       </c>
       <c r="F126" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="G126" s="2">
-        <v>-0.0005</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B127" s="6">
-        <v>23345.05</v>
+        <v>23332.72</v>
       </c>
       <c r="C127" s="6">
-        <v>23249.16</v>
+        <v>23156.27</v>
       </c>
       <c r="D127" s="6">
-        <v>23374.7</v>
+        <v>23402.2</v>
       </c>
       <c r="E127" s="6">
-        <v>23190.31</v>
+        <v>23059.89</v>
       </c>
       <c r="F127" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G127" s="2">
-        <v>-0.0046</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="B128" s="6">
-        <v>23453.16</v>
+        <v>23345.05</v>
       </c>
       <c r="C128" s="6">
-        <v>23644.4</v>
+        <v>23249.16</v>
       </c>
       <c r="D128" s="6">
-        <v>23710.82</v>
+        <v>23374.7</v>
       </c>
       <c r="E128" s="6">
-        <v>23371.73</v>
+        <v>23190.31</v>
       </c>
       <c r="F128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G128" s="2">
-        <v>-0.0079</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B129" s="6">
-        <v>23640.65</v>
+        <v>23453.16</v>
       </c>
       <c r="C129" s="6">
-        <v>23316.45</v>
+        <v>23644.4</v>
       </c>
       <c r="D129" s="6">
-        <v>23640.65</v>
+        <v>23710.82</v>
       </c>
       <c r="E129" s="6">
-        <v>23278.22</v>
+        <v>23371.73</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G129" s="2">
-        <v>0.023</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B130" s="6">
-        <v>23108.27</v>
+        <v>23640.65</v>
       </c>
       <c r="C130" s="6">
-        <v>23494.44</v>
+        <v>23316.45</v>
       </c>
       <c r="D130" s="6">
-        <v>23494.44</v>
+        <v>23640.65</v>
       </c>
       <c r="E130" s="6">
-        <v>23070.48</v>
+        <v>23278.22</v>
       </c>
       <c r="F130" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G130" s="2">
-        <v>-0.0187</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>45789</v>
+        <v>45790</v>
       </c>
       <c r="B131" s="6">
-        <v>23549.46</v>
+        <v>23108.27</v>
       </c>
       <c r="C131" s="6">
-        <v>23183.81</v>
+        <v>23494.44</v>
       </c>
       <c r="D131" s="6">
-        <v>23685.34</v>
+        <v>23494.44</v>
       </c>
       <c r="E131" s="6">
-        <v>22982.91</v>
+        <v>23070.48</v>
       </c>
       <c r="F131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G131" s="2">
-        <v>0.0298</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>45786</v>
+        <v>45789</v>
       </c>
       <c r="B132" s="6">
-        <v>22867.74</v>
+        <v>23549.46</v>
       </c>
       <c r="C132" s="6">
-        <v>22856.21</v>
+        <v>23183.81</v>
       </c>
       <c r="D132" s="6">
-        <v>22907.91</v>
+        <v>23685.34</v>
       </c>
       <c r="E132" s="6">
-        <v>22692.44</v>
+        <v>22982.91</v>
       </c>
       <c r="F132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G132" s="2">
-        <v>0.004</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>45785</v>
+        <v>45786</v>
       </c>
       <c r="B133" s="6">
-        <v>22775.92</v>
+        <v>22867.74</v>
       </c>
       <c r="C133" s="6">
-        <v>22589.13</v>
+        <v>22856.21</v>
       </c>
       <c r="D133" s="6">
-        <v>22979.29</v>
+        <v>22907.91</v>
       </c>
       <c r="E133" s="6">
-        <v>22589.13</v>
+        <v>22692.44</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G133" s="2">
-        <v>0.0037</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="B134" s="6">
-        <v>22691.88</v>
+        <v>22775.92</v>
       </c>
       <c r="C134" s="6">
-        <v>23169.83</v>
+        <v>22589.13</v>
       </c>
       <c r="D134" s="6">
-        <v>23197.57</v>
+        <v>22979.29</v>
       </c>
       <c r="E134" s="6">
-        <v>22691.88</v>
+        <v>22589.13</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G134" s="2">
-        <v>0.0013</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="B135" s="6">
-        <v>22662.71</v>
+        <v>22691.88</v>
       </c>
       <c r="C135" s="6">
-        <v>22576.56</v>
+        <v>23169.83</v>
       </c>
       <c r="D135" s="6">
-        <v>22747.63</v>
+        <v>23197.57</v>
       </c>
       <c r="E135" s="6">
-        <v>22449.16</v>
+        <v>22691.88</v>
       </c>
       <c r="F135" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="G135" s="2">
-        <v>0.007</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B136" s="6">
-        <v>22504.68</v>
+        <v>22662.71</v>
       </c>
       <c r="C136" s="6">
-        <v>22192.51</v>
+        <v>22576.56</v>
       </c>
       <c r="D136" s="6">
-        <v>22532.54</v>
+        <v>22747.63</v>
       </c>
       <c r="E136" s="6">
-        <v>22058.3</v>
+        <v>22449.16</v>
       </c>
       <c r="F136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G136" s="2">
-        <v>0.0174</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="B137" s="6">
-        <v>22119.41</v>
+        <v>22504.68</v>
       </c>
       <c r="C137" s="6">
-        <v>22038.73</v>
+        <v>22192.51</v>
       </c>
       <c r="D137" s="6">
-        <v>22129.31</v>
+        <v>22532.54</v>
       </c>
       <c r="E137" s="6">
-        <v>21848.33</v>
+        <v>22058.3</v>
       </c>
       <c r="F137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G137" s="2">
-        <v>0.0051</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B138" s="6">
-        <v>22008.11</v>
+        <v>22119.41</v>
       </c>
       <c r="C138" s="6">
-        <v>22073.36</v>
+        <v>22038.73</v>
       </c>
       <c r="D138" s="6">
-        <v>22213.51</v>
+        <v>22129.31</v>
       </c>
       <c r="E138" s="6">
-        <v>21918.1</v>
+        <v>21848.33</v>
       </c>
       <c r="F138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G138" s="2">
-        <v>0.0016</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="B139" s="6">
-        <v>21971.96</v>
+        <v>22008.11</v>
       </c>
       <c r="C139" s="6">
-        <v>22072.35</v>
+        <v>22073.36</v>
       </c>
       <c r="D139" s="6">
-        <v>22072.35</v>
+        <v>22213.51</v>
       </c>
       <c r="E139" s="6">
-        <v>21817.85</v>
+        <v>21918.1</v>
       </c>
       <c r="F139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G139" s="2">
-        <v>-0.0004</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B140" s="6">
-        <v>21980.74</v>
+        <v>21971.96</v>
       </c>
       <c r="C140" s="6">
-        <v>22080.44</v>
+        <v>22072.35</v>
       </c>
       <c r="D140" s="6">
-        <v>22267.96</v>
+        <v>22072.35</v>
       </c>
       <c r="E140" s="6">
-        <v>21923.9</v>
+        <v>21817.85</v>
       </c>
       <c r="F140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G140" s="2">
-        <v>0.0032</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="B141" s="6">
-        <v>21909.76</v>
+        <v>21980.74</v>
       </c>
       <c r="C141" s="6">
-        <v>22030.15</v>
+        <v>22080.44</v>
       </c>
       <c r="D141" s="6">
-        <v>22093.68</v>
+        <v>22267.96</v>
       </c>
       <c r="E141" s="6">
-        <v>21712.1</v>
+        <v>21923.9</v>
       </c>
       <c r="F141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G141" s="2">
-        <v>-0.0074</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B142" s="6">
-        <v>22072.62</v>
+        <v>21909.76</v>
       </c>
       <c r="C142" s="6">
-        <v>22080.19</v>
+        <v>22030.15</v>
       </c>
       <c r="D142" s="6">
-        <v>22138.81</v>
+        <v>22093.68</v>
       </c>
       <c r="E142" s="6">
-        <v>21862.87</v>
+        <v>21712.1</v>
       </c>
       <c r="F142" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="G142" s="2">
-        <v>0.0237</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="B143" s="6">
-        <v>21562.32</v>
+        <v>22072.62</v>
       </c>
       <c r="C143" s="6">
-        <v>21303.51</v>
+        <v>22080.19</v>
       </c>
       <c r="D143" s="6">
-        <v>21592.67</v>
+        <v>22138.81</v>
       </c>
       <c r="E143" s="6">
-        <v>21191.02</v>
+        <v>21862.87</v>
       </c>
       <c r="F143" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G143" s="2">
-        <v>0.0078</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B144" s="6">
-        <v>21395.14</v>
+        <v>21562.32</v>
       </c>
       <c r="C144" s="6">
-        <v>21066.81</v>
+        <v>21303.51</v>
       </c>
       <c r="D144" s="6">
-        <v>21417.64</v>
+        <v>21592.67</v>
       </c>
       <c r="E144" s="6">
-        <v>21039.16</v>
+        <v>21191.02</v>
       </c>
       <c r="F144" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G144" s="2">
-        <v>0.0161</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B145" s="6">
-        <v>21056.98</v>
+        <v>21395.14</v>
       </c>
       <c r="C145" s="6">
-        <v>21316.47</v>
+        <v>21066.81</v>
       </c>
       <c r="D145" s="6">
-        <v>21363.57</v>
+        <v>21417.64</v>
       </c>
       <c r="E145" s="6">
-        <v>20868.36</v>
+        <v>21039.16</v>
       </c>
       <c r="F145" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="G145" s="2">
-        <v>-0.0191</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B146" s="6">
-        <v>21466.27</v>
+        <v>21056.98</v>
       </c>
       <c r="C146" s="6">
-        <v>21603.52</v>
+        <v>21316.47</v>
       </c>
       <c r="D146" s="6">
-        <v>21603.52</v>
+        <v>21363.57</v>
       </c>
       <c r="E146" s="6">
-        <v>21297.59</v>
+        <v>20868.36</v>
       </c>
       <c r="F146" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="G146" s="2">
-        <v>0.0023</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B147" s="6">
-        <v>21417.4</v>
+        <v>21466.27</v>
       </c>
       <c r="C147" s="6">
-        <v>21363.88</v>
+        <v>21603.52</v>
       </c>
       <c r="D147" s="6">
-        <v>21517.32</v>
+        <v>21603.52</v>
       </c>
       <c r="E147" s="6">
-        <v>21224.55</v>
+        <v>21297.59</v>
       </c>
       <c r="F147" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="G147" s="2">
-        <v>0.024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B148" s="6">
-        <v>20914.69</v>
+        <v>21417.4</v>
       </c>
       <c r="C148" s="6">
-        <v>20557.49</v>
+        <v>21363.88</v>
       </c>
       <c r="D148" s="6">
-        <v>21127.37</v>
+        <v>21517.32</v>
       </c>
       <c r="E148" s="6">
-        <v>20444.04</v>
+        <v>21224.55</v>
       </c>
       <c r="F148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G148" s="2">
-        <v>0.0113</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B149" s="6">
-        <v>20681.78</v>
+        <v>20914.69</v>
       </c>
       <c r="C149" s="6">
-        <v>20810.43</v>
+        <v>20557.49</v>
       </c>
       <c r="D149" s="6">
-        <v>21211.13</v>
+        <v>21127.37</v>
       </c>
       <c r="E149" s="6">
-        <v>20530.43</v>
+        <v>20444.04</v>
       </c>
       <c r="F149" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G149" s="2">
-        <v>0.0206</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B150" s="6">
-        <v>20264.49</v>
+        <v>20681.78</v>
       </c>
       <c r="C150" s="6">
-        <v>19494.92</v>
+        <v>20810.43</v>
       </c>
       <c r="D150" s="6">
-        <v>20441.14</v>
+        <v>21211.13</v>
       </c>
       <c r="E150" s="6">
-        <v>19260.21</v>
+        <v>20530.43</v>
       </c>
       <c r="F150" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G150" s="2">
-        <v>0.0068</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B151" s="6">
-        <v>20127.68</v>
+        <v>20264.49</v>
       </c>
       <c r="C151" s="6">
-        <v>20157.52</v>
+        <v>19494.92</v>
       </c>
       <c r="D151" s="6">
-        <v>20454.26</v>
+        <v>20441.14</v>
       </c>
       <c r="E151" s="6">
-        <v>19745.14</v>
+        <v>19260.21</v>
       </c>
       <c r="F151" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G151" s="2">
-        <v>0.0151</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B152" s="6">
-        <v>19828.3</v>
+        <v>20127.68</v>
       </c>
       <c r="C152" s="6">
-        <v>20730.05</v>
+        <v>20157.52</v>
       </c>
       <c r="D152" s="6">
-        <v>21047.83</v>
+        <v>20454.26</v>
       </c>
       <c r="E152" s="6">
-        <v>19706.03</v>
+        <v>19745.14</v>
       </c>
       <c r="F152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G152" s="2">
-        <v>-0.1322</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="B153" s="6">
-        <v>22849.81</v>
+        <v>19828.3</v>
       </c>
       <c r="C153" s="6">
-        <v>22638.21</v>
+        <v>20730.05</v>
       </c>
       <c r="D153" s="6">
-        <v>22998.3</v>
+        <v>21047.83</v>
       </c>
       <c r="E153" s="6">
-        <v>22638.21</v>
+        <v>19706.03</v>
       </c>
       <c r="F153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G153" s="2">
-        <v>-0.0152</v>
+        <v>-0.1322</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="B154" s="6">
-        <v>23202.53</v>
+        <v>22849.81</v>
       </c>
       <c r="C154" s="6">
-        <v>23167.31</v>
+        <v>22638.21</v>
       </c>
       <c r="D154" s="6">
-        <v>23393.03</v>
+        <v>22998.3</v>
       </c>
       <c r="E154" s="6">
-        <v>22980.96</v>
+        <v>22638.21</v>
       </c>
       <c r="F154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G154" s="2">
-        <v>-0.0002</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B155" s="6">
-        <v>23206.84</v>
+        <v>23202.53</v>
       </c>
       <c r="C155" s="6">
-        <v>23217.11</v>
+        <v>23167.31</v>
       </c>
       <c r="D155" s="6">
-        <v>23456.58</v>
+        <v>23393.03</v>
       </c>
       <c r="E155" s="6">
-        <v>23123.35</v>
+        <v>22980.96</v>
       </c>
       <c r="F155" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G155" s="2">
-        <v>0.0038</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B156" s="6">
-        <v>23119.58</v>
+        <v>23206.84</v>
       </c>
       <c r="C156" s="6">
-        <v>23207.07</v>
+        <v>23217.11</v>
       </c>
       <c r="D156" s="6">
-        <v>23399.73</v>
+        <v>23456.58</v>
       </c>
       <c r="E156" s="6">
-        <v>23002.81</v>
+        <v>23123.35</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="G156" s="2">
-        <v>-0.0131</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B157" s="6">
-        <v>23426.6</v>
+        <v>23119.58</v>
       </c>
       <c r="C157" s="6">
-        <v>23672.82</v>
+        <v>23207.07</v>
       </c>
       <c r="D157" s="6">
-        <v>23775.3</v>
+        <v>23399.73</v>
       </c>
       <c r="E157" s="6">
-        <v>23254.3</v>
+        <v>23002.81</v>
       </c>
       <c r="F157" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="G157" s="2">
-        <v>-0.0065</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B158" s="6">
-        <v>23578.8</v>
+        <v>23426.6</v>
       </c>
       <c r="C158" s="6">
-        <v>23543.86</v>
+        <v>23672.82</v>
       </c>
       <c r="D158" s="6">
-        <v>23865.62</v>
+        <v>23775.3</v>
       </c>
       <c r="E158" s="6">
-        <v>23372.36</v>
+        <v>23254.3</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="G158" s="2">
-        <v>0.0041</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B159" s="6">
-        <v>23483.32</v>
+        <v>23578.8</v>
       </c>
       <c r="C159" s="6">
-        <v>23460.31</v>
+        <v>23543.86</v>
       </c>
       <c r="D159" s="6">
-        <v>23596.85</v>
+        <v>23865.62</v>
       </c>
       <c r="E159" s="6">
-        <v>23350.73</v>
+        <v>23372.36</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G159" s="2">
-        <v>0.006</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B160" s="6">
-        <v>23344.25</v>
+        <v>23483.32</v>
       </c>
       <c r="C160" s="6">
-        <v>23643.32</v>
+        <v>23460.31</v>
       </c>
       <c r="D160" s="6">
-        <v>23747.32</v>
+        <v>23596.85</v>
       </c>
       <c r="E160" s="6">
-        <v>23321.67</v>
+        <v>23350.73</v>
       </c>
       <c r="F160" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="G160" s="2">
-        <v>-0.0235</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B161" s="6">
-        <v>23905.56</v>
+        <v>23344.25</v>
       </c>
       <c r="C161" s="6">
-        <v>23749.58</v>
+        <v>23643.32</v>
       </c>
       <c r="D161" s="6">
-        <v>23967.51</v>
+        <v>23747.32</v>
       </c>
       <c r="E161" s="6">
-        <v>23531.2</v>
+        <v>23321.67</v>
       </c>
       <c r="F161" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G161" s="2">
-        <v>0.0091</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B162" s="6">
-        <v>23689.72</v>
+        <v>23905.56</v>
       </c>
       <c r="C162" s="6">
-        <v>24109.07</v>
+        <v>23749.58</v>
       </c>
       <c r="D162" s="6">
-        <v>24230.72</v>
+        <v>23967.51</v>
       </c>
       <c r="E162" s="6">
-        <v>23577.78</v>
+        <v>23531.2</v>
       </c>
       <c r="F162" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="G162" s="2">
-        <v>-0.0219</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B163" s="6">
-        <v>24219.95</v>
+        <v>23689.72</v>
       </c>
       <c r="C163" s="6">
-        <v>24753.15</v>
+        <v>24109.07</v>
       </c>
       <c r="D163" s="6">
-        <v>24753.15</v>
+        <v>24230.72</v>
       </c>
       <c r="E163" s="6">
-        <v>24186.69</v>
+        <v>23577.78</v>
       </c>
       <c r="F163" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G163" s="2">
-        <v>-0.0223</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B164" s="6">
-        <v>24771.14</v>
+        <v>24219.95</v>
       </c>
       <c r="C164" s="6">
-        <v>24697.63</v>
+        <v>24753.15</v>
       </c>
       <c r="D164" s="6">
-        <v>24874.39</v>
+        <v>24753.15</v>
       </c>
       <c r="E164" s="6">
-        <v>24601.73</v>
+        <v>24186.69</v>
       </c>
       <c r="F164" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G164" s="2">
-        <v>0.0012</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B165" s="6">
-        <v>24740.57</v>
+        <v>24771.14</v>
       </c>
       <c r="C165" s="6">
-        <v>24679.35</v>
+        <v>24697.63</v>
       </c>
       <c r="D165" s="6">
-        <v>24745.13</v>
+        <v>24874.39</v>
       </c>
       <c r="E165" s="6">
-        <v>24475.26</v>
+        <v>24601.73</v>
       </c>
       <c r="F165" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="G165" s="2">
-        <v>0.0246</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
       <c r="B166" s="6">
-        <v>24145.57</v>
+        <v>24740.57</v>
       </c>
       <c r="C166" s="6">
-        <v>24226</v>
+        <v>24679.35</v>
       </c>
       <c r="D166" s="6">
-        <v>24352.47</v>
+        <v>24745.13</v>
       </c>
       <c r="E166" s="6">
-        <v>24077.15</v>
+        <v>24475.26</v>
       </c>
       <c r="F166" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G166" s="2">
-        <v>0.0077</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B167" s="6">
-        <v>23959.98</v>
+        <v>24145.57</v>
       </c>
       <c r="C167" s="6">
-        <v>23653.33</v>
+        <v>24226</v>
       </c>
       <c r="D167" s="6">
-        <v>24113.53</v>
+        <v>24352.47</v>
       </c>
       <c r="E167" s="6">
-        <v>23454.49</v>
+        <v>24077.15</v>
       </c>
       <c r="F167" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G167" s="2">
-        <v>0.0212</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B168" s="6">
-        <v>23462.65</v>
+        <v>23959.98</v>
       </c>
       <c r="C168" s="6">
-        <v>23616.33</v>
+        <v>23653.33</v>
       </c>
       <c r="D168" s="6">
-        <v>23712.61</v>
+        <v>24113.53</v>
       </c>
       <c r="E168" s="6">
-        <v>23198.73</v>
+        <v>23454.49</v>
       </c>
       <c r="F168" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="G168" s="2">
-        <v>-0.0058</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B169" s="6">
-        <v>23600.31</v>
+        <v>23462.65</v>
       </c>
       <c r="C169" s="6">
-        <v>23859.23</v>
+        <v>23616.33</v>
       </c>
       <c r="D169" s="6">
-        <v>23962.03</v>
+        <v>23712.61</v>
       </c>
       <c r="E169" s="6">
-        <v>23363.98</v>
+        <v>23198.73</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G169" s="2">
-        <v>-0.0076</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B170" s="6">
-        <v>23782.14</v>
+        <v>23600.31</v>
       </c>
       <c r="C170" s="6">
-        <v>23274.86</v>
+        <v>23859.23</v>
       </c>
       <c r="D170" s="6">
-        <v>23858.61</v>
+        <v>23962.03</v>
       </c>
       <c r="E170" s="6">
-        <v>23238.36</v>
+        <v>23363.98</v>
       </c>
       <c r="F170" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="G170" s="2">
-        <v>-0.0001</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B171" s="6">
-        <v>23783.49</v>
+        <v>23782.14</v>
       </c>
       <c r="C171" s="6">
-        <v>24115.98</v>
+        <v>23274.86</v>
       </c>
       <c r="D171" s="6">
-        <v>24292.8</v>
+        <v>23858.61</v>
       </c>
       <c r="E171" s="6">
-        <v>23632.42</v>
+        <v>23238.36</v>
       </c>
       <c r="F171" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="G171" s="2">
-        <v>-0.0185</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B172" s="6">
-        <v>24231.3</v>
+        <v>23783.49</v>
       </c>
       <c r="C172" s="6">
-        <v>24182.02</v>
+        <v>24115.98</v>
       </c>
       <c r="D172" s="6">
-        <v>24669.62</v>
+        <v>24292.8</v>
       </c>
       <c r="E172" s="6">
-        <v>24065.01</v>
+        <v>23632.42</v>
       </c>
       <c r="F172" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G172" s="2">
-        <v>-0.0057</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B173" s="6">
-        <v>24369.71</v>
+        <v>24231.3</v>
       </c>
       <c r="C173" s="6">
-        <v>23987.09</v>
+        <v>24182.02</v>
       </c>
       <c r="D173" s="6">
-        <v>24410.93</v>
+        <v>24669.62</v>
       </c>
       <c r="E173" s="6">
-        <v>23987.09</v>
+        <v>24065.01</v>
       </c>
       <c r="F173" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G173" s="2">
-        <v>0.0329</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B174" s="6">
-        <v>23594.21</v>
+        <v>24369.71</v>
       </c>
       <c r="C174" s="6">
-        <v>23200.42</v>
+        <v>23987.09</v>
       </c>
       <c r="D174" s="6">
-        <v>23636.65</v>
+        <v>24410.93</v>
       </c>
       <c r="E174" s="6">
-        <v>23090.63</v>
+        <v>23987.09</v>
       </c>
       <c r="F174" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G174" s="2">
-        <v>0.0284</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B175" s="6">
-        <v>22941.77</v>
+        <v>23594.21</v>
       </c>
       <c r="C175" s="6">
-        <v>22678.25</v>
+        <v>23200.42</v>
       </c>
       <c r="D175" s="6">
-        <v>23051.01</v>
+        <v>23636.65</v>
       </c>
       <c r="E175" s="6">
-        <v>22547.53</v>
+        <v>23090.63</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="G175" s="2">
-        <v>-0.0028</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B176" s="6">
-        <v>23006.27</v>
+        <v>22941.77</v>
       </c>
       <c r="C176" s="6">
-        <v>23135.12</v>
+        <v>22678.25</v>
       </c>
       <c r="D176" s="6">
-        <v>23405.98</v>
+        <v>23051.01</v>
       </c>
       <c r="E176" s="6">
-        <v>22861.75</v>
+        <v>22547.53</v>
       </c>
       <c r="F176" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G176" s="2">
-        <v>0.0028</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B177" s="6">
-        <v>22941.32</v>
+        <v>23006.27</v>
       </c>
       <c r="C177" s="6">
-        <v>23616.18</v>
+        <v>23135.12</v>
       </c>
       <c r="D177" s="6">
-        <v>23616.18</v>
+        <v>23405.98</v>
       </c>
       <c r="E177" s="6">
-        <v>22798.34</v>
+        <v>22861.75</v>
       </c>
       <c r="F177" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="G177" s="2">
-        <v>-0.0328</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B178" s="6">
-        <v>23718.29</v>
+        <v>22941.32</v>
       </c>
       <c r="C178" s="6">
-        <v>23783.75</v>
+        <v>23616.18</v>
       </c>
       <c r="D178" s="6">
-        <v>24076.53</v>
+        <v>23616.18</v>
       </c>
       <c r="E178" s="6">
-        <v>23441.74</v>
+        <v>22798.34</v>
       </c>
       <c r="F178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G178" s="2">
-        <v>-0.0029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B179" s="6">
-        <v>23787.93</v>
+        <v>23718.29</v>
       </c>
       <c r="C179" s="6">
-        <v>23238.34</v>
+        <v>23783.75</v>
       </c>
       <c r="D179" s="6">
-        <v>23973.17</v>
+        <v>24076.53</v>
       </c>
       <c r="E179" s="6">
-        <v>23238.34</v>
+        <v>23441.74</v>
       </c>
       <c r="F179" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G179" s="2">
-        <v>0.0327</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B180" s="6">
-        <v>23034.02</v>
+        <v>23787.93</v>
       </c>
       <c r="C180" s="6">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="D180" s="6">
-        <v>23248.52</v>
+        <v>23973.17</v>
       </c>
       <c r="E180" s="6">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="F180" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G180" s="2">
-        <v>-0.0132</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B181" s="6">
-        <v>23341.61</v>
+        <v>23034.02</v>
       </c>
       <c r="C181" s="6">
-        <v>23472.14</v>
+        <v>22716.48</v>
       </c>
       <c r="D181" s="6">
-        <v>23688.45</v>
+        <v>23248.52</v>
       </c>
       <c r="E181" s="6">
-        <v>23221.57</v>
+        <v>22716.48</v>
       </c>
       <c r="F181" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G181" s="2">
-        <v>-0.0058</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B182" s="6">
-        <v>23477.92</v>
+        <v>23341.61</v>
       </c>
       <c r="C182" s="6">
-        <v>23090.03</v>
+        <v>23472.14</v>
       </c>
       <c r="D182" s="6">
-        <v>23477.92</v>
+        <v>23688.45</v>
       </c>
       <c r="E182" s="6">
-        <v>22901.69</v>
+        <v>23221.57</v>
       </c>
       <c r="F182" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G182" s="2">
-        <v>0.0399</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B183" s="6">
-        <v>22576.98</v>
+        <v>23477.92</v>
       </c>
       <c r="C183" s="6">
-        <v>22716.71</v>
+        <v>23090.03</v>
       </c>
       <c r="D183" s="6">
-        <v>22849.66</v>
+        <v>23477.92</v>
       </c>
       <c r="E183" s="6">
-        <v>22436.13</v>
+        <v>22901.69</v>
       </c>
       <c r="F183" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G183" s="2">
-        <v>-0.016</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>45707</v>
+        <v>45708</v>
       </c>
       <c r="B184" s="6">
-        <v>22944.24</v>
+        <v>22576.98</v>
       </c>
       <c r="C184" s="6">
-        <v>22777.46</v>
+        <v>22716.71</v>
       </c>
       <c r="D184" s="6">
-        <v>22975.34</v>
+        <v>22849.66</v>
       </c>
       <c r="E184" s="6">
-        <v>22649.49</v>
+        <v>22436.13</v>
       </c>
       <c r="F184" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G184" s="2">
-        <v>-0.0014</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B185" s="6">
-        <v>22976.81</v>
+        <v>22944.24</v>
       </c>
       <c r="C185" s="6">
-        <v>22664.73</v>
+        <v>22777.46</v>
       </c>
       <c r="D185" s="6">
-        <v>23141.41</v>
+        <v>22975.34</v>
       </c>
       <c r="E185" s="6">
-        <v>22608.18</v>
+        <v>22649.49</v>
       </c>
       <c r="F185" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G185" s="2">
-        <v>0.0159</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B186" s="6">
-        <v>22616.23</v>
+        <v>22976.81</v>
       </c>
       <c r="C186" s="6">
-        <v>22755.06</v>
+        <v>22664.73</v>
       </c>
       <c r="D186" s="6">
-        <v>22977.25</v>
+        <v>23141.41</v>
       </c>
       <c r="E186" s="6">
-        <v>22319.32</v>
+        <v>22608.18</v>
       </c>
       <c r="F186" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G186" s="2">
-        <v>-0.0002</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B187" s="6">
-        <v>22620.33</v>
+        <v>22616.23</v>
       </c>
       <c r="C187" s="6">
-        <v>22027.07</v>
+        <v>22755.06</v>
       </c>
       <c r="D187" s="6">
-        <v>22620.33</v>
+        <v>22977.25</v>
       </c>
       <c r="E187" s="6">
-        <v>22027.07</v>
+        <v>22319.32</v>
       </c>
       <c r="F187" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G187" s="2">
-        <v>0.0369</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B188" s="6">
-        <v>21814.37</v>
+        <v>22620.33</v>
       </c>
       <c r="C188" s="6">
-        <v>21958.69</v>
+        <v>22027.07</v>
       </c>
       <c r="D188" s="6">
-        <v>22523.57</v>
+        <v>22620.33</v>
       </c>
       <c r="E188" s="6">
-        <v>21735.56</v>
+        <v>22027.07</v>
       </c>
       <c r="F188" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G188" s="2">
-        <v>-0.002</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B189" s="6">
-        <v>21857.92</v>
+        <v>21814.37</v>
       </c>
       <c r="C189" s="6">
-        <v>21526.41</v>
+        <v>21958.69</v>
       </c>
       <c r="D189" s="6">
-        <v>21858.83</v>
+        <v>22523.57</v>
       </c>
       <c r="E189" s="6">
-        <v>21411.09</v>
+        <v>21735.56</v>
       </c>
       <c r="F189" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G189" s="2">
-        <v>0.0264</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B190" s="6">
-        <v>21294.86</v>
+        <v>21857.92</v>
       </c>
       <c r="C190" s="6">
-        <v>21656.82</v>
+        <v>21526.41</v>
       </c>
       <c r="D190" s="6">
-        <v>21682.41</v>
+        <v>21858.83</v>
       </c>
       <c r="E190" s="6">
-        <v>21279.37</v>
+        <v>21411.09</v>
       </c>
       <c r="F190" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G190" s="2">
-        <v>-0.0106</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B191" s="6">
-        <v>21521.98</v>
+        <v>21294.86</v>
       </c>
       <c r="C191" s="6">
-        <v>21223.61</v>
+        <v>21656.82</v>
       </c>
       <c r="D191" s="6">
-        <v>21539.63</v>
+        <v>21682.41</v>
       </c>
       <c r="E191" s="6">
-        <v>21223.61</v>
+        <v>21279.37</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="G191" s="2">
-        <v>0.0184</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B192" s="6">
-        <v>21133.54</v>
+        <v>21521.98</v>
       </c>
       <c r="C192" s="6">
-        <v>20858.52</v>
+        <v>21223.61</v>
       </c>
       <c r="D192" s="6">
-        <v>21213.7</v>
+        <v>21539.63</v>
       </c>
       <c r="E192" s="6">
-        <v>20806.1</v>
+        <v>21223.61</v>
       </c>
       <c r="F192" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="G192" s="2">
-        <v>0.0116</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B193" s="6">
-        <v>20891.62</v>
+        <v>21133.54</v>
       </c>
       <c r="C193" s="6">
-        <v>20598.98</v>
+        <v>20858.52</v>
       </c>
       <c r="D193" s="6">
-        <v>20891.62</v>
+        <v>21213.7</v>
       </c>
       <c r="E193" s="6">
-        <v>20532.06</v>
+        <v>20806.1</v>
       </c>
       <c r="F193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G193" s="2">
-        <v>0.0143</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B194" s="6">
-        <v>20597.09</v>
+        <v>20891.62</v>
       </c>
       <c r="C194" s="6">
-        <v>20827.77</v>
+        <v>20598.98</v>
       </c>
       <c r="D194" s="6">
-        <v>20827.77</v>
+        <v>20891.62</v>
       </c>
       <c r="E194" s="6">
-        <v>20417.39</v>
+        <v>20532.06</v>
       </c>
       <c r="F194" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G194" s="2">
-        <v>-0.0093</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B195" s="6">
-        <v>20789.96</v>
+        <v>20597.09</v>
       </c>
       <c r="C195" s="6">
-        <v>20488.29</v>
+        <v>20827.77</v>
       </c>
       <c r="D195" s="6">
-        <v>20885.49</v>
+        <v>20827.77</v>
       </c>
       <c r="E195" s="6">
-        <v>20297.64</v>
+        <v>20417.39</v>
       </c>
       <c r="F195" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="G195" s="2">
-        <v>0.0283</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B196" s="6">
-        <v>20217.26</v>
+        <v>20789.96</v>
       </c>
       <c r="C196" s="6">
-        <v>20048.87</v>
+        <v>20488.29</v>
       </c>
       <c r="D196" s="6">
-        <v>20222</v>
+        <v>20885.49</v>
       </c>
       <c r="E196" s="6">
-        <v>19764.67</v>
+        <v>20297.64</v>
       </c>
       <c r="F196" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="G196" s="2">
-        <v>-0.0004</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="B197" s="6">
-        <v>20225.11</v>
+        <v>20217.26</v>
       </c>
       <c r="C197" s="6">
-        <v>20337.46</v>
+        <v>20048.87</v>
       </c>
       <c r="D197" s="6">
-        <v>20337.46</v>
+        <v>20222</v>
       </c>
       <c r="E197" s="6">
-        <v>20165.73</v>
+        <v>19764.67</v>
       </c>
       <c r="F197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G197" s="2">
-        <v>0.0014</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B198" s="6">
-        <v>20197.77</v>
+        <v>20225.11</v>
       </c>
       <c r="C198" s="6">
-        <v>20118.02</v>
+        <v>20337.46</v>
       </c>
       <c r="D198" s="6">
-        <v>20296.94</v>
+        <v>20337.46</v>
       </c>
       <c r="E198" s="6">
-        <v>20118.02</v>
+        <v>20165.73</v>
       </c>
       <c r="F198" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G198" s="2">
-        <v>0.0066</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B199" s="6">
-        <v>20066.19</v>
+        <v>20197.77</v>
       </c>
       <c r="C199" s="6">
-        <v>19842.85</v>
+        <v>20118.02</v>
       </c>
       <c r="D199" s="6">
-        <v>20144</v>
+        <v>20296.94</v>
       </c>
       <c r="E199" s="6">
-        <v>19768.13</v>
+        <v>20118.02</v>
       </c>
       <c r="F199" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="G199" s="2">
-        <v>0.0186</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B200" s="6">
-        <v>19700.56</v>
+        <v>20066.19</v>
       </c>
       <c r="C200" s="6">
-        <v>19881.32</v>
+        <v>19842.85</v>
       </c>
       <c r="D200" s="6">
-        <v>20044.06</v>
+        <v>20144</v>
       </c>
       <c r="E200" s="6">
-        <v>19644.83</v>
+        <v>19768.13</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G200" s="2">
-        <v>-0.004</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B201" s="6">
-        <v>19778.77</v>
+        <v>19700.56</v>
       </c>
       <c r="C201" s="6">
-        <v>19997.09</v>
+        <v>19881.32</v>
       </c>
       <c r="D201" s="6">
-        <v>20022.34</v>
+        <v>20044.06</v>
       </c>
       <c r="E201" s="6">
-        <v>19733.21</v>
+        <v>19644.83</v>
       </c>
       <c r="F201" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="G201" s="2">
-        <v>-0.0163</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B202" s="6">
-        <v>20106.55</v>
+        <v>19778.77</v>
       </c>
       <c r="C202" s="6">
-        <v>20128.34</v>
+        <v>19997.09</v>
       </c>
       <c r="D202" s="6">
-        <v>20205.25</v>
+        <v>20022.34</v>
       </c>
       <c r="E202" s="6">
-        <v>19920.31</v>
+        <v>19733.21</v>
       </c>
       <c r="F202" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G202" s="2">
-        <v>0.0091</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B203" s="6">
-        <v>19925.81</v>
+        <v>20106.55</v>
       </c>
       <c r="C203" s="6">
-        <v>19804.64</v>
+        <v>20128.34</v>
       </c>
       <c r="D203" s="6">
-        <v>20093.65</v>
+        <v>20205.25</v>
       </c>
       <c r="E203" s="6">
-        <v>19786.73</v>
+        <v>19920.31</v>
       </c>
       <c r="F203" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G203" s="2">
-        <v>0.0175</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B204" s="6">
-        <v>19584.06</v>
+        <v>19925.81</v>
       </c>
       <c r="C204" s="6">
-        <v>19499.1</v>
+        <v>19804.64</v>
       </c>
       <c r="D204" s="6">
-        <v>19640.37</v>
+        <v>20093.65</v>
       </c>
       <c r="E204" s="6">
-        <v>19423.7</v>
+        <v>19786.73</v>
       </c>
       <c r="F204" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G204" s="2">
-        <v>0.0031</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B205" s="6">
-        <v>19522.89</v>
+        <v>19584.06</v>
       </c>
       <c r="C205" s="6">
-        <v>19454.92</v>
+        <v>19499.1</v>
       </c>
       <c r="D205" s="6">
-        <v>19664.39</v>
+        <v>19640.37</v>
       </c>
       <c r="E205" s="6">
-        <v>19345.19</v>
+        <v>19423.7</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="G205" s="2">
-        <v>0.0123</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B206" s="6">
-        <v>19286.07</v>
+        <v>19522.89</v>
       </c>
       <c r="C206" s="6">
-        <v>19149.94</v>
+        <v>19454.92</v>
       </c>
       <c r="D206" s="6">
-        <v>19319.22</v>
+        <v>19664.39</v>
       </c>
       <c r="E206" s="6">
-        <v>19149.94</v>
+        <v>19345.19</v>
       </c>
       <c r="F206" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G206" s="2">
-        <v>0.0034</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B207" s="6">
-        <v>19219.78</v>
+        <v>19286.07</v>
       </c>
       <c r="C207" s="6">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="D207" s="6">
-        <v>19318.36</v>
+        <v>19319.22</v>
       </c>
       <c r="E207" s="6">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="F207" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="G207" s="2">
-        <v>0.0183</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B208" s="6">
-        <v>18874.14</v>
+        <v>19219.78</v>
       </c>
       <c r="C208" s="6">
-        <v>18918.15</v>
+        <v>18901.56</v>
       </c>
       <c r="D208" s="6">
-        <v>18929.12</v>
+        <v>19318.36</v>
       </c>
       <c r="E208" s="6">
-        <v>18671.49</v>
+        <v>18901.56</v>
       </c>
       <c r="F208" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G208" s="2">
-        <v>-0.01</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B209" s="6">
-        <v>19064.29</v>
+        <v>18874.14</v>
       </c>
       <c r="C209" s="6">
-        <v>19328.07</v>
+        <v>18918.15</v>
       </c>
       <c r="D209" s="6">
-        <v>19370.49</v>
+        <v>18929.12</v>
       </c>
       <c r="E209" s="6">
-        <v>19036.64</v>
+        <v>18671.49</v>
       </c>
       <c r="F209" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G209" s="2">
-        <v>-0.0092</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="B210" s="6">
-        <v>19240.89</v>
+        <v>19064.29</v>
       </c>
       <c r="C210" s="6">
-        <v>19254.38</v>
+        <v>19328.07</v>
       </c>
       <c r="D210" s="6">
-        <v>19405.74</v>
+        <v>19370.49</v>
       </c>
       <c r="E210" s="6">
-        <v>19227.73</v>
+        <v>19036.64</v>
       </c>
       <c r="F210" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G210" s="2">
-        <v>-0.002</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="B211" s="6">
-        <v>19279.84</v>
+        <v>19240.89</v>
       </c>
       <c r="C211" s="6">
-        <v>19390.76</v>
+        <v>19254.38</v>
       </c>
       <c r="D211" s="6">
-        <v>19483.59</v>
+        <v>19405.74</v>
       </c>
       <c r="E211" s="6">
-        <v>19111.54</v>
+        <v>19227.73</v>
       </c>
       <c r="F211" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="G211" s="2">
-        <v>-0.0086</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="B212" s="6">
-        <v>19447.58</v>
+        <v>19279.84</v>
       </c>
       <c r="C212" s="6">
-        <v>19501.45</v>
+        <v>19390.76</v>
       </c>
       <c r="D212" s="6">
-        <v>19668.65</v>
+        <v>19483.59</v>
       </c>
       <c r="E212" s="6">
-        <v>19252.61</v>
+        <v>19111.54</v>
       </c>
       <c r="F212" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="G212" s="2">
-        <v>-0.0122</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B213" s="6">
-        <v>19688.29</v>
+        <v>19447.58</v>
       </c>
       <c r="C213" s="6">
-        <v>19848.71</v>
+        <v>19501.45</v>
       </c>
       <c r="D213" s="6">
-        <v>19851.55</v>
+        <v>19668.65</v>
       </c>
       <c r="E213" s="6">
-        <v>19627.84</v>
+        <v>19252.61</v>
       </c>
       <c r="F213" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G213" s="2">
-        <v>-0.0036</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B214" s="6">
-        <v>19760.27</v>
+        <v>19688.29</v>
       </c>
       <c r="C214" s="6">
-        <v>19708.74</v>
+        <v>19848.71</v>
       </c>
       <c r="D214" s="6">
-        <v>19891.86</v>
+        <v>19851.55</v>
       </c>
       <c r="E214" s="6">
-        <v>19634.07</v>
+        <v>19627.84</v>
       </c>
       <c r="F214" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G214" s="2">
-        <v>0.007</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B215" s="6">
+        <v>19760.27</v>
+      </c>
+      <c r="C215" s="6">
+        <v>19708.74</v>
+      </c>
+      <c r="D215" s="6">
+        <v>19891.86</v>
+      </c>
+      <c r="E215" s="6">
+        <v>19634.07</v>
+      </c>
+      <c r="F215" t="s">
+        <v>124</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
         <v>45659</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B216" s="6">
         <v>19623.32</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C216" s="6">
         <v>19932.8</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D216" s="6">
         <v>19932.8</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E216" s="6">
         <v>19542.98</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F216" t="s">
         <v>157</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G216" s="2">
         <v>-0.0218</v>
       </c>
     </row>

--- a/data/hs_01_11.xlsx
+++ b/data/hs_01_11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12180"/>
+    <workbookView windowWidth="27660" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="hs_01_11" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,9 @@
     <t>涨跌幅</t>
   </si>
   <si>
+    <t>2.52B</t>
+  </si>
+  <si>
     <t>2.81B</t>
   </si>
   <si>
@@ -255,9 +258,6 @@
   </si>
   <si>
     <t>3.04B</t>
-  </si>
-  <si>
-    <t>2.52B</t>
   </si>
   <si>
     <t>4.02B</t>
@@ -1691,10 +1691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1727,4946 +1727,4969 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B2">
-        <v>26572.46</v>
+        <v>26384.28</v>
       </c>
       <c r="C2">
-        <v>26675.05</v>
+        <v>26481.99</v>
       </c>
       <c r="D2">
-        <v>26881.88</v>
+        <v>26531.8</v>
       </c>
       <c r="E2">
-        <v>26535.42</v>
+        <v>26252.36</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.0185</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B3">
-        <v>27073.03</v>
+        <v>26572.46</v>
       </c>
       <c r="C3">
-        <v>26779.41</v>
+        <v>26675.05</v>
       </c>
       <c r="D3">
-        <v>27188.81</v>
+        <v>26881.88</v>
       </c>
       <c r="E3">
-        <v>26733.21</v>
+        <v>26535.42</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
-        <v>0.0056</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B4">
-        <v>26922.73</v>
+        <v>27073.03</v>
       </c>
       <c r="C4">
-        <v>26754.93</v>
+        <v>26779.41</v>
       </c>
       <c r="D4">
-        <v>27016.4</v>
+        <v>27188.81</v>
       </c>
       <c r="E4">
-        <v>26739.09</v>
+        <v>26733.21</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0085</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B5">
-        <v>26696.41</v>
+        <v>26922.73</v>
       </c>
       <c r="C5">
-        <v>26748.09</v>
+        <v>26754.93</v>
       </c>
       <c r="D5">
-        <v>26788.43</v>
+        <v>27016.4</v>
       </c>
       <c r="E5">
-        <v>26511.25</v>
+        <v>26739.09</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0018</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B6">
-        <v>26649.06</v>
+        <v>26696.41</v>
       </c>
       <c r="C6">
-        <v>26319.4</v>
+        <v>26748.09</v>
       </c>
       <c r="D6">
-        <v>26668.89</v>
+        <v>26788.43</v>
       </c>
       <c r="E6">
-        <v>26302.93</v>
+        <v>26511.25</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2">
-        <v>0.0155</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B7">
-        <v>26241.83</v>
+        <v>26649.06</v>
       </c>
       <c r="C7">
-        <v>26350.74</v>
+        <v>26319.4</v>
       </c>
       <c r="D7">
-        <v>26371.46</v>
+        <v>26668.89</v>
       </c>
       <c r="E7">
-        <v>26167.23</v>
+        <v>26302.93</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.0092</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>45967</v>
-      </c>
-      <c r="B8" s="3">
-        <v>26465.5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>26026</v>
-      </c>
-      <c r="D8" s="4">
-        <v>26493</v>
-      </c>
-      <c r="E8" s="4">
-        <v>26009</v>
+        <v>45968</v>
+      </c>
+      <c r="B8">
+        <v>26241.83</v>
+      </c>
+      <c r="C8">
+        <v>26350.74</v>
+      </c>
+      <c r="D8">
+        <v>26371.46</v>
+      </c>
+      <c r="E8">
+        <v>26167.23</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0204</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B9" s="3">
-        <v>25935.41</v>
+        <v>26465.5</v>
       </c>
       <c r="C9" s="4">
-        <v>25628.39</v>
-      </c>
-      <c r="D9" s="5">
-        <v>25980.9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>25496.13</v>
+        <v>26026</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26493</v>
+      </c>
+      <c r="E9" s="4">
+        <v>26009</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.0007</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>45965</v>
-      </c>
-      <c r="B10" s="6">
-        <v>25952.4</v>
-      </c>
-      <c r="C10" s="6">
-        <v>26147.98</v>
-      </c>
-      <c r="D10" s="6">
-        <v>26291.65</v>
-      </c>
-      <c r="E10" s="6">
-        <v>25911.29</v>
+        <v>45966</v>
+      </c>
+      <c r="B10" s="3">
+        <v>25935.41</v>
+      </c>
+      <c r="C10" s="4">
+        <v>25628.39</v>
+      </c>
+      <c r="D10" s="5">
+        <v>25980.9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>25496.13</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="2">
-        <v>-0.0079</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B11" s="6">
-        <v>26158.36</v>
+        <v>25952.4</v>
       </c>
       <c r="C11" s="6">
-        <v>26020.5</v>
+        <v>26147.98</v>
       </c>
       <c r="D11" s="6">
-        <v>26217.12</v>
+        <v>26291.65</v>
       </c>
       <c r="E11" s="6">
-        <v>25920.27</v>
+        <v>25911.29</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0097</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B12" s="6">
-        <v>25906.65</v>
+        <v>26158.36</v>
       </c>
       <c r="C12" s="6">
-        <v>26263.01</v>
+        <v>26020.5</v>
       </c>
       <c r="D12" s="6">
-        <v>26283.96</v>
+        <v>26217.12</v>
       </c>
       <c r="E12" s="6">
-        <v>25906.65</v>
+        <v>25920.27</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.0143</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B13" s="6">
-        <v>26282.69</v>
+        <v>25906.65</v>
       </c>
       <c r="C13" s="6">
-        <v>26545.92</v>
+        <v>26263.01</v>
       </c>
       <c r="D13" s="6">
-        <v>26588.89</v>
+        <v>26283.96</v>
       </c>
       <c r="E13" s="6">
-        <v>26138.79</v>
+        <v>25906.65</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.0024</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B14" s="6">
-        <v>26346.14</v>
+        <v>26282.69</v>
       </c>
       <c r="C14" s="6">
-        <v>26508.75</v>
+        <v>26545.92</v>
       </c>
       <c r="D14" s="6">
-        <v>26519.24</v>
+        <v>26588.89</v>
       </c>
       <c r="E14" s="6">
-        <v>26245.33</v>
+        <v>26138.79</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2">
-        <v>-0.0033</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B15" s="6">
-        <v>26433.7</v>
+        <v>26346.14</v>
       </c>
       <c r="C15" s="6">
-        <v>26495.97</v>
+        <v>26508.75</v>
       </c>
       <c r="D15" s="6">
-        <v>26495.97</v>
+        <v>26519.24</v>
       </c>
       <c r="E15" s="6">
-        <v>26319.22</v>
+        <v>26245.33</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0105</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B16" s="6">
-        <v>26160.15</v>
+        <v>26433.7</v>
       </c>
       <c r="C16" s="6">
-        <v>26177.11</v>
+        <v>26495.97</v>
       </c>
       <c r="D16" s="6">
-        <v>26239.96</v>
+        <v>26495.97</v>
       </c>
       <c r="E16" s="6">
-        <v>26063.99</v>
+        <v>26319.22</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="2">
-        <v>0.0074</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B17" s="6">
-        <v>25967.98</v>
+        <v>26160.15</v>
       </c>
       <c r="C17" s="6">
-        <v>25718.53</v>
+        <v>26177.11</v>
       </c>
       <c r="D17" s="6">
-        <v>26080.84</v>
+        <v>26239.96</v>
       </c>
       <c r="E17" s="6">
-        <v>25591.66</v>
+        <v>26063.99</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2">
-        <v>0.0072</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B18" s="6">
-        <v>25781.77</v>
+        <v>25967.98</v>
       </c>
       <c r="C18" s="6">
-        <v>25897.62</v>
+        <v>25718.53</v>
       </c>
       <c r="D18" s="6">
-        <v>25947.88</v>
+        <v>26080.84</v>
       </c>
       <c r="E18" s="6">
-        <v>25653.75</v>
+        <v>25591.66</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="2">
-        <v>-0.0094</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B19" s="6">
-        <v>26027.55</v>
+        <v>25781.77</v>
       </c>
       <c r="C19" s="6">
-        <v>26160.24</v>
+        <v>25897.62</v>
       </c>
       <c r="D19" s="6">
-        <v>26367.35</v>
+        <v>25947.88</v>
       </c>
       <c r="E19" s="6">
-        <v>26017.72</v>
+        <v>25653.75</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="2">
-        <v>0.0065</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B20" s="6">
-        <v>25858.83</v>
+        <v>26027.55</v>
       </c>
       <c r="C20" s="6">
-        <v>25884.46</v>
+        <v>26160.24</v>
       </c>
       <c r="D20" s="6">
-        <v>25912.77</v>
+        <v>26367.35</v>
       </c>
       <c r="E20" s="6">
-        <v>25710.61</v>
+        <v>26017.72</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="2">
-        <v>0.0242</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B21" s="6">
-        <v>25247.1</v>
+        <v>25858.83</v>
       </c>
       <c r="C21" s="6">
-        <v>25851.94</v>
+        <v>25884.46</v>
       </c>
       <c r="D21" s="6">
-        <v>25859.82</v>
+        <v>25912.77</v>
       </c>
       <c r="E21" s="6">
-        <v>25145.34</v>
+        <v>25710.61</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="2">
-        <v>-0.0248</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B22" s="6">
-        <v>25888.51</v>
+        <v>25247.1</v>
       </c>
       <c r="C22" s="6">
-        <v>25890.01</v>
+        <v>25851.94</v>
       </c>
       <c r="D22" s="6">
-        <v>26062.8</v>
+        <v>25859.82</v>
       </c>
       <c r="E22" s="6">
-        <v>25687.32</v>
+        <v>25145.34</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G22" s="2">
-        <v>-0.0009</v>
+        <v>-0.0248</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B23" s="6">
-        <v>25910.6</v>
+        <v>25888.51</v>
       </c>
       <c r="C23" s="6">
-        <v>25714.89</v>
+        <v>25890.01</v>
       </c>
       <c r="D23" s="6">
-        <v>25982.21</v>
+        <v>26062.8</v>
       </c>
       <c r="E23" s="6">
-        <v>25593.45</v>
+        <v>25687.32</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2">
-        <v>0.0184</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B24" s="6">
-        <v>25441.35</v>
+        <v>25910.6</v>
       </c>
       <c r="C24" s="6">
-        <v>25969.21</v>
+        <v>25714.89</v>
       </c>
       <c r="D24" s="6">
-        <v>26102.68</v>
+        <v>25982.21</v>
       </c>
       <c r="E24" s="6">
-        <v>25331.64</v>
+        <v>25593.45</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="2">
-        <v>-0.0173</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B25" s="6">
-        <v>25889.48</v>
+        <v>25441.35</v>
       </c>
       <c r="C25" s="6">
-        <v>25634</v>
+        <v>25969.21</v>
       </c>
       <c r="D25" s="6">
-        <v>25895.62</v>
+        <v>26102.68</v>
       </c>
       <c r="E25" s="6">
-        <v>25336.09</v>
+        <v>25331.64</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.0152</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B26" s="6">
-        <v>26290.32</v>
+        <v>25889.48</v>
       </c>
       <c r="C26" s="6">
-        <v>26523.89</v>
+        <v>25634</v>
       </c>
       <c r="D26" s="6">
-        <v>26558.87</v>
+        <v>25895.62</v>
       </c>
       <c r="E26" s="6">
-        <v>26247.04</v>
+        <v>25336.09</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="2">
-        <v>-0.0173</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="B27" s="6">
-        <v>26752.59</v>
+        <v>26290.32</v>
       </c>
       <c r="C27" s="6">
-        <v>26862.03</v>
+        <v>26523.89</v>
       </c>
       <c r="D27" s="6">
-        <v>26978.41</v>
+        <v>26558.87</v>
       </c>
       <c r="E27" s="6">
-        <v>26480.58</v>
+        <v>26247.04</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G27" s="2">
-        <v>-0.0029</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B28" s="6">
-        <v>26829.46</v>
+        <v>26752.59</v>
       </c>
       <c r="C28" s="6">
-        <v>26900.64</v>
+        <v>26862.03</v>
       </c>
       <c r="D28" s="6">
-        <v>26906.2</v>
+        <v>26978.41</v>
       </c>
       <c r="E28" s="6">
-        <v>26517.45</v>
+        <v>26480.58</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2">
-        <v>-0.0048</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="B29" s="6">
-        <v>26957.77</v>
+        <v>26829.46</v>
       </c>
       <c r="C29" s="6">
-        <v>27003.92</v>
+        <v>26900.64</v>
       </c>
       <c r="D29" s="6">
-        <v>27145.17</v>
+        <v>26906.2</v>
       </c>
       <c r="E29" s="6">
-        <v>26873.34</v>
+        <v>26517.45</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="2">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="B30" s="6">
-        <v>27140.92</v>
+        <v>26957.77</v>
       </c>
       <c r="C30" s="6">
-        <v>27221.46</v>
+        <v>27003.92</v>
       </c>
       <c r="D30" s="6">
-        <v>27262</v>
+        <v>27145.17</v>
       </c>
       <c r="E30" s="6">
-        <v>26972.71</v>
+        <v>26873.34</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="2">
-        <v>-0.0054</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="B31" s="6">
-        <v>27287.12</v>
+        <v>27140.92</v>
       </c>
       <c r="C31" s="6">
-        <v>26918.3</v>
+        <v>27221.46</v>
       </c>
       <c r="D31" s="6">
-        <v>27381.84</v>
+        <v>27262</v>
       </c>
       <c r="E31" s="6">
-        <v>26918.3</v>
+        <v>26972.71</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="2">
-        <v>0.0161</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B32" s="6">
-        <v>26855.56</v>
+        <v>27287.12</v>
       </c>
       <c r="C32" s="6">
-        <v>26674.16</v>
+        <v>26918.3</v>
       </c>
       <c r="D32" s="6">
-        <v>26888.4</v>
+        <v>27381.84</v>
       </c>
       <c r="E32" s="6">
-        <v>26558.28</v>
+        <v>26918.3</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G32" s="2">
-        <v>0.0087</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B33" s="6">
-        <v>26622.88</v>
+        <v>26855.56</v>
       </c>
       <c r="C33" s="6">
-        <v>26321.57</v>
+        <v>26674.16</v>
       </c>
       <c r="D33" s="6">
-        <v>26687.72</v>
+        <v>26888.4</v>
       </c>
       <c r="E33" s="6">
-        <v>26321.57</v>
+        <v>26558.28</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" s="2">
-        <v>0.0189</v>
+        <v>0.0087</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B34" s="6">
-        <v>26128.2</v>
+        <v>26622.88</v>
       </c>
       <c r="C34" s="6">
-        <v>26272.3</v>
+        <v>26321.57</v>
       </c>
       <c r="D34" s="6">
-        <v>26406.05</v>
+        <v>26687.72</v>
       </c>
       <c r="E34" s="6">
-        <v>26072.93</v>
+        <v>26321.57</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G34" s="2">
-        <v>-0.0135</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B35" s="6">
-        <v>26484.68</v>
+        <v>26128.2</v>
       </c>
       <c r="C35" s="6">
-        <v>26536.13</v>
+        <v>26272.3</v>
       </c>
       <c r="D35" s="6">
-        <v>26640.53</v>
+        <v>26406.05</v>
       </c>
       <c r="E35" s="6">
-        <v>26403.52</v>
+        <v>26072.93</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2">
-        <v>-0.0013</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B36" s="6">
-        <v>26518.65</v>
+        <v>26484.68</v>
       </c>
       <c r="C36" s="6">
-        <v>26073.69</v>
+        <v>26536.13</v>
       </c>
       <c r="D36" s="6">
-        <v>26562.88</v>
+        <v>26640.53</v>
       </c>
       <c r="E36" s="6">
-        <v>26057.26</v>
+        <v>26403.52</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
       </c>
       <c r="G36" s="2">
-        <v>0.0137</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B37" s="6">
-        <v>26159.12</v>
+        <v>26518.65</v>
       </c>
       <c r="C37" s="6">
-        <v>26435.58</v>
+        <v>26073.69</v>
       </c>
       <c r="D37" s="6">
-        <v>26454.09</v>
+        <v>26562.88</v>
       </c>
       <c r="E37" s="6">
-        <v>26003.67</v>
+        <v>26057.26</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G37" s="2">
-        <v>-0.007</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B38" s="6">
-        <v>26344.14</v>
+        <v>26159.12</v>
       </c>
       <c r="C38" s="6">
-        <v>26459.52</v>
+        <v>26435.58</v>
       </c>
       <c r="D38" s="6">
-        <v>26479.14</v>
+        <v>26454.09</v>
       </c>
       <c r="E38" s="6">
-        <v>26204.01</v>
+        <v>26003.67</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2">
-        <v>-0.0076</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B39" s="6">
-        <v>26545.1</v>
+        <v>26344.14</v>
       </c>
       <c r="C39" s="6">
-        <v>26583.03</v>
+        <v>26459.52</v>
       </c>
       <c r="D39" s="6">
-        <v>26637.64</v>
+        <v>26479.14</v>
       </c>
       <c r="E39" s="6">
-        <v>26414.11</v>
+        <v>26204.01</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B40" s="6">
-        <v>26544.85</v>
+        <v>26545.1</v>
       </c>
       <c r="C40" s="6">
-        <v>26863.69</v>
+        <v>26583.03</v>
       </c>
       <c r="D40" s="6">
-        <v>27058.03</v>
+        <v>26637.64</v>
       </c>
       <c r="E40" s="6">
-        <v>26322.08</v>
+        <v>26414.11</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" s="2">
-        <v>-0.0135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B41" s="6">
-        <v>26908.39</v>
+        <v>26544.85</v>
       </c>
       <c r="C41" s="6">
-        <v>26554.19</v>
+        <v>26863.69</v>
       </c>
       <c r="D41" s="6">
-        <v>26936.5</v>
+        <v>27058.03</v>
       </c>
       <c r="E41" s="6">
-        <v>26540.57</v>
+        <v>26322.08</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="2">
-        <v>0.0178</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B42" s="6">
-        <v>26438.51</v>
+        <v>26908.39</v>
       </c>
       <c r="C42" s="6">
-        <v>26536.63</v>
+        <v>26554.19</v>
       </c>
       <c r="D42" s="6">
-        <v>26601.59</v>
+        <v>26936.5</v>
       </c>
       <c r="E42" s="6">
-        <v>26332.21</v>
+        <v>26540.57</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" s="2">
-        <v>-0.0003</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B43" s="6">
-        <v>26446.56</v>
+        <v>26438.51</v>
       </c>
       <c r="C43" s="6">
-        <v>26308.91</v>
+        <v>26536.63</v>
       </c>
       <c r="D43" s="6">
-        <v>26532.75</v>
+        <v>26601.59</v>
       </c>
       <c r="E43" s="6">
-        <v>26280.23</v>
+        <v>26332.21</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G43" s="2">
-        <v>0.0022</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B44" s="6">
-        <v>26388.16</v>
+        <v>26446.56</v>
       </c>
       <c r="C44" s="6">
-        <v>26539.44</v>
+        <v>26308.91</v>
       </c>
       <c r="D44" s="6">
-        <v>26585.95</v>
+        <v>26532.75</v>
       </c>
       <c r="E44" s="6">
-        <v>26329.66</v>
+        <v>26280.23</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2">
-        <v>0.0116</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B45" s="6">
-        <v>26086.32</v>
+        <v>26388.16</v>
       </c>
       <c r="C45" s="6">
-        <v>25987.49</v>
+        <v>26539.44</v>
       </c>
       <c r="D45" s="6">
-        <v>26241.46</v>
+        <v>26585.95</v>
       </c>
       <c r="E45" s="6">
-        <v>25878.97</v>
+        <v>26329.66</v>
       </c>
       <c r="F45" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="2">
-        <v>-0.0043</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B46" s="6">
-        <v>26200.26</v>
+        <v>26086.32</v>
       </c>
       <c r="C46" s="6">
-        <v>26042.41</v>
+        <v>25987.49</v>
       </c>
       <c r="D46" s="6">
-        <v>26296.6</v>
+        <v>26241.46</v>
       </c>
       <c r="E46" s="6">
-        <v>26017.5</v>
+        <v>25878.97</v>
       </c>
       <c r="F46" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="2">
-        <v>0.0101</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B47" s="6">
-        <v>25938.13</v>
+        <v>26200.26</v>
       </c>
       <c r="C47" s="6">
-        <v>25711.07</v>
+        <v>26042.41</v>
       </c>
       <c r="D47" s="6">
-        <v>26027.94</v>
+        <v>26296.6</v>
       </c>
       <c r="E47" s="6">
-        <v>25675.28</v>
+        <v>26017.5</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
       </c>
       <c r="G47" s="2">
-        <v>0.0119</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B48" s="6">
-        <v>25633.91</v>
+        <v>25938.13</v>
       </c>
       <c r="C48" s="6">
-        <v>25440.01</v>
+        <v>25711.07</v>
       </c>
       <c r="D48" s="6">
-        <v>25664.01</v>
+        <v>26027.94</v>
       </c>
       <c r="E48" s="6">
-        <v>25387.81</v>
+        <v>25675.28</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
       </c>
       <c r="G48" s="2">
-        <v>0.0085</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B49" s="6">
-        <v>25417.98</v>
+        <v>25633.91</v>
       </c>
       <c r="C49" s="6">
-        <v>25136.24</v>
+        <v>25440.01</v>
       </c>
       <c r="D49" s="6">
-        <v>25471.8</v>
+        <v>25664.01</v>
       </c>
       <c r="E49" s="6">
-        <v>25090.65</v>
+        <v>25387.81</v>
       </c>
       <c r="F49" t="s">
         <v>47</v>
       </c>
       <c r="G49" s="2">
-        <v>0.0143</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B50" s="6">
-        <v>25058.51</v>
+        <v>25417.98</v>
       </c>
       <c r="C50" s="6">
-        <v>25489.13</v>
+        <v>25136.24</v>
       </c>
       <c r="D50" s="6">
-        <v>25494.45</v>
+        <v>25471.8</v>
       </c>
       <c r="E50" s="6">
-        <v>25013.26</v>
+        <v>25090.65</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G50" s="2">
-        <v>-0.0112</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B51" s="6">
-        <v>25343.43</v>
+        <v>25058.51</v>
       </c>
       <c r="C51" s="6">
-        <v>25660.65</v>
+        <v>25489.13</v>
       </c>
       <c r="D51" s="6">
-        <v>25789.99</v>
+        <v>25494.45</v>
       </c>
       <c r="E51" s="6">
-        <v>25276.87</v>
+        <v>25013.26</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G51" s="2">
-        <v>-0.006</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B52" s="6">
-        <v>25496.55</v>
+        <v>25343.43</v>
       </c>
       <c r="C52" s="6">
-        <v>25587.97</v>
+        <v>25660.65</v>
       </c>
       <c r="D52" s="6">
-        <v>25724.73</v>
+        <v>25789.99</v>
       </c>
       <c r="E52" s="6">
-        <v>25416.61</v>
+        <v>25276.87</v>
       </c>
       <c r="F52" t="s">
         <v>49</v>
       </c>
       <c r="G52" s="2">
-        <v>-0.0047</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B53" s="6">
-        <v>25617.42</v>
+        <v>25496.55</v>
       </c>
       <c r="C53" s="6">
-        <v>25508.21</v>
+        <v>25587.97</v>
       </c>
       <c r="D53" s="6">
-        <v>25638.34</v>
+        <v>25724.73</v>
       </c>
       <c r="E53" s="6">
-        <v>25471.35</v>
+        <v>25416.61</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G53" s="2">
-        <v>0.0215</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B54" s="6">
-        <v>25077.62</v>
+        <v>25617.42</v>
       </c>
       <c r="C54" s="6">
-        <v>25095.45</v>
+        <v>25508.21</v>
       </c>
       <c r="D54" s="6">
-        <v>25277.51</v>
+        <v>25638.34</v>
       </c>
       <c r="E54" s="6">
-        <v>25066.85</v>
+        <v>25471.35</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G54" s="2">
-        <v>0.0032</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B55" s="6">
-        <v>24998.82</v>
+        <v>25077.62</v>
       </c>
       <c r="C55" s="6">
-        <v>25030.54</v>
+        <v>25095.45</v>
       </c>
       <c r="D55" s="6">
-        <v>25093.65</v>
+        <v>25277.51</v>
       </c>
       <c r="E55" s="6">
-        <v>24808.78</v>
+        <v>25066.85</v>
       </c>
       <c r="F55" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="2">
-        <v>-0.0081</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B56" s="6">
-        <v>25201.76</v>
+        <v>24998.82</v>
       </c>
       <c r="C56" s="6">
-        <v>25626.17</v>
+        <v>25030.54</v>
       </c>
       <c r="D56" s="6">
-        <v>25653.92</v>
+        <v>25093.65</v>
       </c>
       <c r="E56" s="6">
-        <v>25140.17</v>
+        <v>24808.78</v>
       </c>
       <c r="F56" t="s">
         <v>52</v>
       </c>
       <c r="G56" s="2">
-        <v>-0.0127</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B57" s="6">
-        <v>25524.92</v>
+        <v>25201.76</v>
       </c>
       <c r="C57" s="6">
-        <v>25714.91</v>
+        <v>25626.17</v>
       </c>
       <c r="D57" s="6">
-        <v>25819.7</v>
+        <v>25653.92</v>
       </c>
       <c r="E57" s="6">
-        <v>25524.92</v>
+        <v>25140.17</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="2">
-        <v>-0.0118</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B58" s="6">
-        <v>25829.91</v>
+        <v>25524.92</v>
       </c>
       <c r="C58" s="6">
-        <v>25606.88</v>
+        <v>25714.91</v>
       </c>
       <c r="D58" s="6">
-        <v>25918.86</v>
+        <v>25819.7</v>
       </c>
       <c r="E58" s="6">
-        <v>25590.62</v>
+        <v>25524.92</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
       </c>
       <c r="G58" s="2">
-        <v>0.0194</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B59" s="6">
-        <v>25339.14</v>
+        <v>25829.91</v>
       </c>
       <c r="C59" s="6">
-        <v>25205.04</v>
+        <v>25606.88</v>
       </c>
       <c r="D59" s="6">
-        <v>25349.08</v>
+        <v>25918.86</v>
       </c>
       <c r="E59" s="6">
-        <v>25140.08</v>
+        <v>25590.62</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
       </c>
       <c r="G59" s="2">
-        <v>0.0093</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B60" s="6">
-        <v>25104.61</v>
+        <v>25339.14</v>
       </c>
       <c r="C60" s="6">
-        <v>25216.42</v>
+        <v>25205.04</v>
       </c>
       <c r="D60" s="6">
-        <v>25216.42</v>
+        <v>25349.08</v>
       </c>
       <c r="E60" s="6">
-        <v>25000.85</v>
+        <v>25140.08</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G60" s="2">
-        <v>-0.0024</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B61" s="6">
-        <v>25165.94</v>
+        <v>25104.61</v>
       </c>
       <c r="C61" s="6">
-        <v>24968.57</v>
+        <v>25216.42</v>
       </c>
       <c r="D61" s="6">
-        <v>25210.9</v>
+        <v>25216.42</v>
       </c>
       <c r="E61" s="6">
-        <v>24887.93</v>
+        <v>25000.85</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2">
-        <v>0.0017</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B62" s="6">
-        <v>25122.9</v>
+        <v>25165.94</v>
       </c>
       <c r="C62" s="6">
-        <v>25241.29</v>
+        <v>24968.57</v>
       </c>
       <c r="D62" s="6">
-        <v>25260.58</v>
+        <v>25210.9</v>
       </c>
       <c r="E62" s="6">
-        <v>25083.2</v>
+        <v>24887.93</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
       </c>
       <c r="G62" s="2">
-        <v>-0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B63" s="6">
-        <v>25176.85</v>
+        <v>25122.9</v>
       </c>
       <c r="C63" s="6">
-        <v>25293.34</v>
+        <v>25241.29</v>
       </c>
       <c r="D63" s="6">
-        <v>25466.1</v>
+        <v>25260.58</v>
       </c>
       <c r="E63" s="6">
-        <v>25176.85</v>
+        <v>25083.2</v>
       </c>
       <c r="F63" t="s">
         <v>58</v>
       </c>
       <c r="G63" s="2">
-        <v>-0.0037</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="B64" s="6">
-        <v>25270.07</v>
+        <v>25176.85</v>
       </c>
       <c r="C64" s="6">
-        <v>25322.1</v>
+        <v>25293.34</v>
       </c>
       <c r="D64" s="6">
-        <v>25356.54</v>
+        <v>25466.1</v>
       </c>
       <c r="E64" s="6">
-        <v>25167.81</v>
+        <v>25176.85</v>
       </c>
       <c r="F64" t="s">
         <v>59</v>
       </c>
       <c r="G64" s="2">
-        <v>-0.0098</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="B65" s="6">
-        <v>25519.32</v>
+        <v>25270.07</v>
       </c>
       <c r="C65" s="6">
-        <v>25766.62</v>
+        <v>25322.1</v>
       </c>
       <c r="D65" s="6">
-        <v>25766.62</v>
+        <v>25356.54</v>
       </c>
       <c r="E65" s="6">
-        <v>25449.8</v>
+        <v>25167.81</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G65" s="2">
-        <v>-0.0037</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B66" s="6">
-        <v>25613.67</v>
+        <v>25519.32</v>
       </c>
       <c r="C66" s="6">
-        <v>25176.52</v>
+        <v>25766.62</v>
       </c>
       <c r="D66" s="6">
-        <v>25613.67</v>
+        <v>25766.62</v>
       </c>
       <c r="E66" s="6">
-        <v>25176.52</v>
+        <v>25449.8</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G66" s="2">
-        <v>0.0258</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B67" s="6">
-        <v>24969.68</v>
+        <v>25613.67</v>
       </c>
       <c r="C67" s="6">
-        <v>24824.07</v>
+        <v>25176.52</v>
       </c>
       <c r="D67" s="6">
-        <v>25016.29</v>
+        <v>25613.67</v>
       </c>
       <c r="E67" s="6">
-        <v>24801.13</v>
+        <v>25176.52</v>
       </c>
       <c r="F67" t="s">
         <v>61</v>
       </c>
       <c r="G67" s="2">
-        <v>0.0025</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B68" s="6">
-        <v>24906.81</v>
+        <v>24969.68</v>
       </c>
       <c r="C68" s="6">
-        <v>24946.55</v>
+        <v>24824.07</v>
       </c>
       <c r="D68" s="6">
-        <v>24969.3</v>
+        <v>25016.29</v>
       </c>
       <c r="E68" s="6">
-        <v>24775.73</v>
+        <v>24801.13</v>
       </c>
       <c r="F68" t="s">
         <v>62</v>
       </c>
       <c r="G68" s="2">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B69" s="6">
-        <v>24858.82</v>
+        <v>24906.81</v>
       </c>
       <c r="C69" s="6">
-        <v>24968.31</v>
+        <v>24946.55</v>
       </c>
       <c r="D69" s="6">
-        <v>24999.11</v>
+        <v>24969.3</v>
       </c>
       <c r="E69" s="6">
-        <v>24812.12</v>
+        <v>24775.73</v>
       </c>
       <c r="F69" t="s">
         <v>63</v>
       </c>
       <c r="G69" s="2">
-        <v>-0.0089</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B70" s="6">
-        <v>25081.63</v>
+        <v>24858.82</v>
       </c>
       <c r="C70" s="6">
-        <v>24982.5</v>
+        <v>24968.31</v>
       </c>
       <c r="D70" s="6">
-        <v>25115.16</v>
+        <v>24999.11</v>
       </c>
       <c r="E70" s="6">
-        <v>24820.6</v>
+        <v>24812.12</v>
       </c>
       <c r="F70" t="s">
         <v>64</v>
       </c>
       <c r="G70" s="2">
-        <v>0.0069</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B71" s="6">
-        <v>24910.63</v>
+        <v>25081.63</v>
       </c>
       <c r="C71" s="6">
-        <v>24864.15</v>
+        <v>24982.5</v>
       </c>
       <c r="D71" s="6">
-        <v>25002.97</v>
+        <v>25115.16</v>
       </c>
       <c r="E71" s="6">
-        <v>24806.46</v>
+        <v>24820.6</v>
       </c>
       <c r="F71" t="s">
         <v>65</v>
       </c>
       <c r="G71" s="2">
-        <v>0.0003</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B72" s="6">
-        <v>24902.53</v>
+        <v>24910.63</v>
       </c>
       <c r="C72" s="6">
-        <v>24746.81</v>
+        <v>24864.15</v>
       </c>
       <c r="D72" s="6">
-        <v>24925.9</v>
+        <v>25002.97</v>
       </c>
       <c r="E72" s="6">
-        <v>24686.85</v>
+        <v>24806.46</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G72" s="2">
-        <v>0.0068</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B73" s="6">
-        <v>24733.45</v>
+        <v>24902.53</v>
       </c>
       <c r="C73" s="6">
-        <v>24431.88</v>
+        <v>24746.81</v>
       </c>
       <c r="D73" s="6">
-        <v>24748.76</v>
+        <v>24925.9</v>
       </c>
       <c r="E73" s="6">
-        <v>24372.51</v>
+        <v>24686.85</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G73" s="2">
-        <v>0.0092</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B74" s="6">
-        <v>24507.81</v>
+        <v>24733.45</v>
       </c>
       <c r="C74" s="6">
-        <v>24744.34</v>
+        <v>24431.88</v>
       </c>
       <c r="D74" s="6">
-        <v>24856.54</v>
+        <v>24748.76</v>
       </c>
       <c r="E74" s="6">
-        <v>24507.63</v>
+        <v>24372.51</v>
       </c>
       <c r="F74" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="2">
-        <v>-0.0107</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B75" s="6">
-        <v>24773.33</v>
+        <v>24507.81</v>
       </c>
       <c r="C75" s="6">
-        <v>24982.87</v>
+        <v>24744.34</v>
       </c>
       <c r="D75" s="6">
-        <v>25000.06</v>
+        <v>24856.54</v>
       </c>
       <c r="E75" s="6">
-        <v>24744.92</v>
+        <v>24507.63</v>
       </c>
       <c r="F75" t="s">
         <v>68</v>
       </c>
       <c r="G75" s="2">
-        <v>-0.016</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B76" s="6">
-        <v>25176.93</v>
+        <v>24773.33</v>
       </c>
       <c r="C76" s="6">
-        <v>25335.21</v>
+        <v>24982.87</v>
       </c>
       <c r="D76" s="6">
-        <v>25499.57</v>
+        <v>25000.06</v>
       </c>
       <c r="E76" s="6">
-        <v>25082.2</v>
+        <v>24744.92</v>
       </c>
       <c r="F76" t="s">
         <v>69</v>
       </c>
       <c r="G76" s="2">
-        <v>-0.0136</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B77" s="6">
-        <v>25524.45</v>
+        <v>25176.93</v>
       </c>
       <c r="C77" s="6">
-        <v>25454.83</v>
+        <v>25335.21</v>
       </c>
       <c r="D77" s="6">
-        <v>25530.42</v>
+        <v>25499.57</v>
       </c>
       <c r="E77" s="6">
-        <v>25252.32</v>
+        <v>25082.2</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G77" s="2">
-        <v>-0.0015</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B78" s="6">
-        <v>25562.13</v>
+        <v>25524.45</v>
       </c>
       <c r="C78" s="6">
-        <v>25458.87</v>
+        <v>25454.83</v>
       </c>
       <c r="D78" s="6">
-        <v>25667.4</v>
+        <v>25530.42</v>
       </c>
       <c r="E78" s="6">
-        <v>25399.36</v>
+        <v>25252.32</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G78" s="2">
-        <v>0.0068</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B79" s="6">
-        <v>25388.35</v>
+        <v>25562.13</v>
       </c>
       <c r="C79" s="6">
-        <v>25531.59</v>
+        <v>25458.87</v>
       </c>
       <c r="D79" s="6">
-        <v>25585.73</v>
+        <v>25667.4</v>
       </c>
       <c r="E79" s="6">
-        <v>25355.31</v>
+        <v>25399.36</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G79" s="2">
-        <v>-0.0109</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B80" s="6">
-        <v>25667.18</v>
+        <v>25388.35</v>
       </c>
       <c r="C80" s="6">
-        <v>25528.22</v>
+        <v>25531.59</v>
       </c>
       <c r="D80" s="6">
-        <v>25735.89</v>
+        <v>25585.73</v>
       </c>
       <c r="E80" s="6">
-        <v>25502.49</v>
+        <v>25355.31</v>
       </c>
       <c r="F80" t="s">
         <v>71</v>
       </c>
       <c r="G80" s="2">
-        <v>0.0051</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B81" s="6">
-        <v>25538.07</v>
+        <v>25667.18</v>
       </c>
       <c r="C81" s="6">
-        <v>25348.3</v>
+        <v>25528.22</v>
       </c>
       <c r="D81" s="6">
-        <v>25538.07</v>
+        <v>25735.89</v>
       </c>
       <c r="E81" s="6">
-        <v>25228.01</v>
+        <v>25502.49</v>
       </c>
       <c r="F81" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G81" s="2">
-        <v>0.0162</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B82" s="6">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="C82" s="6">
-        <v>25024.93</v>
+        <v>25348.3</v>
       </c>
       <c r="D82" s="6">
-        <v>25130.03</v>
+        <v>25538.07</v>
       </c>
       <c r="E82" s="6">
-        <v>24900.59</v>
+        <v>25228.01</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G82" s="2">
-        <v>0.0054</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B83" s="6">
-        <v>24994.14</v>
+        <v>25130.03</v>
       </c>
       <c r="C83" s="6">
-        <v>24991.14</v>
+        <v>25024.93</v>
       </c>
       <c r="D83" s="6">
-        <v>25010.9</v>
+        <v>25130.03</v>
       </c>
       <c r="E83" s="6">
-        <v>24844.8</v>
+        <v>24900.59</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G83" s="2">
-        <v>0.0068</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B84" s="6">
-        <v>24825.66</v>
+        <v>24994.14</v>
       </c>
       <c r="C84" s="6">
-        <v>24757.83</v>
+        <v>24991.14</v>
       </c>
       <c r="D84" s="6">
-        <v>24825.66</v>
+        <v>25010.9</v>
       </c>
       <c r="E84" s="6">
-        <v>24630.79</v>
+        <v>24844.8</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G84" s="2">
-        <v>0.0133</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B85" s="6">
-        <v>24498.95</v>
+        <v>24825.66</v>
       </c>
       <c r="C85" s="6">
-        <v>24547.08</v>
+        <v>24757.83</v>
       </c>
       <c r="D85" s="6">
-        <v>24672.51</v>
+        <v>24825.66</v>
       </c>
       <c r="E85" s="6">
-        <v>24447.93</v>
+        <v>24630.79</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="G85" s="2">
-        <v>-0.0008</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B86" s="6">
-        <v>24517.76</v>
+        <v>24498.95</v>
       </c>
       <c r="C86" s="6">
-        <v>24704.05</v>
+        <v>24547.08</v>
       </c>
       <c r="D86" s="6">
-        <v>24867.81</v>
+        <v>24672.51</v>
       </c>
       <c r="E86" s="6">
-        <v>24517.75</v>
+        <v>24447.93</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G86" s="2">
-        <v>-0.0029</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B87" s="6">
-        <v>24590.12</v>
+        <v>24517.76</v>
       </c>
       <c r="C87" s="6">
-        <v>24281.94</v>
+        <v>24704.05</v>
       </c>
       <c r="D87" s="6">
-        <v>24590.12</v>
+        <v>24867.81</v>
       </c>
       <c r="E87" s="6">
-        <v>24141.88</v>
+        <v>24517.75</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2">
-        <v>0.016</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B88" s="6">
-        <v>24203.32</v>
+        <v>24590.12</v>
       </c>
       <c r="C88" s="6">
-        <v>24100.57</v>
+        <v>24281.94</v>
       </c>
       <c r="D88" s="6">
-        <v>24267.84</v>
+        <v>24590.12</v>
       </c>
       <c r="E88" s="6">
-        <v>24097.32</v>
+        <v>24141.88</v>
       </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G88" s="2">
-        <v>0.0026</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B89" s="6">
-        <v>24139.57</v>
+        <v>24203.32</v>
       </c>
       <c r="C89" s="6">
-        <v>24033.12</v>
+        <v>24100.57</v>
       </c>
       <c r="D89" s="6">
-        <v>24506.3</v>
+        <v>24267.84</v>
       </c>
       <c r="E89" s="6">
-        <v>24033.12</v>
+        <v>24097.32</v>
       </c>
       <c r="F89" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G89" s="2">
-        <v>0.0046</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B90" s="6">
-        <v>24028.37</v>
+        <v>24139.57</v>
       </c>
       <c r="C90" s="6">
-        <v>23865.64</v>
+        <v>24033.12</v>
       </c>
       <c r="D90" s="6">
-        <v>24087.59</v>
+        <v>24506.3</v>
       </c>
       <c r="E90" s="6">
-        <v>23820.58</v>
+        <v>24033.12</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G90" s="2">
-        <v>0.0057</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B91" s="6">
-        <v>23892.32</v>
+        <v>24028.37</v>
       </c>
       <c r="C91" s="6">
-        <v>24061.08</v>
+        <v>23865.64</v>
       </c>
       <c r="D91" s="6">
-        <v>24061.08</v>
+        <v>24087.59</v>
       </c>
       <c r="E91" s="6">
-        <v>23827.15</v>
+        <v>23820.58</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G91" s="2">
-        <v>-0.0106</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B92" s="6">
-        <v>24148.07</v>
+        <v>23892.32</v>
       </c>
       <c r="C92" s="6">
-        <v>23927.53</v>
+        <v>24061.08</v>
       </c>
       <c r="D92" s="6">
-        <v>24159.01</v>
+        <v>24061.08</v>
       </c>
       <c r="E92" s="6">
-        <v>23899.6</v>
+        <v>23827.15</v>
       </c>
       <c r="F92" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G92" s="2">
-        <v>0.0109</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B93" s="6">
-        <v>23887.83</v>
+        <v>24148.07</v>
       </c>
       <c r="C93" s="6">
-        <v>23828.85</v>
+        <v>23927.53</v>
       </c>
       <c r="D93" s="6">
-        <v>23910.95</v>
+        <v>24159.01</v>
       </c>
       <c r="E93" s="6">
-        <v>23713.78</v>
+        <v>23899.6</v>
       </c>
       <c r="F93" t="s">
         <v>76</v>
       </c>
       <c r="G93" s="2">
-        <v>-0.0012</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B94" s="6">
-        <v>23916.06</v>
+        <v>23887.83</v>
       </c>
       <c r="C94" s="6">
-        <v>23900.69</v>
+        <v>23828.85</v>
       </c>
       <c r="D94" s="6">
-        <v>24068.51</v>
+        <v>23910.95</v>
       </c>
       <c r="E94" s="6">
-        <v>23690.94</v>
+        <v>23713.78</v>
       </c>
       <c r="F94" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G94" s="2">
-        <v>-0.0064</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B95" s="6">
-        <v>24069.94</v>
+        <v>23916.06</v>
       </c>
       <c r="C95" s="6">
-        <v>24234.28</v>
+        <v>23900.69</v>
       </c>
       <c r="D95" s="6">
-        <v>24269.14</v>
+        <v>24068.51</v>
       </c>
       <c r="E95" s="6">
-        <v>23920</v>
+        <v>23690.94</v>
       </c>
       <c r="F95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G95" s="2">
-        <v>-0.0063</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B96" s="6">
-        <v>24221.41</v>
+        <v>24069.94</v>
       </c>
       <c r="C96" s="6">
-        <v>24304.31</v>
+        <v>24234.28</v>
       </c>
       <c r="D96" s="6">
-        <v>24372.7</v>
+        <v>24269.14</v>
       </c>
       <c r="E96" s="6">
-        <v>24122.57</v>
+        <v>23920</v>
       </c>
       <c r="F96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G96" s="2">
-        <v>0.0062</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B97" s="6">
-        <v>24072.28</v>
+        <v>24221.41</v>
       </c>
       <c r="C97" s="6">
-        <v>24274.91</v>
+        <v>24304.31</v>
       </c>
       <c r="D97" s="6">
-        <v>24274.91</v>
+        <v>24372.7</v>
       </c>
       <c r="E97" s="6">
-        <v>24064.26</v>
+        <v>24122.57</v>
       </c>
       <c r="F97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G97" s="2">
-        <v>-0.0087</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B98" s="6">
-        <v>24284.15</v>
+        <v>24072.28</v>
       </c>
       <c r="C98" s="6">
-        <v>24451.19</v>
+        <v>24274.91</v>
       </c>
       <c r="D98" s="6">
-        <v>24471.53</v>
+        <v>24274.91</v>
       </c>
       <c r="E98" s="6">
-        <v>24194.85</v>
+        <v>24064.26</v>
       </c>
       <c r="F98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G98" s="2">
-        <v>-0.0017</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B99" s="6">
-        <v>24325.4</v>
+        <v>24284.15</v>
       </c>
       <c r="C99" s="6">
-        <v>24345.29</v>
+        <v>24451.19</v>
       </c>
       <c r="D99" s="6">
-        <v>24411.48</v>
+        <v>24471.53</v>
       </c>
       <c r="E99" s="6">
-        <v>24235.54</v>
+        <v>24194.85</v>
       </c>
       <c r="F99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G99" s="2">
-        <v>-0.0061</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B100" s="6">
-        <v>24474.67</v>
+        <v>24325.4</v>
       </c>
       <c r="C100" s="6">
-        <v>24327.82</v>
+        <v>24345.29</v>
       </c>
       <c r="D100" s="6">
-        <v>24533.39</v>
+        <v>24411.48</v>
       </c>
       <c r="E100" s="6">
-        <v>24287.86</v>
+        <v>24235.54</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G100" s="2">
-        <v>0.0123</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B101" s="6">
-        <v>24177.07</v>
+        <v>24474.67</v>
       </c>
       <c r="C101" s="6">
-        <v>23832.73</v>
+        <v>24327.82</v>
       </c>
       <c r="D101" s="6">
-        <v>24229.21</v>
+        <v>24533.39</v>
       </c>
       <c r="E101" s="6">
-        <v>23832.73</v>
+        <v>24287.86</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G101" s="2">
-        <v>0.0206</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B102" s="6">
-        <v>23689.13</v>
+        <v>24177.07</v>
       </c>
       <c r="C102" s="6">
-        <v>23335.51</v>
+        <v>23832.73</v>
       </c>
       <c r="D102" s="6">
-        <v>23689.13</v>
+        <v>24229.21</v>
       </c>
       <c r="E102" s="6">
-        <v>23272.75</v>
+        <v>23832.73</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G102" s="2">
-        <v>0.0067</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B103" s="6">
-        <v>23530.48</v>
+        <v>23689.13</v>
       </c>
       <c r="C103" s="6">
-        <v>23291.4</v>
+        <v>23335.51</v>
       </c>
       <c r="D103" s="6">
-        <v>23538.63</v>
+        <v>23689.13</v>
       </c>
       <c r="E103" s="6">
-        <v>23291.4</v>
+        <v>23272.75</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G103" s="2">
-        <v>0.0126</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B104" s="6">
-        <v>23237.74</v>
+        <v>23530.48</v>
       </c>
       <c r="C104" s="6">
-        <v>23620.02</v>
+        <v>23291.4</v>
       </c>
       <c r="D104" s="6">
-        <v>23653.55</v>
+        <v>23538.63</v>
       </c>
       <c r="E104" s="6">
-        <v>23185.58</v>
+        <v>23291.4</v>
       </c>
       <c r="F104" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G104" s="2">
-        <v>-0.0199</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B105" s="6">
-        <v>23710.69</v>
+        <v>23237.74</v>
       </c>
       <c r="C105" s="6">
-        <v>23859.55</v>
+        <v>23620.02</v>
       </c>
       <c r="D105" s="6">
-        <v>23880.24</v>
+        <v>23653.55</v>
       </c>
       <c r="E105" s="6">
-        <v>23631.48</v>
+        <v>23185.58</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G105" s="2">
-        <v>-0.0112</v>
+        <v>-0.0199</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B106" s="6">
-        <v>23980.3</v>
+        <v>23710.69</v>
       </c>
       <c r="C106" s="6">
-        <v>24107.34</v>
+        <v>23859.55</v>
       </c>
       <c r="D106" s="6">
-        <v>24131.44</v>
+        <v>23880.24</v>
       </c>
       <c r="E106" s="6">
-        <v>23880.67</v>
+        <v>23631.48</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G106" s="2">
-        <v>-0.0034</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B107" s="6">
-        <v>24060.99</v>
+        <v>23980.3</v>
       </c>
       <c r="C107" s="6">
-        <v>23791.79</v>
+        <v>24107.34</v>
       </c>
       <c r="D107" s="6">
-        <v>24125.05</v>
+        <v>24131.44</v>
       </c>
       <c r="E107" s="6">
-        <v>23718.72</v>
+        <v>23880.67</v>
       </c>
       <c r="F107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G107" s="2">
-        <v>0.007</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B108" s="6">
-        <v>23892.56</v>
+        <v>24060.99</v>
       </c>
       <c r="C108" s="6">
-        <v>23959.81</v>
+        <v>23791.79</v>
       </c>
       <c r="D108" s="6">
-        <v>24100.32</v>
+        <v>24125.05</v>
       </c>
       <c r="E108" s="6">
-        <v>23774.92</v>
+        <v>23718.72</v>
       </c>
       <c r="F108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G108" s="2">
-        <v>-0.0059</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B109" s="6">
-        <v>24035.38</v>
+        <v>23892.56</v>
       </c>
       <c r="C109" s="6">
-        <v>24223.12</v>
+        <v>23959.81</v>
       </c>
       <c r="D109" s="6">
-        <v>24288.76</v>
+        <v>24100.32</v>
       </c>
       <c r="E109" s="6">
-        <v>24002.42</v>
+        <v>23774.92</v>
       </c>
       <c r="F109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G109" s="2">
-        <v>-0.0136</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B110" s="6">
-        <v>24366.94</v>
+        <v>24035.38</v>
       </c>
       <c r="C110" s="6">
-        <v>24191.32</v>
+        <v>24223.12</v>
       </c>
       <c r="D110" s="6">
-        <v>24439.35</v>
+        <v>24288.76</v>
       </c>
       <c r="E110" s="6">
-        <v>24179.35</v>
+        <v>24002.42</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="G110" s="2">
-        <v>0.0084</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B111" s="6">
-        <v>24162.87</v>
+        <v>24366.94</v>
       </c>
       <c r="C111" s="6">
-        <v>24231.31</v>
+        <v>24191.32</v>
       </c>
       <c r="D111" s="6">
-        <v>24296.47</v>
+        <v>24439.35</v>
       </c>
       <c r="E111" s="6">
-        <v>24003.38</v>
+        <v>24179.35</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G111" s="2">
-        <v>-0.0008</v>
+        <v>0.0084</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B112" s="6">
-        <v>24181.43</v>
+        <v>24162.87</v>
       </c>
       <c r="C112" s="6">
-        <v>23977.54</v>
+        <v>24231.31</v>
       </c>
       <c r="D112" s="6">
-        <v>24181.43</v>
+        <v>24296.47</v>
       </c>
       <c r="E112" s="6">
-        <v>23957.96</v>
+        <v>24003.38</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G112" s="2">
-        <v>0.0163</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B113" s="6">
-        <v>23792.54</v>
+        <v>24181.43</v>
       </c>
       <c r="C113" s="6">
-        <v>23941.57</v>
+        <v>23977.54</v>
       </c>
       <c r="D113" s="6">
-        <v>23951.14</v>
+        <v>24181.43</v>
       </c>
       <c r="E113" s="6">
-        <v>23773.36</v>
+        <v>23957.96</v>
       </c>
       <c r="F113" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G113" s="2">
-        <v>-0.0048</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="B114" s="6">
-        <v>23906.97</v>
+        <v>23792.54</v>
       </c>
       <c r="C114" s="6">
-        <v>23828.69</v>
+        <v>23941.57</v>
       </c>
       <c r="D114" s="6">
-        <v>23911.14</v>
+        <v>23951.14</v>
       </c>
       <c r="E114" s="6">
-        <v>23732.31</v>
+        <v>23773.36</v>
       </c>
       <c r="F114" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G114" s="2">
-        <v>0.0107</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B115" s="6">
-        <v>23654.03</v>
+        <v>23906.97</v>
       </c>
       <c r="C115" s="6">
-        <v>23499.78</v>
+        <v>23828.69</v>
       </c>
       <c r="D115" s="6">
-        <v>23716.93</v>
+        <v>23911.14</v>
       </c>
       <c r="E115" s="6">
-        <v>23481.46</v>
+        <v>23732.31</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G115" s="2">
-        <v>0.006</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B116" s="6">
-        <v>23512.49</v>
+        <v>23654.03</v>
       </c>
       <c r="C116" s="6">
-        <v>23281.1</v>
+        <v>23499.78</v>
       </c>
       <c r="D116" s="6">
-        <v>23535.37</v>
+        <v>23716.93</v>
       </c>
       <c r="E116" s="6">
-        <v>23281.1</v>
+        <v>23481.46</v>
       </c>
       <c r="F116" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G116" s="2">
-        <v>0.0153</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="B117" s="6">
-        <v>23157.97</v>
+        <v>23512.49</v>
       </c>
       <c r="C117" s="6">
-        <v>23043.1</v>
+        <v>23281.1</v>
       </c>
       <c r="D117" s="6">
-        <v>23163.35</v>
+        <v>23535.37</v>
       </c>
       <c r="E117" s="6">
-        <v>22668.35</v>
+        <v>23281.1</v>
       </c>
       <c r="F117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G117" s="2">
-        <v>-0.0057</v>
+        <v>0.0153</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B118" s="6">
-        <v>23289.77</v>
+        <v>23157.97</v>
       </c>
       <c r="C118" s="6">
-        <v>23339.64</v>
+        <v>23043.1</v>
       </c>
       <c r="D118" s="6">
-        <v>23375.34</v>
+        <v>23163.35</v>
       </c>
       <c r="E118" s="6">
-        <v>23163.22</v>
+        <v>22668.35</v>
       </c>
       <c r="F118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G118" s="2">
-        <v>-0.012</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B119" s="6">
-        <v>23573.38</v>
+        <v>23289.77</v>
       </c>
       <c r="C119" s="6">
-        <v>23240.71</v>
+        <v>23339.64</v>
       </c>
       <c r="D119" s="6">
-        <v>23603.82</v>
+        <v>23375.34</v>
       </c>
       <c r="E119" s="6">
-        <v>23207.37</v>
+        <v>23163.22</v>
       </c>
       <c r="F119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G119" s="2">
-        <v>0.0135</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B120" s="6">
-        <v>23258.31</v>
+        <v>23573.38</v>
       </c>
       <c r="C120" s="6">
-        <v>23385.18</v>
+        <v>23240.71</v>
       </c>
       <c r="D120" s="6">
-        <v>23476.22</v>
+        <v>23603.82</v>
       </c>
       <c r="E120" s="6">
-        <v>23180.17</v>
+        <v>23207.37</v>
       </c>
       <c r="F120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G120" s="2">
-        <v>-0.0053</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B121" s="6">
-        <v>23381.99</v>
+        <v>23258.31</v>
       </c>
       <c r="C121" s="6">
-        <v>23216.87</v>
+        <v>23385.18</v>
       </c>
       <c r="D121" s="6">
-        <v>23419.55</v>
+        <v>23476.22</v>
       </c>
       <c r="E121" s="6">
-        <v>23167.56</v>
+        <v>23180.17</v>
       </c>
       <c r="F121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G121" s="2">
-        <v>0.0043</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="B122" s="6">
-        <v>23282.33</v>
+        <v>23381.99</v>
       </c>
       <c r="C122" s="6">
-        <v>23505.9</v>
+        <v>23216.87</v>
       </c>
       <c r="D122" s="6">
-        <v>23571.02</v>
+        <v>23419.55</v>
       </c>
       <c r="E122" s="6">
-        <v>23234.27</v>
+        <v>23167.56</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G122" s="2">
-        <v>-0.0135</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B123" s="6">
-        <v>23601.26</v>
+        <v>23282.33</v>
       </c>
       <c r="C123" s="6">
-        <v>23557.38</v>
+        <v>23505.9</v>
       </c>
       <c r="D123" s="6">
-        <v>23749.38</v>
+        <v>23571.02</v>
       </c>
       <c r="E123" s="6">
-        <v>23487.4</v>
+        <v>23234.27</v>
       </c>
       <c r="F123" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2">
-        <v>0.0024</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B124" s="6">
-        <v>23544.31</v>
+        <v>23601.26</v>
       </c>
       <c r="C124" s="6">
-        <v>23748.58</v>
+        <v>23557.38</v>
       </c>
       <c r="D124" s="6">
-        <v>23778.24</v>
+        <v>23749.38</v>
       </c>
       <c r="E124" s="6">
-        <v>23470.81</v>
+        <v>23487.4</v>
       </c>
       <c r="F124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G124" s="2">
-        <v>-0.0119</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="B125" s="6">
-        <v>23827.78</v>
+        <v>23544.31</v>
       </c>
       <c r="C125" s="6">
-        <v>23736.43</v>
+        <v>23748.58</v>
       </c>
       <c r="D125" s="6">
-        <v>23917</v>
+        <v>23778.24</v>
       </c>
       <c r="E125" s="6">
-        <v>23697.76</v>
+        <v>23470.81</v>
       </c>
       <c r="F125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G125" s="2">
-        <v>0.0062</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B126" s="6">
-        <v>23681.48</v>
+        <v>23827.78</v>
       </c>
       <c r="C126" s="6">
-        <v>23398.35</v>
+        <v>23736.43</v>
       </c>
       <c r="D126" s="6">
-        <v>23709.04</v>
+        <v>23917</v>
       </c>
       <c r="E126" s="6">
-        <v>23357</v>
+        <v>23697.76</v>
       </c>
       <c r="F126" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="G126" s="2">
-        <v>0.0149</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B127" s="6">
-        <v>23332.72</v>
+        <v>23681.48</v>
       </c>
       <c r="C127" s="6">
-        <v>23156.27</v>
+        <v>23398.35</v>
       </c>
       <c r="D127" s="6">
-        <v>23402.2</v>
+        <v>23709.04</v>
       </c>
       <c r="E127" s="6">
-        <v>23059.89</v>
+        <v>23357</v>
       </c>
       <c r="F127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G127" s="2">
-        <v>-0.0005</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B128" s="6">
-        <v>23345.05</v>
+        <v>23332.72</v>
       </c>
       <c r="C128" s="6">
-        <v>23249.16</v>
+        <v>23156.27</v>
       </c>
       <c r="D128" s="6">
-        <v>23374.7</v>
+        <v>23402.2</v>
       </c>
       <c r="E128" s="6">
-        <v>23190.31</v>
+        <v>23059.89</v>
       </c>
       <c r="F128" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G128" s="2">
-        <v>-0.0046</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="B129" s="6">
-        <v>23453.16</v>
+        <v>23345.05</v>
       </c>
       <c r="C129" s="6">
-        <v>23644.4</v>
+        <v>23249.16</v>
       </c>
       <c r="D129" s="6">
-        <v>23710.82</v>
+        <v>23374.7</v>
       </c>
       <c r="E129" s="6">
-        <v>23371.73</v>
+        <v>23190.31</v>
       </c>
       <c r="F129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G129" s="2">
-        <v>-0.0079</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B130" s="6">
-        <v>23640.65</v>
+        <v>23453.16</v>
       </c>
       <c r="C130" s="6">
-        <v>23316.45</v>
+        <v>23644.4</v>
       </c>
       <c r="D130" s="6">
-        <v>23640.65</v>
+        <v>23710.82</v>
       </c>
       <c r="E130" s="6">
-        <v>23278.22</v>
+        <v>23371.73</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G130" s="2">
-        <v>0.023</v>
+        <v>-0.0079</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B131" s="6">
-        <v>23108.27</v>
+        <v>23640.65</v>
       </c>
       <c r="C131" s="6">
-        <v>23494.44</v>
+        <v>23316.45</v>
       </c>
       <c r="D131" s="6">
-        <v>23494.44</v>
+        <v>23640.65</v>
       </c>
       <c r="E131" s="6">
-        <v>23070.48</v>
+        <v>23278.22</v>
       </c>
       <c r="F131" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="G131" s="2">
-        <v>-0.0187</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>45789</v>
+        <v>45790</v>
       </c>
       <c r="B132" s="6">
-        <v>23549.46</v>
+        <v>23108.27</v>
       </c>
       <c r="C132" s="6">
-        <v>23183.81</v>
+        <v>23494.44</v>
       </c>
       <c r="D132" s="6">
-        <v>23685.34</v>
+        <v>23494.44</v>
       </c>
       <c r="E132" s="6">
-        <v>22982.91</v>
+        <v>23070.48</v>
       </c>
       <c r="F132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G132" s="2">
-        <v>0.0298</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>45786</v>
+        <v>45789</v>
       </c>
       <c r="B133" s="6">
-        <v>22867.74</v>
+        <v>23549.46</v>
       </c>
       <c r="C133" s="6">
-        <v>22856.21</v>
+        <v>23183.81</v>
       </c>
       <c r="D133" s="6">
-        <v>22907.91</v>
+        <v>23685.34</v>
       </c>
       <c r="E133" s="6">
-        <v>22692.44</v>
+        <v>22982.91</v>
       </c>
       <c r="F133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G133" s="2">
-        <v>0.004</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>45785</v>
+        <v>45786</v>
       </c>
       <c r="B134" s="6">
-        <v>22775.92</v>
+        <v>22867.74</v>
       </c>
       <c r="C134" s="6">
-        <v>22589.13</v>
+        <v>22856.21</v>
       </c>
       <c r="D134" s="6">
-        <v>22979.29</v>
+        <v>22907.91</v>
       </c>
       <c r="E134" s="6">
-        <v>22589.13</v>
+        <v>22692.44</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G134" s="2">
-        <v>0.0037</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="B135" s="6">
-        <v>22691.88</v>
+        <v>22775.92</v>
       </c>
       <c r="C135" s="6">
-        <v>23169.83</v>
+        <v>22589.13</v>
       </c>
       <c r="D135" s="6">
-        <v>23197.57</v>
+        <v>22979.29</v>
       </c>
       <c r="E135" s="6">
-        <v>22691.88</v>
+        <v>22589.13</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2">
-        <v>0.0013</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="B136" s="6">
-        <v>22662.71</v>
+        <v>22691.88</v>
       </c>
       <c r="C136" s="6">
-        <v>22576.56</v>
+        <v>23169.83</v>
       </c>
       <c r="D136" s="6">
-        <v>22747.63</v>
+        <v>23197.57</v>
       </c>
       <c r="E136" s="6">
-        <v>22449.16</v>
+        <v>22691.88</v>
       </c>
       <c r="F136" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="G136" s="2">
-        <v>0.007</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B137" s="6">
-        <v>22504.68</v>
+        <v>22662.71</v>
       </c>
       <c r="C137" s="6">
-        <v>22192.51</v>
+        <v>22576.56</v>
       </c>
       <c r="D137" s="6">
-        <v>22532.54</v>
+        <v>22747.63</v>
       </c>
       <c r="E137" s="6">
-        <v>22058.3</v>
+        <v>22449.16</v>
       </c>
       <c r="F137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G137" s="2">
-        <v>0.0174</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="B138" s="6">
-        <v>22119.41</v>
+        <v>22504.68</v>
       </c>
       <c r="C138" s="6">
-        <v>22038.73</v>
+        <v>22192.51</v>
       </c>
       <c r="D138" s="6">
-        <v>22129.31</v>
+        <v>22532.54</v>
       </c>
       <c r="E138" s="6">
-        <v>21848.33</v>
+        <v>22058.3</v>
       </c>
       <c r="F138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G138" s="2">
-        <v>0.0051</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B139" s="6">
-        <v>22008.11</v>
+        <v>22119.41</v>
       </c>
       <c r="C139" s="6">
-        <v>22073.36</v>
+        <v>22038.73</v>
       </c>
       <c r="D139" s="6">
-        <v>22213.51</v>
+        <v>22129.31</v>
       </c>
       <c r="E139" s="6">
-        <v>21918.1</v>
+        <v>21848.33</v>
       </c>
       <c r="F139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G139" s="2">
-        <v>0.0016</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="B140" s="6">
-        <v>21971.96</v>
+        <v>22008.11</v>
       </c>
       <c r="C140" s="6">
-        <v>22072.35</v>
+        <v>22073.36</v>
       </c>
       <c r="D140" s="6">
-        <v>22072.35</v>
+        <v>22213.51</v>
       </c>
       <c r="E140" s="6">
-        <v>21817.85</v>
+        <v>21918.1</v>
       </c>
       <c r="F140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G140" s="2">
-        <v>-0.0004</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B141" s="6">
-        <v>21980.74</v>
+        <v>21971.96</v>
       </c>
       <c r="C141" s="6">
-        <v>22080.44</v>
+        <v>22072.35</v>
       </c>
       <c r="D141" s="6">
-        <v>22267.96</v>
+        <v>22072.35</v>
       </c>
       <c r="E141" s="6">
-        <v>21923.9</v>
+        <v>21817.85</v>
       </c>
       <c r="F141" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G141" s="2">
-        <v>0.0032</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="B142" s="6">
-        <v>21909.76</v>
+        <v>21980.74</v>
       </c>
       <c r="C142" s="6">
-        <v>22030.15</v>
+        <v>22080.44</v>
       </c>
       <c r="D142" s="6">
-        <v>22093.68</v>
+        <v>22267.96</v>
       </c>
       <c r="E142" s="6">
-        <v>21712.1</v>
+        <v>21923.9</v>
       </c>
       <c r="F142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G142" s="2">
-        <v>-0.0074</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B143" s="6">
-        <v>22072.62</v>
+        <v>21909.76</v>
       </c>
       <c r="C143" s="6">
-        <v>22080.19</v>
+        <v>22030.15</v>
       </c>
       <c r="D143" s="6">
-        <v>22138.81</v>
+        <v>22093.68</v>
       </c>
       <c r="E143" s="6">
-        <v>21862.87</v>
+        <v>21712.1</v>
       </c>
       <c r="F143" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G143" s="2">
-        <v>0.0237</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="B144" s="6">
-        <v>21562.32</v>
+        <v>22072.62</v>
       </c>
       <c r="C144" s="6">
-        <v>21303.51</v>
+        <v>22080.19</v>
       </c>
       <c r="D144" s="6">
-        <v>21592.67</v>
+        <v>22138.81</v>
       </c>
       <c r="E144" s="6">
-        <v>21191.02</v>
+        <v>21862.87</v>
       </c>
       <c r="F144" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G144" s="2">
-        <v>0.0078</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B145" s="6">
-        <v>21395.14</v>
+        <v>21562.32</v>
       </c>
       <c r="C145" s="6">
-        <v>21066.81</v>
+        <v>21303.51</v>
       </c>
       <c r="D145" s="6">
-        <v>21417.64</v>
+        <v>21592.67</v>
       </c>
       <c r="E145" s="6">
-        <v>21039.16</v>
+        <v>21191.02</v>
       </c>
       <c r="F145" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G145" s="2">
-        <v>0.0161</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B146" s="6">
-        <v>21056.98</v>
+        <v>21395.14</v>
       </c>
       <c r="C146" s="6">
-        <v>21316.47</v>
+        <v>21066.81</v>
       </c>
       <c r="D146" s="6">
-        <v>21363.57</v>
+        <v>21417.64</v>
       </c>
       <c r="E146" s="6">
-        <v>20868.36</v>
+        <v>21039.16</v>
       </c>
       <c r="F146" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="G146" s="2">
-        <v>-0.0191</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B147" s="6">
-        <v>21466.27</v>
+        <v>21056.98</v>
       </c>
       <c r="C147" s="6">
-        <v>21603.52</v>
+        <v>21316.47</v>
       </c>
       <c r="D147" s="6">
-        <v>21603.52</v>
+        <v>21363.57</v>
       </c>
       <c r="E147" s="6">
-        <v>21297.59</v>
+        <v>20868.36</v>
       </c>
       <c r="F147" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2">
-        <v>0.0023</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B148" s="6">
-        <v>21417.4</v>
+        <v>21466.27</v>
       </c>
       <c r="C148" s="6">
-        <v>21363.88</v>
+        <v>21603.52</v>
       </c>
       <c r="D148" s="6">
-        <v>21517.32</v>
+        <v>21603.52</v>
       </c>
       <c r="E148" s="6">
-        <v>21224.55</v>
+        <v>21297.59</v>
       </c>
       <c r="F148" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="G148" s="2">
-        <v>0.024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B149" s="6">
-        <v>20914.69</v>
+        <v>21417.4</v>
       </c>
       <c r="C149" s="6">
-        <v>20557.49</v>
+        <v>21363.88</v>
       </c>
       <c r="D149" s="6">
-        <v>21127.37</v>
+        <v>21517.32</v>
       </c>
       <c r="E149" s="6">
-        <v>20444.04</v>
+        <v>21224.55</v>
       </c>
       <c r="F149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G149" s="2">
-        <v>0.0113</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B150" s="6">
-        <v>20681.78</v>
+        <v>20914.69</v>
       </c>
       <c r="C150" s="6">
-        <v>20810.43</v>
+        <v>20557.49</v>
       </c>
       <c r="D150" s="6">
-        <v>21211.13</v>
+        <v>21127.37</v>
       </c>
       <c r="E150" s="6">
-        <v>20530.43</v>
+        <v>20444.04</v>
       </c>
       <c r="F150" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G150" s="2">
-        <v>0.0206</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B151" s="6">
-        <v>20264.49</v>
+        <v>20681.78</v>
       </c>
       <c r="C151" s="6">
-        <v>19494.92</v>
+        <v>20810.43</v>
       </c>
       <c r="D151" s="6">
-        <v>20441.14</v>
+        <v>21211.13</v>
       </c>
       <c r="E151" s="6">
-        <v>19260.21</v>
+        <v>20530.43</v>
       </c>
       <c r="F151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G151" s="2">
-        <v>0.0068</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B152" s="6">
-        <v>20127.68</v>
+        <v>20264.49</v>
       </c>
       <c r="C152" s="6">
-        <v>20157.52</v>
+        <v>19494.92</v>
       </c>
       <c r="D152" s="6">
-        <v>20454.26</v>
+        <v>20441.14</v>
       </c>
       <c r="E152" s="6">
-        <v>19745.14</v>
+        <v>19260.21</v>
       </c>
       <c r="F152" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G152" s="2">
-        <v>0.0151</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B153" s="6">
-        <v>19828.3</v>
+        <v>20127.68</v>
       </c>
       <c r="C153" s="6">
-        <v>20730.05</v>
+        <v>20157.52</v>
       </c>
       <c r="D153" s="6">
-        <v>21047.83</v>
+        <v>20454.26</v>
       </c>
       <c r="E153" s="6">
-        <v>19706.03</v>
+        <v>19745.14</v>
       </c>
       <c r="F153" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G153" s="2">
-        <v>-0.1322</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="B154" s="6">
-        <v>22849.81</v>
+        <v>19828.3</v>
       </c>
       <c r="C154" s="6">
-        <v>22638.21</v>
+        <v>20730.05</v>
       </c>
       <c r="D154" s="6">
-        <v>22998.3</v>
+        <v>21047.83</v>
       </c>
       <c r="E154" s="6">
-        <v>22638.21</v>
+        <v>19706.03</v>
       </c>
       <c r="F154" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G154" s="2">
-        <v>-0.0152</v>
+        <v>-0.1322</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="B155" s="6">
-        <v>23202.53</v>
+        <v>22849.81</v>
       </c>
       <c r="C155" s="6">
-        <v>23167.31</v>
+        <v>22638.21</v>
       </c>
       <c r="D155" s="6">
-        <v>23393.03</v>
+        <v>22998.3</v>
       </c>
       <c r="E155" s="6">
-        <v>22980.96</v>
+        <v>22638.21</v>
       </c>
       <c r="F155" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G155" s="2">
-        <v>-0.0002</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B156" s="6">
-        <v>23206.84</v>
+        <v>23202.53</v>
       </c>
       <c r="C156" s="6">
-        <v>23217.11</v>
+        <v>23167.31</v>
       </c>
       <c r="D156" s="6">
-        <v>23456.58</v>
+        <v>23393.03</v>
       </c>
       <c r="E156" s="6">
-        <v>23123.35</v>
+        <v>22980.96</v>
       </c>
       <c r="F156" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G156" s="2">
-        <v>0.0038</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B157" s="6">
-        <v>23119.58</v>
+        <v>23206.84</v>
       </c>
       <c r="C157" s="6">
-        <v>23207.07</v>
+        <v>23217.11</v>
       </c>
       <c r="D157" s="6">
-        <v>23399.73</v>
+        <v>23456.58</v>
       </c>
       <c r="E157" s="6">
-        <v>23002.81</v>
+        <v>23123.35</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="G157" s="2">
-        <v>-0.0131</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B158" s="6">
-        <v>23426.6</v>
+        <v>23119.58</v>
       </c>
       <c r="C158" s="6">
-        <v>23672.82</v>
+        <v>23207.07</v>
       </c>
       <c r="D158" s="6">
-        <v>23775.3</v>
+        <v>23399.73</v>
       </c>
       <c r="E158" s="6">
-        <v>23254.3</v>
+        <v>23002.81</v>
       </c>
       <c r="F158" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="G158" s="2">
-        <v>-0.0065</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B159" s="6">
-        <v>23578.8</v>
+        <v>23426.6</v>
       </c>
       <c r="C159" s="6">
-        <v>23543.86</v>
+        <v>23672.82</v>
       </c>
       <c r="D159" s="6">
-        <v>23865.62</v>
+        <v>23775.3</v>
       </c>
       <c r="E159" s="6">
-        <v>23372.36</v>
+        <v>23254.3</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="G159" s="2">
-        <v>0.0041</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B160" s="6">
-        <v>23483.32</v>
+        <v>23578.8</v>
       </c>
       <c r="C160" s="6">
-        <v>23460.31</v>
+        <v>23543.86</v>
       </c>
       <c r="D160" s="6">
-        <v>23596.85</v>
+        <v>23865.62</v>
       </c>
       <c r="E160" s="6">
-        <v>23350.73</v>
+        <v>23372.36</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G160" s="2">
-        <v>0.006</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B161" s="6">
-        <v>23344.25</v>
+        <v>23483.32</v>
       </c>
       <c r="C161" s="6">
-        <v>23643.32</v>
+        <v>23460.31</v>
       </c>
       <c r="D161" s="6">
-        <v>23747.32</v>
+        <v>23596.85</v>
       </c>
       <c r="E161" s="6">
-        <v>23321.67</v>
+        <v>23350.73</v>
       </c>
       <c r="F161" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G161" s="2">
-        <v>-0.0235</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B162" s="6">
-        <v>23905.56</v>
+        <v>23344.25</v>
       </c>
       <c r="C162" s="6">
-        <v>23749.58</v>
+        <v>23643.32</v>
       </c>
       <c r="D162" s="6">
-        <v>23967.51</v>
+        <v>23747.32</v>
       </c>
       <c r="E162" s="6">
-        <v>23531.2</v>
+        <v>23321.67</v>
       </c>
       <c r="F162" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G162" s="2">
-        <v>0.0091</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B163" s="6">
-        <v>23689.72</v>
+        <v>23905.56</v>
       </c>
       <c r="C163" s="6">
-        <v>24109.07</v>
+        <v>23749.58</v>
       </c>
       <c r="D163" s="6">
-        <v>24230.72</v>
+        <v>23967.51</v>
       </c>
       <c r="E163" s="6">
-        <v>23577.78</v>
+        <v>23531.2</v>
       </c>
       <c r="F163" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="G163" s="2">
-        <v>-0.0219</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B164" s="6">
-        <v>24219.95</v>
+        <v>23689.72</v>
       </c>
       <c r="C164" s="6">
-        <v>24753.15</v>
+        <v>24109.07</v>
       </c>
       <c r="D164" s="6">
-        <v>24753.15</v>
+        <v>24230.72</v>
       </c>
       <c r="E164" s="6">
-        <v>24186.69</v>
+        <v>23577.78</v>
       </c>
       <c r="F164" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G164" s="2">
-        <v>-0.0223</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B165" s="6">
-        <v>24771.14</v>
+        <v>24219.95</v>
       </c>
       <c r="C165" s="6">
-        <v>24697.63</v>
+        <v>24753.15</v>
       </c>
       <c r="D165" s="6">
-        <v>24874.39</v>
+        <v>24753.15</v>
       </c>
       <c r="E165" s="6">
-        <v>24601.73</v>
+        <v>24186.69</v>
       </c>
       <c r="F165" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="G165" s="2">
-        <v>0.0012</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B166" s="6">
-        <v>24740.57</v>
+        <v>24771.14</v>
       </c>
       <c r="C166" s="6">
-        <v>24679.35</v>
+        <v>24697.63</v>
       </c>
       <c r="D166" s="6">
-        <v>24745.13</v>
+        <v>24874.39</v>
       </c>
       <c r="E166" s="6">
-        <v>24475.26</v>
+        <v>24601.73</v>
       </c>
       <c r="F166" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="G166" s="2">
-        <v>0.0246</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
       <c r="B167" s="6">
-        <v>24145.57</v>
+        <v>24740.57</v>
       </c>
       <c r="C167" s="6">
-        <v>24226</v>
+        <v>24679.35</v>
       </c>
       <c r="D167" s="6">
-        <v>24352.47</v>
+        <v>24745.13</v>
       </c>
       <c r="E167" s="6">
-        <v>24077.15</v>
+        <v>24475.26</v>
       </c>
       <c r="F167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G167" s="2">
-        <v>0.0077</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B168" s="6">
-        <v>23959.98</v>
+        <v>24145.57</v>
       </c>
       <c r="C168" s="6">
-        <v>23653.33</v>
+        <v>24226</v>
       </c>
       <c r="D168" s="6">
-        <v>24113.53</v>
+        <v>24352.47</v>
       </c>
       <c r="E168" s="6">
-        <v>23454.49</v>
+        <v>24077.15</v>
       </c>
       <c r="F168" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G168" s="2">
-        <v>0.0212</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B169" s="6">
-        <v>23462.65</v>
+        <v>23959.98</v>
       </c>
       <c r="C169" s="6">
-        <v>23616.33</v>
+        <v>23653.33</v>
       </c>
       <c r="D169" s="6">
-        <v>23712.61</v>
+        <v>24113.53</v>
       </c>
       <c r="E169" s="6">
-        <v>23198.73</v>
+        <v>23454.49</v>
       </c>
       <c r="F169" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="G169" s="2">
-        <v>-0.0058</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B170" s="6">
-        <v>23600.31</v>
+        <v>23462.65</v>
       </c>
       <c r="C170" s="6">
-        <v>23859.23</v>
+        <v>23616.33</v>
       </c>
       <c r="D170" s="6">
-        <v>23962.03</v>
+        <v>23712.61</v>
       </c>
       <c r="E170" s="6">
-        <v>23363.98</v>
+        <v>23198.73</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G170" s="2">
-        <v>-0.0076</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B171" s="6">
-        <v>23782.14</v>
+        <v>23600.31</v>
       </c>
       <c r="C171" s="6">
-        <v>23274.86</v>
+        <v>23859.23</v>
       </c>
       <c r="D171" s="6">
-        <v>23858.61</v>
+        <v>23962.03</v>
       </c>
       <c r="E171" s="6">
-        <v>23238.36</v>
+        <v>23363.98</v>
       </c>
       <c r="F171" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="G171" s="2">
-        <v>-0.0001</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B172" s="6">
-        <v>23783.49</v>
+        <v>23782.14</v>
       </c>
       <c r="C172" s="6">
-        <v>24115.98</v>
+        <v>23274.86</v>
       </c>
       <c r="D172" s="6">
-        <v>24292.8</v>
+        <v>23858.61</v>
       </c>
       <c r="E172" s="6">
-        <v>23632.42</v>
+        <v>23238.36</v>
       </c>
       <c r="F172" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="G172" s="2">
-        <v>-0.0185</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B173" s="6">
-        <v>24231.3</v>
+        <v>23783.49</v>
       </c>
       <c r="C173" s="6">
-        <v>24182.02</v>
+        <v>24115.98</v>
       </c>
       <c r="D173" s="6">
-        <v>24669.62</v>
+        <v>24292.8</v>
       </c>
       <c r="E173" s="6">
-        <v>24065.01</v>
+        <v>23632.42</v>
       </c>
       <c r="F173" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G173" s="2">
-        <v>-0.0057</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B174" s="6">
-        <v>24369.71</v>
+        <v>24231.3</v>
       </c>
       <c r="C174" s="6">
-        <v>23987.09</v>
+        <v>24182.02</v>
       </c>
       <c r="D174" s="6">
-        <v>24410.93</v>
+        <v>24669.62</v>
       </c>
       <c r="E174" s="6">
-        <v>23987.09</v>
+        <v>24065.01</v>
       </c>
       <c r="F174" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G174" s="2">
-        <v>0.0329</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B175" s="6">
-        <v>23594.21</v>
+        <v>24369.71</v>
       </c>
       <c r="C175" s="6">
-        <v>23200.42</v>
+        <v>23987.09</v>
       </c>
       <c r="D175" s="6">
-        <v>23636.65</v>
+        <v>24410.93</v>
       </c>
       <c r="E175" s="6">
-        <v>23090.63</v>
+        <v>23987.09</v>
       </c>
       <c r="F175" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G175" s="2">
-        <v>0.0284</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B176" s="6">
-        <v>22941.77</v>
+        <v>23594.21</v>
       </c>
       <c r="C176" s="6">
-        <v>22678.25</v>
+        <v>23200.42</v>
       </c>
       <c r="D176" s="6">
-        <v>23051.01</v>
+        <v>23636.65</v>
       </c>
       <c r="E176" s="6">
-        <v>22547.53</v>
+        <v>23090.63</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="G176" s="2">
-        <v>-0.0028</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B177" s="6">
-        <v>23006.27</v>
+        <v>22941.77</v>
       </c>
       <c r="C177" s="6">
-        <v>23135.12</v>
+        <v>22678.25</v>
       </c>
       <c r="D177" s="6">
-        <v>23405.98</v>
+        <v>23051.01</v>
       </c>
       <c r="E177" s="6">
-        <v>22861.75</v>
+        <v>22547.53</v>
       </c>
       <c r="F177" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G177" s="2">
-        <v>0.0028</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B178" s="6">
-        <v>22941.32</v>
+        <v>23006.27</v>
       </c>
       <c r="C178" s="6">
-        <v>23616.18</v>
+        <v>23135.12</v>
       </c>
       <c r="D178" s="6">
-        <v>23616.18</v>
+        <v>23405.98</v>
       </c>
       <c r="E178" s="6">
-        <v>22798.34</v>
+        <v>22861.75</v>
       </c>
       <c r="F178" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="G178" s="2">
-        <v>-0.0328</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B179" s="6">
-        <v>23718.29</v>
+        <v>22941.32</v>
       </c>
       <c r="C179" s="6">
-        <v>23783.75</v>
+        <v>23616.18</v>
       </c>
       <c r="D179" s="6">
-        <v>24076.53</v>
+        <v>23616.18</v>
       </c>
       <c r="E179" s="6">
-        <v>23441.74</v>
+        <v>22798.34</v>
       </c>
       <c r="F179" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G179" s="2">
-        <v>-0.0029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B180" s="6">
-        <v>23787.93</v>
+        <v>23718.29</v>
       </c>
       <c r="C180" s="6">
-        <v>23238.34</v>
+        <v>23783.75</v>
       </c>
       <c r="D180" s="6">
-        <v>23973.17</v>
+        <v>24076.53</v>
       </c>
       <c r="E180" s="6">
-        <v>23238.34</v>
+        <v>23441.74</v>
       </c>
       <c r="F180" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G180" s="2">
-        <v>0.0327</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B181" s="6">
-        <v>23034.02</v>
+        <v>23787.93</v>
       </c>
       <c r="C181" s="6">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="D181" s="6">
-        <v>23248.52</v>
+        <v>23973.17</v>
       </c>
       <c r="E181" s="6">
-        <v>22716.48</v>
+        <v>23238.34</v>
       </c>
       <c r="F181" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G181" s="2">
-        <v>-0.0132</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B182" s="6">
-        <v>23341.61</v>
+        <v>23034.02</v>
       </c>
       <c r="C182" s="6">
-        <v>23472.14</v>
+        <v>22716.48</v>
       </c>
       <c r="D182" s="6">
-        <v>23688.45</v>
+        <v>23248.52</v>
       </c>
       <c r="E182" s="6">
-        <v>23221.57</v>
+        <v>22716.48</v>
       </c>
       <c r="F182" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G182" s="2">
-        <v>-0.0058</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B183" s="6">
-        <v>23477.92</v>
+        <v>23341.61</v>
       </c>
       <c r="C183" s="6">
-        <v>23090.03</v>
+        <v>23472.14</v>
       </c>
       <c r="D183" s="6">
-        <v>23477.92</v>
+        <v>23688.45</v>
       </c>
       <c r="E183" s="6">
-        <v>22901.69</v>
+        <v>23221.57</v>
       </c>
       <c r="F183" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G183" s="2">
-        <v>0.0399</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B184" s="6">
-        <v>22576.98</v>
+        <v>23477.92</v>
       </c>
       <c r="C184" s="6">
-        <v>22716.71</v>
+        <v>23090.03</v>
       </c>
       <c r="D184" s="6">
-        <v>22849.66</v>
+        <v>23477.92</v>
       </c>
       <c r="E184" s="6">
-        <v>22436.13</v>
+        <v>22901.69</v>
       </c>
       <c r="F184" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G184" s="2">
-        <v>-0.016</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>45707</v>
+        <v>45708</v>
       </c>
       <c r="B185" s="6">
-        <v>22944.24</v>
+        <v>22576.98</v>
       </c>
       <c r="C185" s="6">
-        <v>22777.46</v>
+        <v>22716.71</v>
       </c>
       <c r="D185" s="6">
-        <v>22975.34</v>
+        <v>22849.66</v>
       </c>
       <c r="E185" s="6">
-        <v>22649.49</v>
+        <v>22436.13</v>
       </c>
       <c r="F185" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G185" s="2">
-        <v>-0.0014</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B186" s="6">
-        <v>22976.81</v>
+        <v>22944.24</v>
       </c>
       <c r="C186" s="6">
-        <v>22664.73</v>
+        <v>22777.46</v>
       </c>
       <c r="D186" s="6">
-        <v>23141.41</v>
+        <v>22975.34</v>
       </c>
       <c r="E186" s="6">
-        <v>22608.18</v>
+        <v>22649.49</v>
       </c>
       <c r="F186" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G186" s="2">
-        <v>0.0159</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B187" s="6">
-        <v>22616.23</v>
+        <v>22976.81</v>
       </c>
       <c r="C187" s="6">
-        <v>22755.06</v>
+        <v>22664.73</v>
       </c>
       <c r="D187" s="6">
-        <v>22977.25</v>
+        <v>23141.41</v>
       </c>
       <c r="E187" s="6">
-        <v>22319.32</v>
+        <v>22608.18</v>
       </c>
       <c r="F187" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G187" s="2">
-        <v>-0.0002</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B188" s="6">
-        <v>22620.33</v>
+        <v>22616.23</v>
       </c>
       <c r="C188" s="6">
-        <v>22027.07</v>
+        <v>22755.06</v>
       </c>
       <c r="D188" s="6">
-        <v>22620.33</v>
+        <v>22977.25</v>
       </c>
       <c r="E188" s="6">
-        <v>22027.07</v>
+        <v>22319.32</v>
       </c>
       <c r="F188" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G188" s="2">
-        <v>0.0369</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B189" s="6">
-        <v>21814.37</v>
+        <v>22620.33</v>
       </c>
       <c r="C189" s="6">
-        <v>21958.69</v>
+        <v>22027.07</v>
       </c>
       <c r="D189" s="6">
-        <v>22523.57</v>
+        <v>22620.33</v>
       </c>
       <c r="E189" s="6">
-        <v>21735.56</v>
+        <v>22027.07</v>
       </c>
       <c r="F189" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G189" s="2">
-        <v>-0.002</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B190" s="6">
-        <v>21857.92</v>
+        <v>21814.37</v>
       </c>
       <c r="C190" s="6">
-        <v>21526.41</v>
+        <v>21958.69</v>
       </c>
       <c r="D190" s="6">
-        <v>21858.83</v>
+        <v>22523.57</v>
       </c>
       <c r="E190" s="6">
-        <v>21411.09</v>
+        <v>21735.56</v>
       </c>
       <c r="F190" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G190" s="2">
-        <v>0.0264</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B191" s="6">
-        <v>21294.86</v>
+        <v>21857.92</v>
       </c>
       <c r="C191" s="6">
-        <v>21656.82</v>
+        <v>21526.41</v>
       </c>
       <c r="D191" s="6">
-        <v>21682.41</v>
+        <v>21858.83</v>
       </c>
       <c r="E191" s="6">
-        <v>21279.37</v>
+        <v>21411.09</v>
       </c>
       <c r="F191" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G191" s="2">
-        <v>-0.0106</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B192" s="6">
-        <v>21521.98</v>
+        <v>21294.86</v>
       </c>
       <c r="C192" s="6">
-        <v>21223.61</v>
+        <v>21656.82</v>
       </c>
       <c r="D192" s="6">
-        <v>21539.63</v>
+        <v>21682.41</v>
       </c>
       <c r="E192" s="6">
-        <v>21223.61</v>
+        <v>21279.37</v>
       </c>
       <c r="F192" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="G192" s="2">
-        <v>0.0184</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B193" s="6">
-        <v>21133.54</v>
+        <v>21521.98</v>
       </c>
       <c r="C193" s="6">
-        <v>20858.52</v>
+        <v>21223.61</v>
       </c>
       <c r="D193" s="6">
-        <v>21213.7</v>
+        <v>21539.63</v>
       </c>
       <c r="E193" s="6">
-        <v>20806.1</v>
+        <v>21223.61</v>
       </c>
       <c r="F193" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="G193" s="2">
-        <v>0.0116</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B194" s="6">
-        <v>20891.62</v>
+        <v>21133.54</v>
       </c>
       <c r="C194" s="6">
-        <v>20598.98</v>
+        <v>20858.52</v>
       </c>
       <c r="D194" s="6">
-        <v>20891.62</v>
+        <v>21213.7</v>
       </c>
       <c r="E194" s="6">
-        <v>20532.06</v>
+        <v>20806.1</v>
       </c>
       <c r="F194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G194" s="2">
-        <v>0.0143</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B195" s="6">
-        <v>20597.09</v>
+        <v>20891.62</v>
       </c>
       <c r="C195" s="6">
-        <v>20827.77</v>
+        <v>20598.98</v>
       </c>
       <c r="D195" s="6">
-        <v>20827.77</v>
+        <v>20891.62</v>
       </c>
       <c r="E195" s="6">
-        <v>20417.39</v>
+        <v>20532.06</v>
       </c>
       <c r="F195" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G195" s="2">
-        <v>-0.0093</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B196" s="6">
-        <v>20789.96</v>
+        <v>20597.09</v>
       </c>
       <c r="C196" s="6">
-        <v>20488.29</v>
+        <v>20827.77</v>
       </c>
       <c r="D196" s="6">
-        <v>20885.49</v>
+        <v>20827.77</v>
       </c>
       <c r="E196" s="6">
-        <v>20297.64</v>
+        <v>20417.39</v>
       </c>
       <c r="F196" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G196" s="2">
-        <v>0.0283</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B197" s="6">
-        <v>20217.26</v>
+        <v>20789.96</v>
       </c>
       <c r="C197" s="6">
-        <v>20048.87</v>
+        <v>20488.29</v>
       </c>
       <c r="D197" s="6">
-        <v>20222</v>
+        <v>20885.49</v>
       </c>
       <c r="E197" s="6">
-        <v>19764.67</v>
+        <v>20297.64</v>
       </c>
       <c r="F197" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="G197" s="2">
-        <v>-0.0004</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="B198" s="6">
-        <v>20225.11</v>
+        <v>20217.26</v>
       </c>
       <c r="C198" s="6">
-        <v>20337.46</v>
+        <v>20048.87</v>
       </c>
       <c r="D198" s="6">
-        <v>20337.46</v>
+        <v>20222</v>
       </c>
       <c r="E198" s="6">
-        <v>20165.73</v>
+        <v>19764.67</v>
       </c>
       <c r="F198" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G198" s="2">
-        <v>0.0014</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B199" s="6">
-        <v>20197.77</v>
+        <v>20225.11</v>
       </c>
       <c r="C199" s="6">
-        <v>20118.02</v>
+        <v>20337.46</v>
       </c>
       <c r="D199" s="6">
-        <v>20296.94</v>
+        <v>20337.46</v>
       </c>
       <c r="E199" s="6">
-        <v>20118.02</v>
+        <v>20165.73</v>
       </c>
       <c r="F199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G199" s="2">
-        <v>0.0066</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B200" s="6">
-        <v>20066.19</v>
+        <v>20197.77</v>
       </c>
       <c r="C200" s="6">
-        <v>19842.85</v>
+        <v>20118.02</v>
       </c>
       <c r="D200" s="6">
-        <v>20144</v>
+        <v>20296.94</v>
       </c>
       <c r="E200" s="6">
-        <v>19768.13</v>
+        <v>20118.02</v>
       </c>
       <c r="F200" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="G200" s="2">
-        <v>0.0186</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B201" s="6">
-        <v>19700.56</v>
+        <v>20066.19</v>
       </c>
       <c r="C201" s="6">
-        <v>19881.32</v>
+        <v>19842.85</v>
       </c>
       <c r="D201" s="6">
-        <v>20044.06</v>
+        <v>20144</v>
       </c>
       <c r="E201" s="6">
-        <v>19644.83</v>
+        <v>19768.13</v>
       </c>
       <c r="F201" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="G201" s="2">
-        <v>-0.004</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B202" s="6">
-        <v>19778.77</v>
+        <v>19700.56</v>
       </c>
       <c r="C202" s="6">
-        <v>19997.09</v>
+        <v>19881.32</v>
       </c>
       <c r="D202" s="6">
-        <v>20022.34</v>
+        <v>20044.06</v>
       </c>
       <c r="E202" s="6">
-        <v>19733.21</v>
+        <v>19644.83</v>
       </c>
       <c r="F202" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="G202" s="2">
-        <v>-0.0163</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B203" s="6">
-        <v>20106.55</v>
+        <v>19778.77</v>
       </c>
       <c r="C203" s="6">
-        <v>20128.34</v>
+        <v>19997.09</v>
       </c>
       <c r="D203" s="6">
-        <v>20205.25</v>
+        <v>20022.34</v>
       </c>
       <c r="E203" s="6">
-        <v>19920.31</v>
+        <v>19733.21</v>
       </c>
       <c r="F203" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G203" s="2">
-        <v>0.0091</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B204" s="6">
-        <v>19925.81</v>
+        <v>20106.55</v>
       </c>
       <c r="C204" s="6">
-        <v>19804.64</v>
+        <v>20128.34</v>
       </c>
       <c r="D204" s="6">
-        <v>20093.65</v>
+        <v>20205.25</v>
       </c>
       <c r="E204" s="6">
-        <v>19786.73</v>
+        <v>19920.31</v>
       </c>
       <c r="F204" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G204" s="2">
-        <v>0.0175</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B205" s="6">
-        <v>19584.06</v>
+        <v>19925.81</v>
       </c>
       <c r="C205" s="6">
-        <v>19499.1</v>
+        <v>19804.64</v>
       </c>
       <c r="D205" s="6">
-        <v>19640.37</v>
+        <v>20093.65</v>
       </c>
       <c r="E205" s="6">
-        <v>19423.7</v>
+        <v>19786.73</v>
       </c>
       <c r="F205" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G205" s="2">
-        <v>0.0031</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B206" s="6">
-        <v>19522.89</v>
+        <v>19584.06</v>
       </c>
       <c r="C206" s="6">
-        <v>19454.92</v>
+        <v>19499.1</v>
       </c>
       <c r="D206" s="6">
-        <v>19664.39</v>
+        <v>19640.37</v>
       </c>
       <c r="E206" s="6">
-        <v>19345.19</v>
+        <v>19423.7</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="G206" s="2">
-        <v>0.0123</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B207" s="6">
-        <v>19286.07</v>
+        <v>19522.89</v>
       </c>
       <c r="C207" s="6">
-        <v>19149.94</v>
+        <v>19454.92</v>
       </c>
       <c r="D207" s="6">
-        <v>19319.22</v>
+        <v>19664.39</v>
       </c>
       <c r="E207" s="6">
-        <v>19149.94</v>
+        <v>19345.19</v>
       </c>
       <c r="F207" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G207" s="2">
-        <v>0.0034</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B208" s="6">
-        <v>19219.78</v>
+        <v>19286.07</v>
       </c>
       <c r="C208" s="6">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="D208" s="6">
-        <v>19318.36</v>
+        <v>19319.22</v>
       </c>
       <c r="E208" s="6">
-        <v>18901.56</v>
+        <v>19149.94</v>
       </c>
       <c r="F208" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="G208" s="2">
-        <v>0.0183</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B209" s="6">
-        <v>18874.14</v>
+        <v>19219.78</v>
       </c>
       <c r="C209" s="6">
-        <v>18918.15</v>
+        <v>18901.56</v>
       </c>
       <c r="D209" s="6">
-        <v>18929.12</v>
+        <v>19318.36</v>
       </c>
       <c r="E209" s="6">
-        <v>18671.49</v>
+        <v>18901.56</v>
       </c>
       <c r="F209" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G209" s="2">
-        <v>-0.01</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B210" s="6">
-        <v>19064.29</v>
+        <v>18874.14</v>
       </c>
       <c r="C210" s="6">
-        <v>19328.07</v>
+        <v>18918.15</v>
       </c>
       <c r="D210" s="6">
-        <v>19370.49</v>
+        <v>18929.12</v>
       </c>
       <c r="E210" s="6">
-        <v>19036.64</v>
+        <v>18671.49</v>
       </c>
       <c r="F210" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G210" s="2">
-        <v>-0.0092</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="B211" s="6">
-        <v>19240.89</v>
+        <v>19064.29</v>
       </c>
       <c r="C211" s="6">
-        <v>19254.38</v>
+        <v>19328.07</v>
       </c>
       <c r="D211" s="6">
-        <v>19405.74</v>
+        <v>19370.49</v>
       </c>
       <c r="E211" s="6">
-        <v>19227.73</v>
+        <v>19036.64</v>
       </c>
       <c r="F211" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G211" s="2">
-        <v>-0.002</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="B212" s="6">
-        <v>19279.84</v>
+        <v>19240.89</v>
       </c>
       <c r="C212" s="6">
-        <v>19390.76</v>
+        <v>19254.38</v>
       </c>
       <c r="D212" s="6">
-        <v>19483.59</v>
+        <v>19405.74</v>
       </c>
       <c r="E212" s="6">
-        <v>19111.54</v>
+        <v>19227.73</v>
       </c>
       <c r="F212" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="G212" s="2">
-        <v>-0.0086</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="B213" s="6">
-        <v>19447.58</v>
+        <v>19279.84</v>
       </c>
       <c r="C213" s="6">
-        <v>19501.45</v>
+        <v>19390.76</v>
       </c>
       <c r="D213" s="6">
-        <v>19668.65</v>
+        <v>19483.59</v>
       </c>
       <c r="E213" s="6">
-        <v>19252.61</v>
+        <v>19111.54</v>
       </c>
       <c r="F213" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="G213" s="2">
-        <v>-0.0122</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B214" s="6">
-        <v>19688.29</v>
+        <v>19447.58</v>
       </c>
       <c r="C214" s="6">
-        <v>19848.71</v>
+        <v>19501.45</v>
       </c>
       <c r="D214" s="6">
-        <v>19851.55</v>
+        <v>19668.65</v>
       </c>
       <c r="E214" s="6">
-        <v>19627.84</v>
+        <v>19252.61</v>
       </c>
       <c r="F214" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G214" s="2">
-        <v>-0.0036</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B215" s="6">
-        <v>19760.27</v>
+        <v>19688.29</v>
       </c>
       <c r="C215" s="6">
-        <v>19708.74</v>
+        <v>19848.71</v>
       </c>
       <c r="D215" s="6">
-        <v>19891.86</v>
+        <v>19851.55</v>
       </c>
       <c r="E215" s="6">
-        <v>19634.07</v>
+        <v>19627.84</v>
       </c>
       <c r="F215" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G215" s="2">
-        <v>0.007</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B216" s="6">
+        <v>19760.27</v>
+      </c>
+      <c r="C216" s="6">
+        <v>19708.74</v>
+      </c>
+      <c r="D216" s="6">
+        <v>19891.86</v>
+      </c>
+      <c r="E216" s="6">
+        <v>19634.07</v>
+      </c>
+      <c r="F216" t="s">
+        <v>124</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
         <v>45659</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B217" s="6">
         <v>19623.32</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C217" s="6">
         <v>19932.8</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D217" s="6">
         <v>19932.8</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E217" s="6">
         <v>19542.98</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F217" t="s">
         <v>157</v>
       </c>
-      <c r="G216" s="2">
+      <c r="G217" s="2">
         <v>-0.0218</v>
       </c>
     </row>
